--- a/Resources/TestData/Live_eStoresTestData.xlsx
+++ b/Resources/TestData/Live_eStoresTestData.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="70">
   <si>
     <t>TestName</t>
   </si>
@@ -220,18 +220,53 @@
   <si>
     <t>913172065742</t>
   </si>
+  <si>
+    <t>PurchaseWithWarranty</t>
+  </si>
+  <si>
+    <t>PurchaseItemWithMembership</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Benyon</t>
+  </si>
+  <si>
+    <t>M34 7RZ</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>7 Worthington Road</t>
+  </si>
+  <si>
+    <t>Denton</t>
+  </si>
+  <si>
+    <t>Jordan Benyon</t>
+  </si>
+  <si>
+    <t>913213704556</t>
+  </si>
+  <si>
+    <t>Membership</t>
+  </si>
+  <si>
+    <t>FailMembershipLogin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <sz val="11.0"/>
       <name val="Calibri"/>
@@ -257,21 +292,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -280,8 +311,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -302,14 +336,20 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="25.0"/>
+    <col customWidth="1" min="2" max="5" width="7.63"/>
     <col customWidth="1" min="6" max="6" width="11.13"/>
     <col customWidth="1" min="7" max="7" width="9.63"/>
-    <col customWidth="1" min="8" max="14" width="7.63"/>
+    <col customWidth="1" min="8" max="9" width="7.63"/>
+    <col customWidth="1" min="10" max="10" width="10.88"/>
+    <col customWidth="1" min="11" max="11" width="12.88"/>
+    <col customWidth="1" min="12" max="12" width="19.25"/>
+    <col customWidth="1" min="13" max="13" width="17.13"/>
+    <col customWidth="1" min="14" max="14" width="7.63"/>
     <col customWidth="1" min="15" max="15" width="9.75"/>
     <col customWidth="1" min="16" max="16" width="9.38"/>
     <col customWidth="1" min="17" max="17" width="7.63"/>
-    <col customWidth="1" min="18" max="18" width="10.5"/>
+    <col customWidth="1" min="18" max="18" width="21.75"/>
     <col customWidth="1" min="19" max="28" width="7.63"/>
   </cols>
   <sheetData>
@@ -356,7 +396,7 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -400,462 +440,648 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="7" t="str">
+      <c r="P2" s="5" t="str">
         <f t="shared" ref="P2:P4" si="2">TEXT(TODAY()+2,"dd/MM/yyyy")</f>
-        <v>16/10/2017</v>
+        <v>17/10/2017</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="3" t="str">
+      <c r="V2" s="1" t="str">
         <f t="shared" ref="V2:V4" si="3">"Credit/Debit Card - "&amp;LEFT(R2,6)&amp;"xxxxxx"&amp;RIGHT(R2,4)</f>
         <v>Credit/Debit Card - 511111xxxxxx1118</v>
       </c>
-      <c r="W2" s="3" t="str">
+      <c r="W2" s="1" t="str">
         <f t="shared" ref="W2:AB2" si="1">H2</f>
         <v>M13 0AS</v>
       </c>
-      <c r="X2" s="3" t="str">
+      <c r="X2" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Flat 58</v>
       </c>
-      <c r="Y2" s="3" t="str">
+      <c r="Y2" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Flat 58</v>
       </c>
-      <c r="Z2" s="3" t="str">
+      <c r="Z2" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Plymouth Village</v>
       </c>
-      <c r="AA2" s="3" t="str">
+      <c r="AA2" s="1" t="str">
         <f t="shared" si="1"/>
         <v>208 Plymouth Grove</v>
       </c>
-      <c r="AB2" s="3" t="str">
+      <c r="AB2" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Manchester</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="7" t="str">
+      <c r="P3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>16/10/2017</v>
+        <v>17/10/2017</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="3" t="str">
+      <c r="V3" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Credit/Debit Card - 511111xxxxxx1118</v>
       </c>
-      <c r="W3" s="3" t="str">
+      <c r="W3" s="1" t="str">
         <f t="shared" ref="W3:AB3" si="4">H3</f>
         <v>M13 0AS</v>
       </c>
-      <c r="X3" s="3" t="str">
+      <c r="X3" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Flat 58</v>
       </c>
-      <c r="Y3" s="3" t="str">
+      <c r="Y3" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Flat 58</v>
       </c>
-      <c r="Z3" s="3" t="str">
+      <c r="Z3" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Plymouth Village</v>
       </c>
-      <c r="AA3" s="3" t="str">
+      <c r="AA3" s="1" t="str">
         <f t="shared" si="4"/>
         <v>208 Plymouth Grove</v>
       </c>
-      <c r="AB3" s="3" t="str">
+      <c r="AB3" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Manchester</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="7" t="str">
+      <c r="P4" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>16/10/2017</v>
+        <v>17/10/2017</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V4" s="3" t="str">
+      <c r="V4" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Credit/Debit Card - 511111xxxxxx1118</v>
       </c>
-      <c r="W4" s="3" t="str">
+      <c r="W4" s="1" t="str">
         <f t="shared" ref="W4:AB4" si="5">H4</f>
         <v>M13 0AS</v>
       </c>
-      <c r="X4" s="3" t="str">
+      <c r="X4" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Flat 58</v>
       </c>
-      <c r="Y4" s="3" t="str">
+      <c r="Y4" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Flat 58</v>
       </c>
-      <c r="Z4" s="3" t="str">
+      <c r="Z4" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Plymouth Village</v>
       </c>
-      <c r="AA4" s="3" t="str">
+      <c r="AA4" s="1" t="str">
         <f t="shared" si="5"/>
         <v>208 Plymouth Grove</v>
       </c>
-      <c r="AB4" s="3" t="str">
+      <c r="AB4" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Manchester</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AB5" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="5" t="str">
+        <f t="shared" ref="P6:P8" si="7">TEXT(TODAY()+2,"dd/MM/yyyy")</f>
+        <v>17/10/2017</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" s="1" t="str">
+        <f>"Credit/Debit Card - "&amp;LEFT(R6,6)&amp;"xxxxxx"&amp;RIGHT(R6,4)</f>
+        <v>Credit/Debit Card - 511111xxxxxx1118</v>
+      </c>
+      <c r="W6" s="1" t="str">
+        <f t="shared" ref="W6:AB6" si="6">H6</f>
+        <v>M13 0AS</v>
+      </c>
+      <c r="X6" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Flat 58</v>
+      </c>
+      <c r="Y6" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Flat 58</v>
+      </c>
+      <c r="Z6" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Plymouth Village</v>
+      </c>
+      <c r="AA6" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>208 Plymouth Grove</v>
+      </c>
+      <c r="AB6" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Manchester</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>17/10/2017</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W7" s="1" t="str">
+        <f t="shared" ref="W7:AB7" si="8">H7</f>
+        <v>M34 7RZ</v>
+      </c>
+      <c r="X7" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="Y7" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>7 Worthington Road</v>
+      </c>
+      <c r="Z7" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Denton</v>
+      </c>
+      <c r="AA7" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Manchester</v>
+      </c>
+      <c r="AB7" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="A8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>17/10/2017</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W8" s="1" t="str">
+        <f t="shared" ref="W8:AB8" si="9">H8</f>
+        <v>M34 7RZ</v>
+      </c>
+      <c r="X8" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="Y8" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>7 Worthington Road</v>
+      </c>
+      <c r="Z8" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>Denton</v>
+      </c>
+      <c r="AA8" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>Manchester</v>
+      </c>
+      <c r="AB8" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
@@ -30622,8 +30848,9 @@
     <hyperlink r:id="rId2" ref="F2"/>
     <hyperlink r:id="rId3" ref="F3"/>
     <hyperlink r:id="rId4" ref="F4"/>
+    <hyperlink r:id="rId5" ref="F6"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <drawing r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/Resources/TestData/Live_eStoresTestData.xlsx
+++ b/Resources/TestData/Live_eStoresTestData.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="77">
   <si>
     <t>TestName</t>
   </si>
@@ -131,6 +131,9 @@
     <t>BillingAddressLine4</t>
   </si>
   <si>
+    <t>Membership</t>
+  </si>
+  <si>
     <t>SmokeTest</t>
   </si>
   <si>
@@ -188,6 +191,9 @@
     <t>2021</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>MultipleItems</t>
   </si>
   <si>
@@ -215,9 +221,6 @@
     <t>jordanbenyon@coopdigital.coop</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>913172065742</t>
   </si>
   <si>
@@ -225,6 +228,9 @@
   </si>
   <si>
     <t>PurchaseItemWithMembership</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>Jordan</t>
@@ -251,17 +257,32 @@
     <t>913213704556</t>
   </si>
   <si>
-    <t>Membership</t>
+    <t>FailMembershipLogin</t>
   </si>
   <si>
-    <t>FailMembershipLogin</t>
+    <t>PurchaseItemPartialMembership</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>PurchaseItemNoMembership</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>PurchaseItemWithVoucher</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -277,6 +298,7 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -292,12 +314,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -312,10 +337,10 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -350,7 +375,7 @@
     <col customWidth="1" min="16" max="16" width="9.38"/>
     <col customWidth="1" min="17" max="17" width="7.63"/>
     <col customWidth="1" min="18" max="18" width="21.75"/>
-    <col customWidth="1" min="19" max="28" width="7.63"/>
+    <col customWidth="1" min="19" max="29" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -438,71 +463,74 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
-      <c r="P2" s="5" t="str">
+      <c r="P2" s="6" t="str">
         <f t="shared" ref="P2:P4" si="2">TEXT(TODAY()+2,"dd/MM/yyyy")</f>
-        <v>17/10/2017</v>
+        <v>18/10/2017</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="R2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="S2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="T2" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="V2" s="1" t="str">
         <f t="shared" ref="V2:V4" si="3">"Credit/Debit Card - "&amp;LEFT(R2,6)&amp;"xxxxxx"&amp;RIGHT(R2,4)</f>
@@ -532,71 +560,74 @@
         <f t="shared" si="1"/>
         <v>Manchester</v>
       </c>
+      <c r="AC2" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>48</v>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
-      <c r="P3" s="5" t="str">
+      <c r="P3" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>17/10/2017</v>
+        <v>18/10/2017</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="R3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="S3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="T3" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="V3" s="1" t="str">
         <f t="shared" si="3"/>
@@ -626,71 +657,74 @@
         <f t="shared" si="4"/>
         <v>Manchester</v>
       </c>
+      <c r="AC3" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>50</v>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
-      <c r="P4" s="5" t="str">
+      <c r="P4" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>17/10/2017</v>
+        <v>18/10/2017</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="R4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="S4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="T4" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="V4" s="1" t="str">
         <f t="shared" si="3"/>
@@ -720,157 +754,163 @@
         <f t="shared" si="5"/>
         <v>Manchester</v>
       </c>
+      <c r="AC4" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>52</v>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>57</v>
+      <c r="R5" s="5" t="s">
+        <v>44</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>56</v>
+      <c r="S5" s="3" t="s">
+        <v>45</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>56</v>
+      <c r="T5" s="3" t="s">
+        <v>46</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>56</v>
+      <c r="U5" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
+      <c r="B6" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
-      <c r="P6" s="5" t="str">
-        <f t="shared" ref="P6:P8" si="7">TEXT(TODAY()+2,"dd/MM/yyyy")</f>
-        <v>17/10/2017</v>
+      <c r="P6" s="6" t="str">
+        <f t="shared" ref="P6:P11" si="7">TEXT(TODAY()+2,"dd/MM/yyyy")</f>
+        <v>18/10/2017</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="R6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="S6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="T6" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="V6" s="1" t="str">
         <f>"Credit/Debit Card - "&amp;LEFT(R6,6)&amp;"xxxxxx"&amp;RIGHT(R6,4)</f>
@@ -900,72 +940,75 @@
         <f t="shared" si="6"/>
         <v>Manchester</v>
       </c>
+      <c r="AC6" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
+      <c r="B7" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>60</v>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>61</v>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>34</v>
+      <c r="G7" s="5" t="s">
+        <v>35</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="I7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>39</v>
+      <c r="J7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
-      <c r="P7" s="5" t="str">
+      <c r="P7" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>17/10/2017</v>
+        <v>18/10/2017</v>
       </c>
-      <c r="Q7" s="6" t="s">
-        <v>66</v>
+      <c r="Q7" s="2" t="s">
+        <v>68</v>
       </c>
-      <c r="R7" s="7" t="s">
-        <v>67</v>
+      <c r="R7" s="5" t="s">
+        <v>44</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>56</v>
+      <c r="S7" s="3" t="s">
+        <v>45</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>56</v>
+      <c r="T7" s="3" t="s">
+        <v>46</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>56</v>
+      <c r="U7" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="W7" s="1" t="str">
         <f t="shared" ref="W7:AB7" si="8">H7</f>
@@ -991,72 +1034,75 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="AC7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>60</v>
+      <c r="D8" s="2" t="s">
+        <v>62</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>61</v>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>34</v>
+      <c r="G8" s="5" t="s">
+        <v>35</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="H8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="I8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>39</v>
+      <c r="J8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
-      <c r="P8" s="5" t="str">
+      <c r="P8" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>17/10/2017</v>
+        <v>18/10/2017</v>
       </c>
-      <c r="Q8" s="6" t="s">
-        <v>66</v>
+      <c r="Q8" s="2" t="s">
+        <v>68</v>
       </c>
-      <c r="R8" s="7" t="s">
-        <v>67</v>
+      <c r="R8" s="5" t="s">
+        <v>44</v>
       </c>
-      <c r="S8" s="2" t="s">
-        <v>56</v>
+      <c r="S8" s="3" t="s">
+        <v>45</v>
       </c>
-      <c r="T8" s="2" t="s">
-        <v>56</v>
+      <c r="T8" s="3" t="s">
+        <v>46</v>
       </c>
-      <c r="U8" s="2" t="s">
-        <v>56</v>
+      <c r="U8" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="W8" s="1" t="str">
         <f t="shared" ref="W8:AB8" si="9">H8</f>
@@ -1082,96 +1128,294 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="AC8" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="A9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>18/10/2017</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" s="1" t="str">
+        <f t="shared" ref="W9:AB9" si="10">H9</f>
+        <v>M34 7RZ</v>
+      </c>
+      <c r="X9" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="Y9" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>7 Worthington Road</v>
+      </c>
+      <c r="Z9" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Denton</v>
+      </c>
+      <c r="AA9" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Manchester</v>
+      </c>
+      <c r="AB9" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AC9" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>18/10/2017</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="1" t="str">
+        <f t="shared" ref="W10:AB10" si="11">H10</f>
+        <v>M34 7RZ</v>
+      </c>
+      <c r="X10" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="Y10" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>7 Worthington Road</v>
+      </c>
+      <c r="Z10" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>Denton</v>
+      </c>
+      <c r="AA10" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>Manchester</v>
+      </c>
+      <c r="AB10" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>18/10/2017</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V11" s="1" t="str">
+        <f>"Credit/Debit Card - "&amp;LEFT(R11,6)&amp;"xxxxxx"&amp;RIGHT(R11,4)</f>
+        <v>Credit/Debit Card - 511111xxxxxx1118</v>
+      </c>
+      <c r="W11" s="1" t="str">
+        <f t="shared" ref="W11:AB11" si="12">H11</f>
+        <v>M13 0AS</v>
+      </c>
+      <c r="X11" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>Flat 58</v>
+      </c>
+      <c r="Y11" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>Flat 58</v>
+      </c>
+      <c r="Z11" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>Plymouth Village</v>
+      </c>
+      <c r="AA11" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>208 Plymouth Grove</v>
+      </c>
+      <c r="AB11" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>Manchester</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
@@ -1202,6 +1446,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
@@ -1232,6 +1477,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
@@ -1262,6 +1508,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
@@ -1292,6 +1539,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
@@ -1322,6 +1570,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
@@ -1352,6 +1601,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
@@ -1382,6 +1632,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
@@ -1412,6 +1663,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
@@ -1442,6 +1694,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
@@ -1472,6 +1725,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
@@ -1502,6 +1756,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
@@ -1532,6 +1787,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
@@ -1562,6 +1818,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
@@ -1592,6 +1849,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
@@ -1622,6 +1880,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
@@ -1652,6 +1911,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
@@ -1682,6 +1942,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
@@ -1712,6 +1973,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
@@ -1742,6 +2004,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
@@ -1772,6 +2035,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1"/>
@@ -1802,6 +2066,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="1"/>
@@ -1832,6 +2097,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" s="1"/>
@@ -1862,6 +2128,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" s="1"/>
@@ -1892,6 +2159,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1"/>
@@ -1922,6 +2190,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
@@ -1952,6 +2221,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
@@ -1982,6 +2252,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
@@ -2012,6 +2283,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
@@ -2042,6 +2314,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
@@ -2072,6 +2345,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
@@ -2102,6 +2376,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
@@ -2132,6 +2407,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
@@ -2162,6 +2438,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
@@ -2192,6 +2469,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
@@ -2222,6 +2500,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
@@ -2252,6 +2531,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
@@ -2282,6 +2562,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
@@ -2312,6 +2593,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
@@ -2342,6 +2624,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
@@ -2372,6 +2655,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
@@ -2402,6 +2686,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
@@ -2432,6 +2717,7 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1"/>
@@ -2462,6 +2748,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1"/>
@@ -2492,6 +2779,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1"/>
@@ -2522,6 +2810,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1"/>
@@ -2552,6 +2841,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1"/>
@@ -2582,6 +2872,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1"/>
@@ -2612,6 +2903,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1"/>
@@ -2642,6 +2934,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
     </row>
     <row r="61">
       <c r="A61" s="1"/>
@@ -2672,6 +2965,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
     </row>
     <row r="62">
       <c r="A62" s="1"/>
@@ -2702,6 +2996,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
     </row>
     <row r="63">
       <c r="A63" s="1"/>
@@ -2732,6 +3027,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
     </row>
     <row r="64">
       <c r="A64" s="1"/>
@@ -2762,6 +3058,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1"/>
@@ -2792,6 +3089,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1"/>
@@ -2822,6 +3120,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1"/>
@@ -2852,6 +3151,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1"/>
@@ -2882,6 +3182,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
@@ -2912,6 +3213,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
@@ -2942,6 +3244,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
@@ -2972,6 +3275,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
@@ -3002,6 +3306,7 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="1"/>
@@ -3032,6 +3337,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="1"/>
@@ -3062,6 +3368,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
@@ -3092,6 +3399,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="1"/>
@@ -3122,6 +3430,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="1"/>
@@ -3152,6 +3461,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="1"/>
@@ -3182,6 +3492,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="1"/>
@@ -3212,6 +3523,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="1"/>
@@ -3242,6 +3554,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" s="1"/>
@@ -3272,6 +3585,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1"/>
@@ -3302,6 +3616,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="1"/>
@@ -3332,6 +3647,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="1"/>
@@ -3362,6 +3678,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="1"/>
@@ -3392,6 +3709,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="1"/>
@@ -3422,6 +3740,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" s="1"/>
@@ -3452,6 +3771,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1"/>
@@ -3482,6 +3802,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" s="1"/>
@@ -3512,6 +3833,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
     </row>
     <row r="90">
       <c r="A90" s="1"/>
@@ -3542,6 +3864,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
     </row>
     <row r="91">
       <c r="A91" s="1"/>
@@ -3572,6 +3895,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
     </row>
     <row r="92">
       <c r="A92" s="1"/>
@@ -3602,6 +3926,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
     </row>
     <row r="93">
       <c r="A93" s="1"/>
@@ -3632,6 +3957,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" s="1"/>
@@ -3662,6 +3988,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
@@ -3692,6 +4019,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
@@ -3722,6 +4050,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
@@ -3752,6 +4081,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="1"/>
@@ -3782,6 +4112,7 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
     </row>
     <row r="99">
       <c r="A99" s="1"/>
@@ -3812,6 +4143,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" s="1"/>
@@ -3842,6 +4174,7 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
     </row>
     <row r="101">
       <c r="A101" s="1"/>
@@ -3872,6 +4205,7 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="1"/>
@@ -3902,6 +4236,7 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
     </row>
     <row r="103">
       <c r="A103" s="1"/>
@@ -3932,6 +4267,7 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
+      <c r="AC103" s="1"/>
     </row>
     <row r="104">
       <c r="A104" s="1"/>
@@ -3962,6 +4298,7 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" s="1"/>
@@ -3992,6 +4329,7 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
     </row>
     <row r="106">
       <c r="A106" s="1"/>
@@ -4022,6 +4360,7 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
     </row>
     <row r="107">
       <c r="A107" s="1"/>
@@ -4052,6 +4391,7 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
+      <c r="AC107" s="1"/>
     </row>
     <row r="108">
       <c r="A108" s="1"/>
@@ -4082,6 +4422,7 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
     </row>
     <row r="109">
       <c r="A109" s="1"/>
@@ -4112,6 +4453,7 @@
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
+      <c r="AC109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" s="1"/>
@@ -4142,6 +4484,7 @@
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
+      <c r="AC110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="1"/>
@@ -4172,6 +4515,7 @@
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
+      <c r="AC111" s="1"/>
     </row>
     <row r="112">
       <c r="A112" s="1"/>
@@ -4202,6 +4546,7 @@
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
+      <c r="AC112" s="1"/>
     </row>
     <row r="113">
       <c r="A113" s="1"/>
@@ -4232,6 +4577,7 @@
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
+      <c r="AC113" s="1"/>
     </row>
     <row r="114">
       <c r="A114" s="1"/>
@@ -4262,6 +4608,7 @@
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
+      <c r="AC114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="1"/>
@@ -4292,6 +4639,7 @@
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
+      <c r="AC115" s="1"/>
     </row>
     <row r="116">
       <c r="A116" s="1"/>
@@ -4322,6 +4670,7 @@
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
+      <c r="AC116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" s="1"/>
@@ -4352,6 +4701,7 @@
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
+      <c r="AC117" s="1"/>
     </row>
     <row r="118">
       <c r="A118" s="1"/>
@@ -4382,6 +4732,7 @@
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
+      <c r="AC118" s="1"/>
     </row>
     <row r="119">
       <c r="A119" s="1"/>
@@ -4412,6 +4763,7 @@
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
+      <c r="AC119" s="1"/>
     </row>
     <row r="120">
       <c r="A120" s="1"/>
@@ -4442,6 +4794,7 @@
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
+      <c r="AC120" s="1"/>
     </row>
     <row r="121">
       <c r="A121" s="1"/>
@@ -4472,6 +4825,7 @@
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
+      <c r="AC121" s="1"/>
     </row>
     <row r="122">
       <c r="A122" s="1"/>
@@ -4502,6 +4856,7 @@
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
+      <c r="AC122" s="1"/>
     </row>
     <row r="123">
       <c r="A123" s="1"/>
@@ -4532,6 +4887,7 @@
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
+      <c r="AC123" s="1"/>
     </row>
     <row r="124">
       <c r="A124" s="1"/>
@@ -4562,6 +4918,7 @@
       <c r="Z124" s="1"/>
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
+      <c r="AC124" s="1"/>
     </row>
     <row r="125">
       <c r="A125" s="1"/>
@@ -4592,6 +4949,7 @@
       <c r="Z125" s="1"/>
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
+      <c r="AC125" s="1"/>
     </row>
     <row r="126">
       <c r="A126" s="1"/>
@@ -4622,6 +4980,7 @@
       <c r="Z126" s="1"/>
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
+      <c r="AC126" s="1"/>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
@@ -4652,6 +5011,7 @@
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
+      <c r="AC127" s="1"/>
     </row>
     <row r="128">
       <c r="A128" s="1"/>
@@ -4682,6 +5042,7 @@
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
+      <c r="AC128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
@@ -4712,6 +5073,7 @@
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
+      <c r="AC129" s="1"/>
     </row>
     <row r="130">
       <c r="A130" s="1"/>
@@ -4742,6 +5104,7 @@
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
+      <c r="AC130" s="1"/>
     </row>
     <row r="131">
       <c r="A131" s="1"/>
@@ -4772,6 +5135,7 @@
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
+      <c r="AC131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
@@ -4802,6 +5166,7 @@
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
+      <c r="AC132" s="1"/>
     </row>
     <row r="133">
       <c r="A133" s="1"/>
@@ -4832,6 +5197,7 @@
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
+      <c r="AC133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" s="1"/>
@@ -4862,6 +5228,7 @@
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
+      <c r="AC134" s="1"/>
     </row>
     <row r="135">
       <c r="A135" s="1"/>
@@ -4892,6 +5259,7 @@
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
+      <c r="AC135" s="1"/>
     </row>
     <row r="136">
       <c r="A136" s="1"/>
@@ -4922,6 +5290,7 @@
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
+      <c r="AC136" s="1"/>
     </row>
     <row r="137">
       <c r="A137" s="1"/>
@@ -4952,6 +5321,7 @@
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
+      <c r="AC137" s="1"/>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
@@ -4982,6 +5352,7 @@
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
+      <c r="AC138" s="1"/>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
@@ -5012,6 +5383,7 @@
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
+      <c r="AC139" s="1"/>
     </row>
     <row r="140">
       <c r="A140" s="1"/>
@@ -5042,6 +5414,7 @@
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
+      <c r="AC140" s="1"/>
     </row>
     <row r="141">
       <c r="A141" s="1"/>
@@ -5072,6 +5445,7 @@
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
+      <c r="AC141" s="1"/>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
@@ -5102,6 +5476,7 @@
       <c r="Z142" s="1"/>
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
+      <c r="AC142" s="1"/>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
@@ -5132,6 +5507,7 @@
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
+      <c r="AC143" s="1"/>
     </row>
     <row r="144">
       <c r="A144" s="1"/>
@@ -5162,6 +5538,7 @@
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
+      <c r="AC144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" s="1"/>
@@ -5192,6 +5569,7 @@
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
+      <c r="AC145" s="1"/>
     </row>
     <row r="146">
       <c r="A146" s="1"/>
@@ -5222,6 +5600,7 @@
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
+      <c r="AC146" s="1"/>
     </row>
     <row r="147">
       <c r="A147" s="1"/>
@@ -5252,6 +5631,7 @@
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
+      <c r="AC147" s="1"/>
     </row>
     <row r="148">
       <c r="A148" s="1"/>
@@ -5282,6 +5662,7 @@
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
+      <c r="AC148" s="1"/>
     </row>
     <row r="149">
       <c r="A149" s="1"/>
@@ -5312,6 +5693,7 @@
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
+      <c r="AC149" s="1"/>
     </row>
     <row r="150">
       <c r="A150" s="1"/>
@@ -5342,6 +5724,7 @@
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
+      <c r="AC150" s="1"/>
     </row>
     <row r="151">
       <c r="A151" s="1"/>
@@ -5372,6 +5755,7 @@
       <c r="Z151" s="1"/>
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
+      <c r="AC151" s="1"/>
     </row>
     <row r="152">
       <c r="A152" s="1"/>
@@ -5402,6 +5786,7 @@
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
+      <c r="AC152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="1"/>
@@ -5432,6 +5817,7 @@
       <c r="Z153" s="1"/>
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
+      <c r="AC153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" s="1"/>
@@ -5462,6 +5848,7 @@
       <c r="Z154" s="1"/>
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
+      <c r="AC154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="1"/>
@@ -5492,6 +5879,7 @@
       <c r="Z155" s="1"/>
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
+      <c r="AC155" s="1"/>
     </row>
     <row r="156">
       <c r="A156" s="1"/>
@@ -5522,6 +5910,7 @@
       <c r="Z156" s="1"/>
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
+      <c r="AC156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="1"/>
@@ -5552,6 +5941,7 @@
       <c r="Z157" s="1"/>
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
+      <c r="AC157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="1"/>
@@ -5582,6 +5972,7 @@
       <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
+      <c r="AC158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="1"/>
@@ -5612,6 +6003,7 @@
       <c r="Z159" s="1"/>
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
+      <c r="AC159" s="1"/>
     </row>
     <row r="160">
       <c r="A160" s="1"/>
@@ -5642,6 +6034,7 @@
       <c r="Z160" s="1"/>
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
+      <c r="AC160" s="1"/>
     </row>
     <row r="161">
       <c r="A161" s="1"/>
@@ -5672,6 +6065,7 @@
       <c r="Z161" s="1"/>
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
+      <c r="AC161" s="1"/>
     </row>
     <row r="162">
       <c r="A162" s="1"/>
@@ -5702,6 +6096,7 @@
       <c r="Z162" s="1"/>
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
+      <c r="AC162" s="1"/>
     </row>
     <row r="163">
       <c r="A163" s="1"/>
@@ -5732,6 +6127,7 @@
       <c r="Z163" s="1"/>
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
+      <c r="AC163" s="1"/>
     </row>
     <row r="164">
       <c r="A164" s="1"/>
@@ -5762,6 +6158,7 @@
       <c r="Z164" s="1"/>
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
+      <c r="AC164" s="1"/>
     </row>
     <row r="165">
       <c r="A165" s="1"/>
@@ -5792,6 +6189,7 @@
       <c r="Z165" s="1"/>
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
+      <c r="AC165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" s="1"/>
@@ -5822,6 +6220,7 @@
       <c r="Z166" s="1"/>
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
+      <c r="AC166" s="1"/>
     </row>
     <row r="167">
       <c r="A167" s="1"/>
@@ -5852,6 +6251,7 @@
       <c r="Z167" s="1"/>
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
+      <c r="AC167" s="1"/>
     </row>
     <row r="168">
       <c r="A168" s="1"/>
@@ -5882,6 +6282,7 @@
       <c r="Z168" s="1"/>
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
+      <c r="AC168" s="1"/>
     </row>
     <row r="169">
       <c r="A169" s="1"/>
@@ -5912,6 +6313,7 @@
       <c r="Z169" s="1"/>
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
+      <c r="AC169" s="1"/>
     </row>
     <row r="170">
       <c r="A170" s="1"/>
@@ -5942,6 +6344,7 @@
       <c r="Z170" s="1"/>
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
+      <c r="AC170" s="1"/>
     </row>
     <row r="171">
       <c r="A171" s="1"/>
@@ -5972,6 +6375,7 @@
       <c r="Z171" s="1"/>
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
+      <c r="AC171" s="1"/>
     </row>
     <row r="172">
       <c r="A172" s="1"/>
@@ -6002,6 +6406,7 @@
       <c r="Z172" s="1"/>
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
+      <c r="AC172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" s="1"/>
@@ -6032,6 +6437,7 @@
       <c r="Z173" s="1"/>
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
+      <c r="AC173" s="1"/>
     </row>
     <row r="174">
       <c r="A174" s="1"/>
@@ -6062,6 +6468,7 @@
       <c r="Z174" s="1"/>
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
+      <c r="AC174" s="1"/>
     </row>
     <row r="175">
       <c r="A175" s="1"/>
@@ -6092,6 +6499,7 @@
       <c r="Z175" s="1"/>
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
+      <c r="AC175" s="1"/>
     </row>
     <row r="176">
       <c r="A176" s="1"/>
@@ -6122,6 +6530,7 @@
       <c r="Z176" s="1"/>
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
+      <c r="AC176" s="1"/>
     </row>
     <row r="177">
       <c r="A177" s="1"/>
@@ -6152,6 +6561,7 @@
       <c r="Z177" s="1"/>
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
+      <c r="AC177" s="1"/>
     </row>
     <row r="178">
       <c r="A178" s="1"/>
@@ -6182,6 +6592,7 @@
       <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
+      <c r="AC178" s="1"/>
     </row>
     <row r="179">
       <c r="A179" s="1"/>
@@ -6212,6 +6623,7 @@
       <c r="Z179" s="1"/>
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
+      <c r="AC179" s="1"/>
     </row>
     <row r="180">
       <c r="A180" s="1"/>
@@ -6242,6 +6654,7 @@
       <c r="Z180" s="1"/>
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
+      <c r="AC180" s="1"/>
     </row>
     <row r="181">
       <c r="A181" s="1"/>
@@ -6272,6 +6685,7 @@
       <c r="Z181" s="1"/>
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
+      <c r="AC181" s="1"/>
     </row>
     <row r="182">
       <c r="A182" s="1"/>
@@ -6302,6 +6716,7 @@
       <c r="Z182" s="1"/>
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
+      <c r="AC182" s="1"/>
     </row>
     <row r="183">
       <c r="A183" s="1"/>
@@ -6332,6 +6747,7 @@
       <c r="Z183" s="1"/>
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
+      <c r="AC183" s="1"/>
     </row>
     <row r="184">
       <c r="A184" s="1"/>
@@ -6362,6 +6778,7 @@
       <c r="Z184" s="1"/>
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
+      <c r="AC184" s="1"/>
     </row>
     <row r="185">
       <c r="A185" s="1"/>
@@ -6392,6 +6809,7 @@
       <c r="Z185" s="1"/>
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
+      <c r="AC185" s="1"/>
     </row>
     <row r="186">
       <c r="A186" s="1"/>
@@ -6422,6 +6840,7 @@
       <c r="Z186" s="1"/>
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
+      <c r="AC186" s="1"/>
     </row>
     <row r="187">
       <c r="A187" s="1"/>
@@ -6452,6 +6871,7 @@
       <c r="Z187" s="1"/>
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
+      <c r="AC187" s="1"/>
     </row>
     <row r="188">
       <c r="A188" s="1"/>
@@ -6482,6 +6902,7 @@
       <c r="Z188" s="1"/>
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
+      <c r="AC188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" s="1"/>
@@ -6512,6 +6933,7 @@
       <c r="Z189" s="1"/>
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
+      <c r="AC189" s="1"/>
     </row>
     <row r="190">
       <c r="A190" s="1"/>
@@ -6542,6 +6964,7 @@
       <c r="Z190" s="1"/>
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
+      <c r="AC190" s="1"/>
     </row>
     <row r="191">
       <c r="A191" s="1"/>
@@ -6572,6 +6995,7 @@
       <c r="Z191" s="1"/>
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
+      <c r="AC191" s="1"/>
     </row>
     <row r="192">
       <c r="A192" s="1"/>
@@ -6602,6 +7026,7 @@
       <c r="Z192" s="1"/>
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
+      <c r="AC192" s="1"/>
     </row>
     <row r="193">
       <c r="A193" s="1"/>
@@ -6632,6 +7057,7 @@
       <c r="Z193" s="1"/>
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
+      <c r="AC193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" s="1"/>
@@ -6662,6 +7088,7 @@
       <c r="Z194" s="1"/>
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
+      <c r="AC194" s="1"/>
     </row>
     <row r="195">
       <c r="A195" s="1"/>
@@ -6692,6 +7119,7 @@
       <c r="Z195" s="1"/>
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
+      <c r="AC195" s="1"/>
     </row>
     <row r="196">
       <c r="A196" s="1"/>
@@ -6722,6 +7150,7 @@
       <c r="Z196" s="1"/>
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
+      <c r="AC196" s="1"/>
     </row>
     <row r="197">
       <c r="A197" s="1"/>
@@ -6752,6 +7181,7 @@
       <c r="Z197" s="1"/>
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
+      <c r="AC197" s="1"/>
     </row>
     <row r="198">
       <c r="A198" s="1"/>
@@ -6782,6 +7212,7 @@
       <c r="Z198" s="1"/>
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
+      <c r="AC198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" s="1"/>
@@ -6812,6 +7243,7 @@
       <c r="Z199" s="1"/>
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
+      <c r="AC199" s="1"/>
     </row>
     <row r="200">
       <c r="A200" s="1"/>
@@ -6842,6 +7274,7 @@
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
+      <c r="AC200" s="1"/>
     </row>
     <row r="201">
       <c r="A201" s="1"/>
@@ -6872,6 +7305,7 @@
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
+      <c r="AC201" s="1"/>
     </row>
     <row r="202">
       <c r="A202" s="1"/>
@@ -6902,6 +7336,7 @@
       <c r="Z202" s="1"/>
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
+      <c r="AC202" s="1"/>
     </row>
     <row r="203">
       <c r="A203" s="1"/>
@@ -6932,6 +7367,7 @@
       <c r="Z203" s="1"/>
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
+      <c r="AC203" s="1"/>
     </row>
     <row r="204">
       <c r="A204" s="1"/>
@@ -6962,6 +7398,7 @@
       <c r="Z204" s="1"/>
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
+      <c r="AC204" s="1"/>
     </row>
     <row r="205">
       <c r="A205" s="1"/>
@@ -6992,6 +7429,7 @@
       <c r="Z205" s="1"/>
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
+      <c r="AC205" s="1"/>
     </row>
     <row r="206">
       <c r="A206" s="1"/>
@@ -7022,6 +7460,7 @@
       <c r="Z206" s="1"/>
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
+      <c r="AC206" s="1"/>
     </row>
     <row r="207">
       <c r="A207" s="1"/>
@@ -7052,6 +7491,7 @@
       <c r="Z207" s="1"/>
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
+      <c r="AC207" s="1"/>
     </row>
     <row r="208">
       <c r="A208" s="1"/>
@@ -7082,6 +7522,7 @@
       <c r="Z208" s="1"/>
       <c r="AA208" s="1"/>
       <c r="AB208" s="1"/>
+      <c r="AC208" s="1"/>
     </row>
     <row r="209">
       <c r="A209" s="1"/>
@@ -7112,6 +7553,7 @@
       <c r="Z209" s="1"/>
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
+      <c r="AC209" s="1"/>
     </row>
     <row r="210">
       <c r="A210" s="1"/>
@@ -7142,6 +7584,7 @@
       <c r="Z210" s="1"/>
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
+      <c r="AC210" s="1"/>
     </row>
     <row r="211">
       <c r="A211" s="1"/>
@@ -7172,6 +7615,7 @@
       <c r="Z211" s="1"/>
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
+      <c r="AC211" s="1"/>
     </row>
     <row r="212">
       <c r="A212" s="1"/>
@@ -7202,6 +7646,7 @@
       <c r="Z212" s="1"/>
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
+      <c r="AC212" s="1"/>
     </row>
     <row r="213">
       <c r="A213" s="1"/>
@@ -7232,6 +7677,7 @@
       <c r="Z213" s="1"/>
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
+      <c r="AC213" s="1"/>
     </row>
     <row r="214">
       <c r="A214" s="1"/>
@@ -7262,6 +7708,7 @@
       <c r="Z214" s="1"/>
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
+      <c r="AC214" s="1"/>
     </row>
     <row r="215">
       <c r="A215" s="1"/>
@@ -7292,6 +7739,7 @@
       <c r="Z215" s="1"/>
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
+      <c r="AC215" s="1"/>
     </row>
     <row r="216">
       <c r="A216" s="1"/>
@@ -7322,6 +7770,7 @@
       <c r="Z216" s="1"/>
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
+      <c r="AC216" s="1"/>
     </row>
     <row r="217">
       <c r="A217" s="1"/>
@@ -7352,6 +7801,7 @@
       <c r="Z217" s="1"/>
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
+      <c r="AC217" s="1"/>
     </row>
     <row r="218">
       <c r="A218" s="1"/>
@@ -7382,6 +7832,7 @@
       <c r="Z218" s="1"/>
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
+      <c r="AC218" s="1"/>
     </row>
     <row r="219">
       <c r="A219" s="1"/>
@@ -7412,6 +7863,7 @@
       <c r="Z219" s="1"/>
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
+      <c r="AC219" s="1"/>
     </row>
     <row r="220">
       <c r="A220" s="1"/>
@@ -7442,6 +7894,7 @@
       <c r="Z220" s="1"/>
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
+      <c r="AC220" s="1"/>
     </row>
     <row r="221">
       <c r="A221" s="1"/>
@@ -7472,6 +7925,7 @@
       <c r="Z221" s="1"/>
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
+      <c r="AC221" s="1"/>
     </row>
     <row r="222">
       <c r="A222" s="1"/>
@@ -7502,6 +7956,7 @@
       <c r="Z222" s="1"/>
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
+      <c r="AC222" s="1"/>
     </row>
     <row r="223">
       <c r="A223" s="1"/>
@@ -7532,6 +7987,7 @@
       <c r="Z223" s="1"/>
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
+      <c r="AC223" s="1"/>
     </row>
     <row r="224">
       <c r="A224" s="1"/>
@@ -7562,6 +8018,7 @@
       <c r="Z224" s="1"/>
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
+      <c r="AC224" s="1"/>
     </row>
     <row r="225">
       <c r="A225" s="1"/>
@@ -7592,6 +8049,7 @@
       <c r="Z225" s="1"/>
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
+      <c r="AC225" s="1"/>
     </row>
     <row r="226">
       <c r="A226" s="1"/>
@@ -7622,6 +8080,7 @@
       <c r="Z226" s="1"/>
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
+      <c r="AC226" s="1"/>
     </row>
     <row r="227">
       <c r="A227" s="1"/>
@@ -7652,6 +8111,7 @@
       <c r="Z227" s="1"/>
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
+      <c r="AC227" s="1"/>
     </row>
     <row r="228">
       <c r="A228" s="1"/>
@@ -7682,6 +8142,7 @@
       <c r="Z228" s="1"/>
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
+      <c r="AC228" s="1"/>
     </row>
     <row r="229">
       <c r="A229" s="1"/>
@@ -7712,6 +8173,7 @@
       <c r="Z229" s="1"/>
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
+      <c r="AC229" s="1"/>
     </row>
     <row r="230">
       <c r="A230" s="1"/>
@@ -7742,6 +8204,7 @@
       <c r="Z230" s="1"/>
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
+      <c r="AC230" s="1"/>
     </row>
     <row r="231">
       <c r="A231" s="1"/>
@@ -7772,6 +8235,7 @@
       <c r="Z231" s="1"/>
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
+      <c r="AC231" s="1"/>
     </row>
     <row r="232">
       <c r="A232" s="1"/>
@@ -7802,6 +8266,7 @@
       <c r="Z232" s="1"/>
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
+      <c r="AC232" s="1"/>
     </row>
     <row r="233">
       <c r="A233" s="1"/>
@@ -7832,6 +8297,7 @@
       <c r="Z233" s="1"/>
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
+      <c r="AC233" s="1"/>
     </row>
     <row r="234">
       <c r="A234" s="1"/>
@@ -7862,6 +8328,7 @@
       <c r="Z234" s="1"/>
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
+      <c r="AC234" s="1"/>
     </row>
     <row r="235">
       <c r="A235" s="1"/>
@@ -7892,6 +8359,7 @@
       <c r="Z235" s="1"/>
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
+      <c r="AC235" s="1"/>
     </row>
     <row r="236">
       <c r="A236" s="1"/>
@@ -7922,6 +8390,7 @@
       <c r="Z236" s="1"/>
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
+      <c r="AC236" s="1"/>
     </row>
     <row r="237">
       <c r="A237" s="1"/>
@@ -7952,6 +8421,7 @@
       <c r="Z237" s="1"/>
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
+      <c r="AC237" s="1"/>
     </row>
     <row r="238">
       <c r="A238" s="1"/>
@@ -7982,6 +8452,7 @@
       <c r="Z238" s="1"/>
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
+      <c r="AC238" s="1"/>
     </row>
     <row r="239">
       <c r="A239" s="1"/>
@@ -8012,6 +8483,7 @@
       <c r="Z239" s="1"/>
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
+      <c r="AC239" s="1"/>
     </row>
     <row r="240">
       <c r="A240" s="1"/>
@@ -8042,6 +8514,7 @@
       <c r="Z240" s="1"/>
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
+      <c r="AC240" s="1"/>
     </row>
     <row r="241">
       <c r="A241" s="1"/>
@@ -8072,6 +8545,7 @@
       <c r="Z241" s="1"/>
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
+      <c r="AC241" s="1"/>
     </row>
     <row r="242">
       <c r="A242" s="1"/>
@@ -8102,6 +8576,7 @@
       <c r="Z242" s="1"/>
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
+      <c r="AC242" s="1"/>
     </row>
     <row r="243">
       <c r="A243" s="1"/>
@@ -8132,6 +8607,7 @@
       <c r="Z243" s="1"/>
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
+      <c r="AC243" s="1"/>
     </row>
     <row r="244">
       <c r="A244" s="1"/>
@@ -8162,6 +8638,7 @@
       <c r="Z244" s="1"/>
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
+      <c r="AC244" s="1"/>
     </row>
     <row r="245">
       <c r="A245" s="1"/>
@@ -8192,6 +8669,7 @@
       <c r="Z245" s="1"/>
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
+      <c r="AC245" s="1"/>
     </row>
     <row r="246">
       <c r="A246" s="1"/>
@@ -8222,6 +8700,7 @@
       <c r="Z246" s="1"/>
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
+      <c r="AC246" s="1"/>
     </row>
     <row r="247">
       <c r="A247" s="1"/>
@@ -8252,6 +8731,7 @@
       <c r="Z247" s="1"/>
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
+      <c r="AC247" s="1"/>
     </row>
     <row r="248">
       <c r="A248" s="1"/>
@@ -8282,6 +8762,7 @@
       <c r="Z248" s="1"/>
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
+      <c r="AC248" s="1"/>
     </row>
     <row r="249">
       <c r="A249" s="1"/>
@@ -8312,6 +8793,7 @@
       <c r="Z249" s="1"/>
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
+      <c r="AC249" s="1"/>
     </row>
     <row r="250">
       <c r="A250" s="1"/>
@@ -8342,6 +8824,7 @@
       <c r="Z250" s="1"/>
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
+      <c r="AC250" s="1"/>
     </row>
     <row r="251">
       <c r="A251" s="1"/>
@@ -8372,6 +8855,7 @@
       <c r="Z251" s="1"/>
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
+      <c r="AC251" s="1"/>
     </row>
     <row r="252">
       <c r="A252" s="1"/>
@@ -8402,6 +8886,7 @@
       <c r="Z252" s="1"/>
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
+      <c r="AC252" s="1"/>
     </row>
     <row r="253">
       <c r="A253" s="1"/>
@@ -8432,6 +8917,7 @@
       <c r="Z253" s="1"/>
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
+      <c r="AC253" s="1"/>
     </row>
     <row r="254">
       <c r="A254" s="1"/>
@@ -8462,6 +8948,7 @@
       <c r="Z254" s="1"/>
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
+      <c r="AC254" s="1"/>
     </row>
     <row r="255">
       <c r="A255" s="1"/>
@@ -8492,6 +8979,7 @@
       <c r="Z255" s="1"/>
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
+      <c r="AC255" s="1"/>
     </row>
     <row r="256">
       <c r="A256" s="1"/>
@@ -8522,6 +9010,7 @@
       <c r="Z256" s="1"/>
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
+      <c r="AC256" s="1"/>
     </row>
     <row r="257">
       <c r="A257" s="1"/>
@@ -8552,6 +9041,7 @@
       <c r="Z257" s="1"/>
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
+      <c r="AC257" s="1"/>
     </row>
     <row r="258">
       <c r="A258" s="1"/>
@@ -8582,6 +9072,7 @@
       <c r="Z258" s="1"/>
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
+      <c r="AC258" s="1"/>
     </row>
     <row r="259">
       <c r="A259" s="1"/>
@@ -8612,6 +9103,7 @@
       <c r="Z259" s="1"/>
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
+      <c r="AC259" s="1"/>
     </row>
     <row r="260">
       <c r="A260" s="1"/>
@@ -8642,6 +9134,7 @@
       <c r="Z260" s="1"/>
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
+      <c r="AC260" s="1"/>
     </row>
     <row r="261">
       <c r="A261" s="1"/>
@@ -8672,6 +9165,7 @@
       <c r="Z261" s="1"/>
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
+      <c r="AC261" s="1"/>
     </row>
     <row r="262">
       <c r="A262" s="1"/>
@@ -8702,6 +9196,7 @@
       <c r="Z262" s="1"/>
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
+      <c r="AC262" s="1"/>
     </row>
     <row r="263">
       <c r="A263" s="1"/>
@@ -8732,6 +9227,7 @@
       <c r="Z263" s="1"/>
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
+      <c r="AC263" s="1"/>
     </row>
     <row r="264">
       <c r="A264" s="1"/>
@@ -8762,6 +9258,7 @@
       <c r="Z264" s="1"/>
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
+      <c r="AC264" s="1"/>
     </row>
     <row r="265">
       <c r="A265" s="1"/>
@@ -8792,6 +9289,7 @@
       <c r="Z265" s="1"/>
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
+      <c r="AC265" s="1"/>
     </row>
     <row r="266">
       <c r="A266" s="1"/>
@@ -8822,6 +9320,7 @@
       <c r="Z266" s="1"/>
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
+      <c r="AC266" s="1"/>
     </row>
     <row r="267">
       <c r="A267" s="1"/>
@@ -8852,6 +9351,7 @@
       <c r="Z267" s="1"/>
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
+      <c r="AC267" s="1"/>
     </row>
     <row r="268">
       <c r="A268" s="1"/>
@@ -8882,6 +9382,7 @@
       <c r="Z268" s="1"/>
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
+      <c r="AC268" s="1"/>
     </row>
     <row r="269">
       <c r="A269" s="1"/>
@@ -8912,6 +9413,7 @@
       <c r="Z269" s="1"/>
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
+      <c r="AC269" s="1"/>
     </row>
     <row r="270">
       <c r="A270" s="1"/>
@@ -8942,6 +9444,7 @@
       <c r="Z270" s="1"/>
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
+      <c r="AC270" s="1"/>
     </row>
     <row r="271">
       <c r="A271" s="1"/>
@@ -8972,6 +9475,7 @@
       <c r="Z271" s="1"/>
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
+      <c r="AC271" s="1"/>
     </row>
     <row r="272">
       <c r="A272" s="1"/>
@@ -9002,6 +9506,7 @@
       <c r="Z272" s="1"/>
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
+      <c r="AC272" s="1"/>
     </row>
     <row r="273">
       <c r="A273" s="1"/>
@@ -9032,6 +9537,7 @@
       <c r="Z273" s="1"/>
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
+      <c r="AC273" s="1"/>
     </row>
     <row r="274">
       <c r="A274" s="1"/>
@@ -9062,6 +9568,7 @@
       <c r="Z274" s="1"/>
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
+      <c r="AC274" s="1"/>
     </row>
     <row r="275">
       <c r="A275" s="1"/>
@@ -9092,6 +9599,7 @@
       <c r="Z275" s="1"/>
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
+      <c r="AC275" s="1"/>
     </row>
     <row r="276">
       <c r="A276" s="1"/>
@@ -9122,6 +9630,7 @@
       <c r="Z276" s="1"/>
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
+      <c r="AC276" s="1"/>
     </row>
     <row r="277">
       <c r="A277" s="1"/>
@@ -9152,6 +9661,7 @@
       <c r="Z277" s="1"/>
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
+      <c r="AC277" s="1"/>
     </row>
     <row r="278">
       <c r="A278" s="1"/>
@@ -9182,6 +9692,7 @@
       <c r="Z278" s="1"/>
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
+      <c r="AC278" s="1"/>
     </row>
     <row r="279">
       <c r="A279" s="1"/>
@@ -9212,6 +9723,7 @@
       <c r="Z279" s="1"/>
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
+      <c r="AC279" s="1"/>
     </row>
     <row r="280">
       <c r="A280" s="1"/>
@@ -9242,6 +9754,7 @@
       <c r="Z280" s="1"/>
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
+      <c r="AC280" s="1"/>
     </row>
     <row r="281">
       <c r="A281" s="1"/>
@@ -9272,6 +9785,7 @@
       <c r="Z281" s="1"/>
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
+      <c r="AC281" s="1"/>
     </row>
     <row r="282">
       <c r="A282" s="1"/>
@@ -9302,6 +9816,7 @@
       <c r="Z282" s="1"/>
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
+      <c r="AC282" s="1"/>
     </row>
     <row r="283">
       <c r="A283" s="1"/>
@@ -9332,6 +9847,7 @@
       <c r="Z283" s="1"/>
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
+      <c r="AC283" s="1"/>
     </row>
     <row r="284">
       <c r="A284" s="1"/>
@@ -9362,6 +9878,7 @@
       <c r="Z284" s="1"/>
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
+      <c r="AC284" s="1"/>
     </row>
     <row r="285">
       <c r="A285" s="1"/>
@@ -9392,6 +9909,7 @@
       <c r="Z285" s="1"/>
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
+      <c r="AC285" s="1"/>
     </row>
     <row r="286">
       <c r="A286" s="1"/>
@@ -9422,6 +9940,7 @@
       <c r="Z286" s="1"/>
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
+      <c r="AC286" s="1"/>
     </row>
     <row r="287">
       <c r="A287" s="1"/>
@@ -9452,6 +9971,7 @@
       <c r="Z287" s="1"/>
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
+      <c r="AC287" s="1"/>
     </row>
     <row r="288">
       <c r="A288" s="1"/>
@@ -9482,6 +10002,7 @@
       <c r="Z288" s="1"/>
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
+      <c r="AC288" s="1"/>
     </row>
     <row r="289">
       <c r="A289" s="1"/>
@@ -9512,6 +10033,7 @@
       <c r="Z289" s="1"/>
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
+      <c r="AC289" s="1"/>
     </row>
     <row r="290">
       <c r="A290" s="1"/>
@@ -9542,6 +10064,7 @@
       <c r="Z290" s="1"/>
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
+      <c r="AC290" s="1"/>
     </row>
     <row r="291">
       <c r="A291" s="1"/>
@@ -9572,6 +10095,7 @@
       <c r="Z291" s="1"/>
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
+      <c r="AC291" s="1"/>
     </row>
     <row r="292">
       <c r="A292" s="1"/>
@@ -9602,6 +10126,7 @@
       <c r="Z292" s="1"/>
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
+      <c r="AC292" s="1"/>
     </row>
     <row r="293">
       <c r="A293" s="1"/>
@@ -9632,6 +10157,7 @@
       <c r="Z293" s="1"/>
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
+      <c r="AC293" s="1"/>
     </row>
     <row r="294">
       <c r="A294" s="1"/>
@@ -9662,6 +10188,7 @@
       <c r="Z294" s="1"/>
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
+      <c r="AC294" s="1"/>
     </row>
     <row r="295">
       <c r="A295" s="1"/>
@@ -9692,6 +10219,7 @@
       <c r="Z295" s="1"/>
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
+      <c r="AC295" s="1"/>
     </row>
     <row r="296">
       <c r="A296" s="1"/>
@@ -9722,6 +10250,7 @@
       <c r="Z296" s="1"/>
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
+      <c r="AC296" s="1"/>
     </row>
     <row r="297">
       <c r="A297" s="1"/>
@@ -9752,6 +10281,7 @@
       <c r="Z297" s="1"/>
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
+      <c r="AC297" s="1"/>
     </row>
     <row r="298">
       <c r="A298" s="1"/>
@@ -9782,6 +10312,7 @@
       <c r="Z298" s="1"/>
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
+      <c r="AC298" s="1"/>
     </row>
     <row r="299">
       <c r="A299" s="1"/>
@@ -9812,6 +10343,7 @@
       <c r="Z299" s="1"/>
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
+      <c r="AC299" s="1"/>
     </row>
     <row r="300">
       <c r="A300" s="1"/>
@@ -9842,6 +10374,7 @@
       <c r="Z300" s="1"/>
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
+      <c r="AC300" s="1"/>
     </row>
     <row r="301">
       <c r="A301" s="1"/>
@@ -9872,6 +10405,7 @@
       <c r="Z301" s="1"/>
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
+      <c r="AC301" s="1"/>
     </row>
     <row r="302">
       <c r="A302" s="1"/>
@@ -9902,6 +10436,7 @@
       <c r="Z302" s="1"/>
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
+      <c r="AC302" s="1"/>
     </row>
     <row r="303">
       <c r="A303" s="1"/>
@@ -9932,6 +10467,7 @@
       <c r="Z303" s="1"/>
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
+      <c r="AC303" s="1"/>
     </row>
     <row r="304">
       <c r="A304" s="1"/>
@@ -9962,6 +10498,7 @@
       <c r="Z304" s="1"/>
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
+      <c r="AC304" s="1"/>
     </row>
     <row r="305">
       <c r="A305" s="1"/>
@@ -9992,6 +10529,7 @@
       <c r="Z305" s="1"/>
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
+      <c r="AC305" s="1"/>
     </row>
     <row r="306">
       <c r="A306" s="1"/>
@@ -10022,6 +10560,7 @@
       <c r="Z306" s="1"/>
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
+      <c r="AC306" s="1"/>
     </row>
     <row r="307">
       <c r="A307" s="1"/>
@@ -10052,6 +10591,7 @@
       <c r="Z307" s="1"/>
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
+      <c r="AC307" s="1"/>
     </row>
     <row r="308">
       <c r="A308" s="1"/>
@@ -10082,6 +10622,7 @@
       <c r="Z308" s="1"/>
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
+      <c r="AC308" s="1"/>
     </row>
     <row r="309">
       <c r="A309" s="1"/>
@@ -10112,6 +10653,7 @@
       <c r="Z309" s="1"/>
       <c r="AA309" s="1"/>
       <c r="AB309" s="1"/>
+      <c r="AC309" s="1"/>
     </row>
     <row r="310">
       <c r="A310" s="1"/>
@@ -10142,6 +10684,7 @@
       <c r="Z310" s="1"/>
       <c r="AA310" s="1"/>
       <c r="AB310" s="1"/>
+      <c r="AC310" s="1"/>
     </row>
     <row r="311">
       <c r="A311" s="1"/>
@@ -10172,6 +10715,7 @@
       <c r="Z311" s="1"/>
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
+      <c r="AC311" s="1"/>
     </row>
     <row r="312">
       <c r="A312" s="1"/>
@@ -10202,6 +10746,7 @@
       <c r="Z312" s="1"/>
       <c r="AA312" s="1"/>
       <c r="AB312" s="1"/>
+      <c r="AC312" s="1"/>
     </row>
     <row r="313">
       <c r="A313" s="1"/>
@@ -10232,6 +10777,7 @@
       <c r="Z313" s="1"/>
       <c r="AA313" s="1"/>
       <c r="AB313" s="1"/>
+      <c r="AC313" s="1"/>
     </row>
     <row r="314">
       <c r="A314" s="1"/>
@@ -10262,6 +10808,7 @@
       <c r="Z314" s="1"/>
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
+      <c r="AC314" s="1"/>
     </row>
     <row r="315">
       <c r="A315" s="1"/>
@@ -10292,6 +10839,7 @@
       <c r="Z315" s="1"/>
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
+      <c r="AC315" s="1"/>
     </row>
     <row r="316">
       <c r="A316" s="1"/>
@@ -10322,6 +10870,7 @@
       <c r="Z316" s="1"/>
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
+      <c r="AC316" s="1"/>
     </row>
     <row r="317">
       <c r="A317" s="1"/>
@@ -10352,6 +10901,7 @@
       <c r="Z317" s="1"/>
       <c r="AA317" s="1"/>
       <c r="AB317" s="1"/>
+      <c r="AC317" s="1"/>
     </row>
     <row r="318">
       <c r="A318" s="1"/>
@@ -10382,6 +10932,7 @@
       <c r="Z318" s="1"/>
       <c r="AA318" s="1"/>
       <c r="AB318" s="1"/>
+      <c r="AC318" s="1"/>
     </row>
     <row r="319">
       <c r="A319" s="1"/>
@@ -10412,6 +10963,7 @@
       <c r="Z319" s="1"/>
       <c r="AA319" s="1"/>
       <c r="AB319" s="1"/>
+      <c r="AC319" s="1"/>
     </row>
     <row r="320">
       <c r="A320" s="1"/>
@@ -10442,6 +10994,7 @@
       <c r="Z320" s="1"/>
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
+      <c r="AC320" s="1"/>
     </row>
     <row r="321">
       <c r="A321" s="1"/>
@@ -10472,6 +11025,7 @@
       <c r="Z321" s="1"/>
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
+      <c r="AC321" s="1"/>
     </row>
     <row r="322">
       <c r="A322" s="1"/>
@@ -10502,6 +11056,7 @@
       <c r="Z322" s="1"/>
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
+      <c r="AC322" s="1"/>
     </row>
     <row r="323">
       <c r="A323" s="1"/>
@@ -10532,6 +11087,7 @@
       <c r="Z323" s="1"/>
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
+      <c r="AC323" s="1"/>
     </row>
     <row r="324">
       <c r="A324" s="1"/>
@@ -10562,6 +11118,7 @@
       <c r="Z324" s="1"/>
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
+      <c r="AC324" s="1"/>
     </row>
     <row r="325">
       <c r="A325" s="1"/>
@@ -10592,6 +11149,7 @@
       <c r="Z325" s="1"/>
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
+      <c r="AC325" s="1"/>
     </row>
     <row r="326">
       <c r="A326" s="1"/>
@@ -10622,6 +11180,7 @@
       <c r="Z326" s="1"/>
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
+      <c r="AC326" s="1"/>
     </row>
     <row r="327">
       <c r="A327" s="1"/>
@@ -10652,6 +11211,7 @@
       <c r="Z327" s="1"/>
       <c r="AA327" s="1"/>
       <c r="AB327" s="1"/>
+      <c r="AC327" s="1"/>
     </row>
     <row r="328">
       <c r="A328" s="1"/>
@@ -10682,6 +11242,7 @@
       <c r="Z328" s="1"/>
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
+      <c r="AC328" s="1"/>
     </row>
     <row r="329">
       <c r="A329" s="1"/>
@@ -10712,6 +11273,7 @@
       <c r="Z329" s="1"/>
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
+      <c r="AC329" s="1"/>
     </row>
     <row r="330">
       <c r="A330" s="1"/>
@@ -10742,6 +11304,7 @@
       <c r="Z330" s="1"/>
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
+      <c r="AC330" s="1"/>
     </row>
     <row r="331">
       <c r="A331" s="1"/>
@@ -10772,6 +11335,7 @@
       <c r="Z331" s="1"/>
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
+      <c r="AC331" s="1"/>
     </row>
     <row r="332">
       <c r="A332" s="1"/>
@@ -10802,6 +11366,7 @@
       <c r="Z332" s="1"/>
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
+      <c r="AC332" s="1"/>
     </row>
     <row r="333">
       <c r="A333" s="1"/>
@@ -10832,6 +11397,7 @@
       <c r="Z333" s="1"/>
       <c r="AA333" s="1"/>
       <c r="AB333" s="1"/>
+      <c r="AC333" s="1"/>
     </row>
     <row r="334">
       <c r="A334" s="1"/>
@@ -10862,6 +11428,7 @@
       <c r="Z334" s="1"/>
       <c r="AA334" s="1"/>
       <c r="AB334" s="1"/>
+      <c r="AC334" s="1"/>
     </row>
     <row r="335">
       <c r="A335" s="1"/>
@@ -10892,6 +11459,7 @@
       <c r="Z335" s="1"/>
       <c r="AA335" s="1"/>
       <c r="AB335" s="1"/>
+      <c r="AC335" s="1"/>
     </row>
     <row r="336">
       <c r="A336" s="1"/>
@@ -10922,6 +11490,7 @@
       <c r="Z336" s="1"/>
       <c r="AA336" s="1"/>
       <c r="AB336" s="1"/>
+      <c r="AC336" s="1"/>
     </row>
     <row r="337">
       <c r="A337" s="1"/>
@@ -10952,6 +11521,7 @@
       <c r="Z337" s="1"/>
       <c r="AA337" s="1"/>
       <c r="AB337" s="1"/>
+      <c r="AC337" s="1"/>
     </row>
     <row r="338">
       <c r="A338" s="1"/>
@@ -10982,6 +11552,7 @@
       <c r="Z338" s="1"/>
       <c r="AA338" s="1"/>
       <c r="AB338" s="1"/>
+      <c r="AC338" s="1"/>
     </row>
     <row r="339">
       <c r="A339" s="1"/>
@@ -11012,6 +11583,7 @@
       <c r="Z339" s="1"/>
       <c r="AA339" s="1"/>
       <c r="AB339" s="1"/>
+      <c r="AC339" s="1"/>
     </row>
     <row r="340">
       <c r="A340" s="1"/>
@@ -11042,6 +11614,7 @@
       <c r="Z340" s="1"/>
       <c r="AA340" s="1"/>
       <c r="AB340" s="1"/>
+      <c r="AC340" s="1"/>
     </row>
     <row r="341">
       <c r="A341" s="1"/>
@@ -11072,6 +11645,7 @@
       <c r="Z341" s="1"/>
       <c r="AA341" s="1"/>
       <c r="AB341" s="1"/>
+      <c r="AC341" s="1"/>
     </row>
     <row r="342">
       <c r="A342" s="1"/>
@@ -11102,6 +11676,7 @@
       <c r="Z342" s="1"/>
       <c r="AA342" s="1"/>
       <c r="AB342" s="1"/>
+      <c r="AC342" s="1"/>
     </row>
     <row r="343">
       <c r="A343" s="1"/>
@@ -11132,6 +11707,7 @@
       <c r="Z343" s="1"/>
       <c r="AA343" s="1"/>
       <c r="AB343" s="1"/>
+      <c r="AC343" s="1"/>
     </row>
     <row r="344">
       <c r="A344" s="1"/>
@@ -11162,6 +11738,7 @@
       <c r="Z344" s="1"/>
       <c r="AA344" s="1"/>
       <c r="AB344" s="1"/>
+      <c r="AC344" s="1"/>
     </row>
     <row r="345">
       <c r="A345" s="1"/>
@@ -11192,6 +11769,7 @@
       <c r="Z345" s="1"/>
       <c r="AA345" s="1"/>
       <c r="AB345" s="1"/>
+      <c r="AC345" s="1"/>
     </row>
     <row r="346">
       <c r="A346" s="1"/>
@@ -11222,6 +11800,7 @@
       <c r="Z346" s="1"/>
       <c r="AA346" s="1"/>
       <c r="AB346" s="1"/>
+      <c r="AC346" s="1"/>
     </row>
     <row r="347">
       <c r="A347" s="1"/>
@@ -11252,6 +11831,7 @@
       <c r="Z347" s="1"/>
       <c r="AA347" s="1"/>
       <c r="AB347" s="1"/>
+      <c r="AC347" s="1"/>
     </row>
     <row r="348">
       <c r="A348" s="1"/>
@@ -11282,6 +11862,7 @@
       <c r="Z348" s="1"/>
       <c r="AA348" s="1"/>
       <c r="AB348" s="1"/>
+      <c r="AC348" s="1"/>
     </row>
     <row r="349">
       <c r="A349" s="1"/>
@@ -11312,6 +11893,7 @@
       <c r="Z349" s="1"/>
       <c r="AA349" s="1"/>
       <c r="AB349" s="1"/>
+      <c r="AC349" s="1"/>
     </row>
     <row r="350">
       <c r="A350" s="1"/>
@@ -11342,6 +11924,7 @@
       <c r="Z350" s="1"/>
       <c r="AA350" s="1"/>
       <c r="AB350" s="1"/>
+      <c r="AC350" s="1"/>
     </row>
     <row r="351">
       <c r="A351" s="1"/>
@@ -11372,6 +11955,7 @@
       <c r="Z351" s="1"/>
       <c r="AA351" s="1"/>
       <c r="AB351" s="1"/>
+      <c r="AC351" s="1"/>
     </row>
     <row r="352">
       <c r="A352" s="1"/>
@@ -11402,6 +11986,7 @@
       <c r="Z352" s="1"/>
       <c r="AA352" s="1"/>
       <c r="AB352" s="1"/>
+      <c r="AC352" s="1"/>
     </row>
     <row r="353">
       <c r="A353" s="1"/>
@@ -11432,6 +12017,7 @@
       <c r="Z353" s="1"/>
       <c r="AA353" s="1"/>
       <c r="AB353" s="1"/>
+      <c r="AC353" s="1"/>
     </row>
     <row r="354">
       <c r="A354" s="1"/>
@@ -11462,6 +12048,7 @@
       <c r="Z354" s="1"/>
       <c r="AA354" s="1"/>
       <c r="AB354" s="1"/>
+      <c r="AC354" s="1"/>
     </row>
     <row r="355">
       <c r="A355" s="1"/>
@@ -11492,6 +12079,7 @@
       <c r="Z355" s="1"/>
       <c r="AA355" s="1"/>
       <c r="AB355" s="1"/>
+      <c r="AC355" s="1"/>
     </row>
     <row r="356">
       <c r="A356" s="1"/>
@@ -11522,6 +12110,7 @@
       <c r="Z356" s="1"/>
       <c r="AA356" s="1"/>
       <c r="AB356" s="1"/>
+      <c r="AC356" s="1"/>
     </row>
     <row r="357">
       <c r="A357" s="1"/>
@@ -11552,6 +12141,7 @@
       <c r="Z357" s="1"/>
       <c r="AA357" s="1"/>
       <c r="AB357" s="1"/>
+      <c r="AC357" s="1"/>
     </row>
     <row r="358">
       <c r="A358" s="1"/>
@@ -11582,6 +12172,7 @@
       <c r="Z358" s="1"/>
       <c r="AA358" s="1"/>
       <c r="AB358" s="1"/>
+      <c r="AC358" s="1"/>
     </row>
     <row r="359">
       <c r="A359" s="1"/>
@@ -11612,6 +12203,7 @@
       <c r="Z359" s="1"/>
       <c r="AA359" s="1"/>
       <c r="AB359" s="1"/>
+      <c r="AC359" s="1"/>
     </row>
     <row r="360">
       <c r="A360" s="1"/>
@@ -11642,6 +12234,7 @@
       <c r="Z360" s="1"/>
       <c r="AA360" s="1"/>
       <c r="AB360" s="1"/>
+      <c r="AC360" s="1"/>
     </row>
     <row r="361">
       <c r="A361" s="1"/>
@@ -11672,6 +12265,7 @@
       <c r="Z361" s="1"/>
       <c r="AA361" s="1"/>
       <c r="AB361" s="1"/>
+      <c r="AC361" s="1"/>
     </row>
     <row r="362">
       <c r="A362" s="1"/>
@@ -11702,6 +12296,7 @@
       <c r="Z362" s="1"/>
       <c r="AA362" s="1"/>
       <c r="AB362" s="1"/>
+      <c r="AC362" s="1"/>
     </row>
     <row r="363">
       <c r="A363" s="1"/>
@@ -11732,6 +12327,7 @@
       <c r="Z363" s="1"/>
       <c r="AA363" s="1"/>
       <c r="AB363" s="1"/>
+      <c r="AC363" s="1"/>
     </row>
     <row r="364">
       <c r="A364" s="1"/>
@@ -11762,6 +12358,7 @@
       <c r="Z364" s="1"/>
       <c r="AA364" s="1"/>
       <c r="AB364" s="1"/>
+      <c r="AC364" s="1"/>
     </row>
     <row r="365">
       <c r="A365" s="1"/>
@@ -11792,6 +12389,7 @@
       <c r="Z365" s="1"/>
       <c r="AA365" s="1"/>
       <c r="AB365" s="1"/>
+      <c r="AC365" s="1"/>
     </row>
     <row r="366">
       <c r="A366" s="1"/>
@@ -11822,6 +12420,7 @@
       <c r="Z366" s="1"/>
       <c r="AA366" s="1"/>
       <c r="AB366" s="1"/>
+      <c r="AC366" s="1"/>
     </row>
     <row r="367">
       <c r="A367" s="1"/>
@@ -11852,6 +12451,7 @@
       <c r="Z367" s="1"/>
       <c r="AA367" s="1"/>
       <c r="AB367" s="1"/>
+      <c r="AC367" s="1"/>
     </row>
     <row r="368">
       <c r="A368" s="1"/>
@@ -11882,6 +12482,7 @@
       <c r="Z368" s="1"/>
       <c r="AA368" s="1"/>
       <c r="AB368" s="1"/>
+      <c r="AC368" s="1"/>
     </row>
     <row r="369">
       <c r="A369" s="1"/>
@@ -11912,6 +12513,7 @@
       <c r="Z369" s="1"/>
       <c r="AA369" s="1"/>
       <c r="AB369" s="1"/>
+      <c r="AC369" s="1"/>
     </row>
     <row r="370">
       <c r="A370" s="1"/>
@@ -11942,6 +12544,7 @@
       <c r="Z370" s="1"/>
       <c r="AA370" s="1"/>
       <c r="AB370" s="1"/>
+      <c r="AC370" s="1"/>
     </row>
     <row r="371">
       <c r="A371" s="1"/>
@@ -11972,6 +12575,7 @@
       <c r="Z371" s="1"/>
       <c r="AA371" s="1"/>
       <c r="AB371" s="1"/>
+      <c r="AC371" s="1"/>
     </row>
     <row r="372">
       <c r="A372" s="1"/>
@@ -12002,6 +12606,7 @@
       <c r="Z372" s="1"/>
       <c r="AA372" s="1"/>
       <c r="AB372" s="1"/>
+      <c r="AC372" s="1"/>
     </row>
     <row r="373">
       <c r="A373" s="1"/>
@@ -12032,6 +12637,7 @@
       <c r="Z373" s="1"/>
       <c r="AA373" s="1"/>
       <c r="AB373" s="1"/>
+      <c r="AC373" s="1"/>
     </row>
     <row r="374">
       <c r="A374" s="1"/>
@@ -12062,6 +12668,7 @@
       <c r="Z374" s="1"/>
       <c r="AA374" s="1"/>
       <c r="AB374" s="1"/>
+      <c r="AC374" s="1"/>
     </row>
     <row r="375">
       <c r="A375" s="1"/>
@@ -12092,6 +12699,7 @@
       <c r="Z375" s="1"/>
       <c r="AA375" s="1"/>
       <c r="AB375" s="1"/>
+      <c r="AC375" s="1"/>
     </row>
     <row r="376">
       <c r="A376" s="1"/>
@@ -12122,6 +12730,7 @@
       <c r="Z376" s="1"/>
       <c r="AA376" s="1"/>
       <c r="AB376" s="1"/>
+      <c r="AC376" s="1"/>
     </row>
     <row r="377">
       <c r="A377" s="1"/>
@@ -12152,6 +12761,7 @@
       <c r="Z377" s="1"/>
       <c r="AA377" s="1"/>
       <c r="AB377" s="1"/>
+      <c r="AC377" s="1"/>
     </row>
     <row r="378">
       <c r="A378" s="1"/>
@@ -12182,6 +12792,7 @@
       <c r="Z378" s="1"/>
       <c r="AA378" s="1"/>
       <c r="AB378" s="1"/>
+      <c r="AC378" s="1"/>
     </row>
     <row r="379">
       <c r="A379" s="1"/>
@@ -12212,6 +12823,7 @@
       <c r="Z379" s="1"/>
       <c r="AA379" s="1"/>
       <c r="AB379" s="1"/>
+      <c r="AC379" s="1"/>
     </row>
     <row r="380">
       <c r="A380" s="1"/>
@@ -12242,6 +12854,7 @@
       <c r="Z380" s="1"/>
       <c r="AA380" s="1"/>
       <c r="AB380" s="1"/>
+      <c r="AC380" s="1"/>
     </row>
     <row r="381">
       <c r="A381" s="1"/>
@@ -12272,6 +12885,7 @@
       <c r="Z381" s="1"/>
       <c r="AA381" s="1"/>
       <c r="AB381" s="1"/>
+      <c r="AC381" s="1"/>
     </row>
     <row r="382">
       <c r="A382" s="1"/>
@@ -12302,6 +12916,7 @@
       <c r="Z382" s="1"/>
       <c r="AA382" s="1"/>
       <c r="AB382" s="1"/>
+      <c r="AC382" s="1"/>
     </row>
     <row r="383">
       <c r="A383" s="1"/>
@@ -12332,6 +12947,7 @@
       <c r="Z383" s="1"/>
       <c r="AA383" s="1"/>
       <c r="AB383" s="1"/>
+      <c r="AC383" s="1"/>
     </row>
     <row r="384">
       <c r="A384" s="1"/>
@@ -12362,6 +12978,7 @@
       <c r="Z384" s="1"/>
       <c r="AA384" s="1"/>
       <c r="AB384" s="1"/>
+      <c r="AC384" s="1"/>
     </row>
     <row r="385">
       <c r="A385" s="1"/>
@@ -12392,6 +13009,7 @@
       <c r="Z385" s="1"/>
       <c r="AA385" s="1"/>
       <c r="AB385" s="1"/>
+      <c r="AC385" s="1"/>
     </row>
     <row r="386">
       <c r="A386" s="1"/>
@@ -12422,6 +13040,7 @@
       <c r="Z386" s="1"/>
       <c r="AA386" s="1"/>
       <c r="AB386" s="1"/>
+      <c r="AC386" s="1"/>
     </row>
     <row r="387">
       <c r="A387" s="1"/>
@@ -12452,6 +13071,7 @@
       <c r="Z387" s="1"/>
       <c r="AA387" s="1"/>
       <c r="AB387" s="1"/>
+      <c r="AC387" s="1"/>
     </row>
     <row r="388">
       <c r="A388" s="1"/>
@@ -12482,6 +13102,7 @@
       <c r="Z388" s="1"/>
       <c r="AA388" s="1"/>
       <c r="AB388" s="1"/>
+      <c r="AC388" s="1"/>
     </row>
     <row r="389">
       <c r="A389" s="1"/>
@@ -12512,6 +13133,7 @@
       <c r="Z389" s="1"/>
       <c r="AA389" s="1"/>
       <c r="AB389" s="1"/>
+      <c r="AC389" s="1"/>
     </row>
     <row r="390">
       <c r="A390" s="1"/>
@@ -12542,6 +13164,7 @@
       <c r="Z390" s="1"/>
       <c r="AA390" s="1"/>
       <c r="AB390" s="1"/>
+      <c r="AC390" s="1"/>
     </row>
     <row r="391">
       <c r="A391" s="1"/>
@@ -12572,6 +13195,7 @@
       <c r="Z391" s="1"/>
       <c r="AA391" s="1"/>
       <c r="AB391" s="1"/>
+      <c r="AC391" s="1"/>
     </row>
     <row r="392">
       <c r="A392" s="1"/>
@@ -12602,6 +13226,7 @@
       <c r="Z392" s="1"/>
       <c r="AA392" s="1"/>
       <c r="AB392" s="1"/>
+      <c r="AC392" s="1"/>
     </row>
     <row r="393">
       <c r="A393" s="1"/>
@@ -12632,6 +13257,7 @@
       <c r="Z393" s="1"/>
       <c r="AA393" s="1"/>
       <c r="AB393" s="1"/>
+      <c r="AC393" s="1"/>
     </row>
     <row r="394">
       <c r="A394" s="1"/>
@@ -12662,6 +13288,7 @@
       <c r="Z394" s="1"/>
       <c r="AA394" s="1"/>
       <c r="AB394" s="1"/>
+      <c r="AC394" s="1"/>
     </row>
     <row r="395">
       <c r="A395" s="1"/>
@@ -12692,6 +13319,7 @@
       <c r="Z395" s="1"/>
       <c r="AA395" s="1"/>
       <c r="AB395" s="1"/>
+      <c r="AC395" s="1"/>
     </row>
     <row r="396">
       <c r="A396" s="1"/>
@@ -12722,6 +13350,7 @@
       <c r="Z396" s="1"/>
       <c r="AA396" s="1"/>
       <c r="AB396" s="1"/>
+      <c r="AC396" s="1"/>
     </row>
     <row r="397">
       <c r="A397" s="1"/>
@@ -12752,6 +13381,7 @@
       <c r="Z397" s="1"/>
       <c r="AA397" s="1"/>
       <c r="AB397" s="1"/>
+      <c r="AC397" s="1"/>
     </row>
     <row r="398">
       <c r="A398" s="1"/>
@@ -12782,6 +13412,7 @@
       <c r="Z398" s="1"/>
       <c r="AA398" s="1"/>
       <c r="AB398" s="1"/>
+      <c r="AC398" s="1"/>
     </row>
     <row r="399">
       <c r="A399" s="1"/>
@@ -12812,6 +13443,7 @@
       <c r="Z399" s="1"/>
       <c r="AA399" s="1"/>
       <c r="AB399" s="1"/>
+      <c r="AC399" s="1"/>
     </row>
     <row r="400">
       <c r="A400" s="1"/>
@@ -12842,6 +13474,7 @@
       <c r="Z400" s="1"/>
       <c r="AA400" s="1"/>
       <c r="AB400" s="1"/>
+      <c r="AC400" s="1"/>
     </row>
     <row r="401">
       <c r="A401" s="1"/>
@@ -12872,6 +13505,7 @@
       <c r="Z401" s="1"/>
       <c r="AA401" s="1"/>
       <c r="AB401" s="1"/>
+      <c r="AC401" s="1"/>
     </row>
     <row r="402">
       <c r="A402" s="1"/>
@@ -12902,6 +13536,7 @@
       <c r="Z402" s="1"/>
       <c r="AA402" s="1"/>
       <c r="AB402" s="1"/>
+      <c r="AC402" s="1"/>
     </row>
     <row r="403">
       <c r="A403" s="1"/>
@@ -12932,6 +13567,7 @@
       <c r="Z403" s="1"/>
       <c r="AA403" s="1"/>
       <c r="AB403" s="1"/>
+      <c r="AC403" s="1"/>
     </row>
     <row r="404">
       <c r="A404" s="1"/>
@@ -12962,6 +13598,7 @@
       <c r="Z404" s="1"/>
       <c r="AA404" s="1"/>
       <c r="AB404" s="1"/>
+      <c r="AC404" s="1"/>
     </row>
     <row r="405">
       <c r="A405" s="1"/>
@@ -12992,6 +13629,7 @@
       <c r="Z405" s="1"/>
       <c r="AA405" s="1"/>
       <c r="AB405" s="1"/>
+      <c r="AC405" s="1"/>
     </row>
     <row r="406">
       <c r="A406" s="1"/>
@@ -13022,6 +13660,7 @@
       <c r="Z406" s="1"/>
       <c r="AA406" s="1"/>
       <c r="AB406" s="1"/>
+      <c r="AC406" s="1"/>
     </row>
     <row r="407">
       <c r="A407" s="1"/>
@@ -13052,6 +13691,7 @@
       <c r="Z407" s="1"/>
       <c r="AA407" s="1"/>
       <c r="AB407" s="1"/>
+      <c r="AC407" s="1"/>
     </row>
     <row r="408">
       <c r="A408" s="1"/>
@@ -13082,6 +13722,7 @@
       <c r="Z408" s="1"/>
       <c r="AA408" s="1"/>
       <c r="AB408" s="1"/>
+      <c r="AC408" s="1"/>
     </row>
     <row r="409">
       <c r="A409" s="1"/>
@@ -13112,6 +13753,7 @@
       <c r="Z409" s="1"/>
       <c r="AA409" s="1"/>
       <c r="AB409" s="1"/>
+      <c r="AC409" s="1"/>
     </row>
     <row r="410">
       <c r="A410" s="1"/>
@@ -13142,6 +13784,7 @@
       <c r="Z410" s="1"/>
       <c r="AA410" s="1"/>
       <c r="AB410" s="1"/>
+      <c r="AC410" s="1"/>
     </row>
     <row r="411">
       <c r="A411" s="1"/>
@@ -13172,6 +13815,7 @@
       <c r="Z411" s="1"/>
       <c r="AA411" s="1"/>
       <c r="AB411" s="1"/>
+      <c r="AC411" s="1"/>
     </row>
     <row r="412">
       <c r="A412" s="1"/>
@@ -13202,6 +13846,7 @@
       <c r="Z412" s="1"/>
       <c r="AA412" s="1"/>
       <c r="AB412" s="1"/>
+      <c r="AC412" s="1"/>
     </row>
     <row r="413">
       <c r="A413" s="1"/>
@@ -13232,6 +13877,7 @@
       <c r="Z413" s="1"/>
       <c r="AA413" s="1"/>
       <c r="AB413" s="1"/>
+      <c r="AC413" s="1"/>
     </row>
     <row r="414">
       <c r="A414" s="1"/>
@@ -13262,6 +13908,7 @@
       <c r="Z414" s="1"/>
       <c r="AA414" s="1"/>
       <c r="AB414" s="1"/>
+      <c r="AC414" s="1"/>
     </row>
     <row r="415">
       <c r="A415" s="1"/>
@@ -13292,6 +13939,7 @@
       <c r="Z415" s="1"/>
       <c r="AA415" s="1"/>
       <c r="AB415" s="1"/>
+      <c r="AC415" s="1"/>
     </row>
     <row r="416">
       <c r="A416" s="1"/>
@@ -13322,6 +13970,7 @@
       <c r="Z416" s="1"/>
       <c r="AA416" s="1"/>
       <c r="AB416" s="1"/>
+      <c r="AC416" s="1"/>
     </row>
     <row r="417">
       <c r="A417" s="1"/>
@@ -13352,6 +14001,7 @@
       <c r="Z417" s="1"/>
       <c r="AA417" s="1"/>
       <c r="AB417" s="1"/>
+      <c r="AC417" s="1"/>
     </row>
     <row r="418">
       <c r="A418" s="1"/>
@@ -13382,6 +14032,7 @@
       <c r="Z418" s="1"/>
       <c r="AA418" s="1"/>
       <c r="AB418" s="1"/>
+      <c r="AC418" s="1"/>
     </row>
     <row r="419">
       <c r="A419" s="1"/>
@@ -13412,6 +14063,7 @@
       <c r="Z419" s="1"/>
       <c r="AA419" s="1"/>
       <c r="AB419" s="1"/>
+      <c r="AC419" s="1"/>
     </row>
     <row r="420">
       <c r="A420" s="1"/>
@@ -13442,6 +14094,7 @@
       <c r="Z420" s="1"/>
       <c r="AA420" s="1"/>
       <c r="AB420" s="1"/>
+      <c r="AC420" s="1"/>
     </row>
     <row r="421">
       <c r="A421" s="1"/>
@@ -13472,6 +14125,7 @@
       <c r="Z421" s="1"/>
       <c r="AA421" s="1"/>
       <c r="AB421" s="1"/>
+      <c r="AC421" s="1"/>
     </row>
     <row r="422">
       <c r="A422" s="1"/>
@@ -13502,6 +14156,7 @@
       <c r="Z422" s="1"/>
       <c r="AA422" s="1"/>
       <c r="AB422" s="1"/>
+      <c r="AC422" s="1"/>
     </row>
     <row r="423">
       <c r="A423" s="1"/>
@@ -13532,6 +14187,7 @@
       <c r="Z423" s="1"/>
       <c r="AA423" s="1"/>
       <c r="AB423" s="1"/>
+      <c r="AC423" s="1"/>
     </row>
     <row r="424">
       <c r="A424" s="1"/>
@@ -13562,6 +14218,7 @@
       <c r="Z424" s="1"/>
       <c r="AA424" s="1"/>
       <c r="AB424" s="1"/>
+      <c r="AC424" s="1"/>
     </row>
     <row r="425">
       <c r="A425" s="1"/>
@@ -13592,6 +14249,7 @@
       <c r="Z425" s="1"/>
       <c r="AA425" s="1"/>
       <c r="AB425" s="1"/>
+      <c r="AC425" s="1"/>
     </row>
     <row r="426">
       <c r="A426" s="1"/>
@@ -13622,6 +14280,7 @@
       <c r="Z426" s="1"/>
       <c r="AA426" s="1"/>
       <c r="AB426" s="1"/>
+      <c r="AC426" s="1"/>
     </row>
     <row r="427">
       <c r="A427" s="1"/>
@@ -13652,6 +14311,7 @@
       <c r="Z427" s="1"/>
       <c r="AA427" s="1"/>
       <c r="AB427" s="1"/>
+      <c r="AC427" s="1"/>
     </row>
     <row r="428">
       <c r="A428" s="1"/>
@@ -13682,6 +14342,7 @@
       <c r="Z428" s="1"/>
       <c r="AA428" s="1"/>
       <c r="AB428" s="1"/>
+      <c r="AC428" s="1"/>
     </row>
     <row r="429">
       <c r="A429" s="1"/>
@@ -13712,6 +14373,7 @@
       <c r="Z429" s="1"/>
       <c r="AA429" s="1"/>
       <c r="AB429" s="1"/>
+      <c r="AC429" s="1"/>
     </row>
     <row r="430">
       <c r="A430" s="1"/>
@@ -13742,6 +14404,7 @@
       <c r="Z430" s="1"/>
       <c r="AA430" s="1"/>
       <c r="AB430" s="1"/>
+      <c r="AC430" s="1"/>
     </row>
     <row r="431">
       <c r="A431" s="1"/>
@@ -13772,6 +14435,7 @@
       <c r="Z431" s="1"/>
       <c r="AA431" s="1"/>
       <c r="AB431" s="1"/>
+      <c r="AC431" s="1"/>
     </row>
     <row r="432">
       <c r="A432" s="1"/>
@@ -13802,6 +14466,7 @@
       <c r="Z432" s="1"/>
       <c r="AA432" s="1"/>
       <c r="AB432" s="1"/>
+      <c r="AC432" s="1"/>
     </row>
     <row r="433">
       <c r="A433" s="1"/>
@@ -13832,6 +14497,7 @@
       <c r="Z433" s="1"/>
       <c r="AA433" s="1"/>
       <c r="AB433" s="1"/>
+      <c r="AC433" s="1"/>
     </row>
     <row r="434">
       <c r="A434" s="1"/>
@@ -13862,6 +14528,7 @@
       <c r="Z434" s="1"/>
       <c r="AA434" s="1"/>
       <c r="AB434" s="1"/>
+      <c r="AC434" s="1"/>
     </row>
     <row r="435">
       <c r="A435" s="1"/>
@@ -13892,6 +14559,7 @@
       <c r="Z435" s="1"/>
       <c r="AA435" s="1"/>
       <c r="AB435" s="1"/>
+      <c r="AC435" s="1"/>
     </row>
     <row r="436">
       <c r="A436" s="1"/>
@@ -13922,6 +14590,7 @@
       <c r="Z436" s="1"/>
       <c r="AA436" s="1"/>
       <c r="AB436" s="1"/>
+      <c r="AC436" s="1"/>
     </row>
     <row r="437">
       <c r="A437" s="1"/>
@@ -13952,6 +14621,7 @@
       <c r="Z437" s="1"/>
       <c r="AA437" s="1"/>
       <c r="AB437" s="1"/>
+      <c r="AC437" s="1"/>
     </row>
     <row r="438">
       <c r="A438" s="1"/>
@@ -13982,6 +14652,7 @@
       <c r="Z438" s="1"/>
       <c r="AA438" s="1"/>
       <c r="AB438" s="1"/>
+      <c r="AC438" s="1"/>
     </row>
     <row r="439">
       <c r="A439" s="1"/>
@@ -14012,6 +14683,7 @@
       <c r="Z439" s="1"/>
       <c r="AA439" s="1"/>
       <c r="AB439" s="1"/>
+      <c r="AC439" s="1"/>
     </row>
     <row r="440">
       <c r="A440" s="1"/>
@@ -14042,6 +14714,7 @@
       <c r="Z440" s="1"/>
       <c r="AA440" s="1"/>
       <c r="AB440" s="1"/>
+      <c r="AC440" s="1"/>
     </row>
     <row r="441">
       <c r="A441" s="1"/>
@@ -14072,6 +14745,7 @@
       <c r="Z441" s="1"/>
       <c r="AA441" s="1"/>
       <c r="AB441" s="1"/>
+      <c r="AC441" s="1"/>
     </row>
     <row r="442">
       <c r="A442" s="1"/>
@@ -14102,6 +14776,7 @@
       <c r="Z442" s="1"/>
       <c r="AA442" s="1"/>
       <c r="AB442" s="1"/>
+      <c r="AC442" s="1"/>
     </row>
     <row r="443">
       <c r="A443" s="1"/>
@@ -14132,6 +14807,7 @@
       <c r="Z443" s="1"/>
       <c r="AA443" s="1"/>
       <c r="AB443" s="1"/>
+      <c r="AC443" s="1"/>
     </row>
     <row r="444">
       <c r="A444" s="1"/>
@@ -14162,6 +14838,7 @@
       <c r="Z444" s="1"/>
       <c r="AA444" s="1"/>
       <c r="AB444" s="1"/>
+      <c r="AC444" s="1"/>
     </row>
     <row r="445">
       <c r="A445" s="1"/>
@@ -14192,6 +14869,7 @@
       <c r="Z445" s="1"/>
       <c r="AA445" s="1"/>
       <c r="AB445" s="1"/>
+      <c r="AC445" s="1"/>
     </row>
     <row r="446">
       <c r="A446" s="1"/>
@@ -14222,6 +14900,7 @@
       <c r="Z446" s="1"/>
       <c r="AA446" s="1"/>
       <c r="AB446" s="1"/>
+      <c r="AC446" s="1"/>
     </row>
     <row r="447">
       <c r="A447" s="1"/>
@@ -14252,6 +14931,7 @@
       <c r="Z447" s="1"/>
       <c r="AA447" s="1"/>
       <c r="AB447" s="1"/>
+      <c r="AC447" s="1"/>
     </row>
     <row r="448">
       <c r="A448" s="1"/>
@@ -14282,6 +14962,7 @@
       <c r="Z448" s="1"/>
       <c r="AA448" s="1"/>
       <c r="AB448" s="1"/>
+      <c r="AC448" s="1"/>
     </row>
     <row r="449">
       <c r="A449" s="1"/>
@@ -14312,6 +14993,7 @@
       <c r="Z449" s="1"/>
       <c r="AA449" s="1"/>
       <c r="AB449" s="1"/>
+      <c r="AC449" s="1"/>
     </row>
     <row r="450">
       <c r="A450" s="1"/>
@@ -14342,6 +15024,7 @@
       <c r="Z450" s="1"/>
       <c r="AA450" s="1"/>
       <c r="AB450" s="1"/>
+      <c r="AC450" s="1"/>
     </row>
     <row r="451">
       <c r="A451" s="1"/>
@@ -14372,6 +15055,7 @@
       <c r="Z451" s="1"/>
       <c r="AA451" s="1"/>
       <c r="AB451" s="1"/>
+      <c r="AC451" s="1"/>
     </row>
     <row r="452">
       <c r="A452" s="1"/>
@@ -14402,6 +15086,7 @@
       <c r="Z452" s="1"/>
       <c r="AA452" s="1"/>
       <c r="AB452" s="1"/>
+      <c r="AC452" s="1"/>
     </row>
     <row r="453">
       <c r="A453" s="1"/>
@@ -14432,6 +15117,7 @@
       <c r="Z453" s="1"/>
       <c r="AA453" s="1"/>
       <c r="AB453" s="1"/>
+      <c r="AC453" s="1"/>
     </row>
     <row r="454">
       <c r="A454" s="1"/>
@@ -14462,6 +15148,7 @@
       <c r="Z454" s="1"/>
       <c r="AA454" s="1"/>
       <c r="AB454" s="1"/>
+      <c r="AC454" s="1"/>
     </row>
     <row r="455">
       <c r="A455" s="1"/>
@@ -14492,6 +15179,7 @@
       <c r="Z455" s="1"/>
       <c r="AA455" s="1"/>
       <c r="AB455" s="1"/>
+      <c r="AC455" s="1"/>
     </row>
     <row r="456">
       <c r="A456" s="1"/>
@@ -14522,6 +15210,7 @@
       <c r="Z456" s="1"/>
       <c r="AA456" s="1"/>
       <c r="AB456" s="1"/>
+      <c r="AC456" s="1"/>
     </row>
     <row r="457">
       <c r="A457" s="1"/>
@@ -14552,6 +15241,7 @@
       <c r="Z457" s="1"/>
       <c r="AA457" s="1"/>
       <c r="AB457" s="1"/>
+      <c r="AC457" s="1"/>
     </row>
     <row r="458">
       <c r="A458" s="1"/>
@@ -14582,6 +15272,7 @@
       <c r="Z458" s="1"/>
       <c r="AA458" s="1"/>
       <c r="AB458" s="1"/>
+      <c r="AC458" s="1"/>
     </row>
     <row r="459">
       <c r="A459" s="1"/>
@@ -14612,6 +15303,7 @@
       <c r="Z459" s="1"/>
       <c r="AA459" s="1"/>
       <c r="AB459" s="1"/>
+      <c r="AC459" s="1"/>
     </row>
     <row r="460">
       <c r="A460" s="1"/>
@@ -14642,6 +15334,7 @@
       <c r="Z460" s="1"/>
       <c r="AA460" s="1"/>
       <c r="AB460" s="1"/>
+      <c r="AC460" s="1"/>
     </row>
     <row r="461">
       <c r="A461" s="1"/>
@@ -14672,6 +15365,7 @@
       <c r="Z461" s="1"/>
       <c r="AA461" s="1"/>
       <c r="AB461" s="1"/>
+      <c r="AC461" s="1"/>
     </row>
     <row r="462">
       <c r="A462" s="1"/>
@@ -14702,6 +15396,7 @@
       <c r="Z462" s="1"/>
       <c r="AA462" s="1"/>
       <c r="AB462" s="1"/>
+      <c r="AC462" s="1"/>
     </row>
     <row r="463">
       <c r="A463" s="1"/>
@@ -14732,6 +15427,7 @@
       <c r="Z463" s="1"/>
       <c r="AA463" s="1"/>
       <c r="AB463" s="1"/>
+      <c r="AC463" s="1"/>
     </row>
     <row r="464">
       <c r="A464" s="1"/>
@@ -14762,6 +15458,7 @@
       <c r="Z464" s="1"/>
       <c r="AA464" s="1"/>
       <c r="AB464" s="1"/>
+      <c r="AC464" s="1"/>
     </row>
     <row r="465">
       <c r="A465" s="1"/>
@@ -14792,6 +15489,7 @@
       <c r="Z465" s="1"/>
       <c r="AA465" s="1"/>
       <c r="AB465" s="1"/>
+      <c r="AC465" s="1"/>
     </row>
     <row r="466">
       <c r="A466" s="1"/>
@@ -14822,6 +15520,7 @@
       <c r="Z466" s="1"/>
       <c r="AA466" s="1"/>
       <c r="AB466" s="1"/>
+      <c r="AC466" s="1"/>
     </row>
     <row r="467">
       <c r="A467" s="1"/>
@@ -14852,6 +15551,7 @@
       <c r="Z467" s="1"/>
       <c r="AA467" s="1"/>
       <c r="AB467" s="1"/>
+      <c r="AC467" s="1"/>
     </row>
     <row r="468">
       <c r="A468" s="1"/>
@@ -14882,6 +15582,7 @@
       <c r="Z468" s="1"/>
       <c r="AA468" s="1"/>
       <c r="AB468" s="1"/>
+      <c r="AC468" s="1"/>
     </row>
     <row r="469">
       <c r="A469" s="1"/>
@@ -14912,6 +15613,7 @@
       <c r="Z469" s="1"/>
       <c r="AA469" s="1"/>
       <c r="AB469" s="1"/>
+      <c r="AC469" s="1"/>
     </row>
     <row r="470">
       <c r="A470" s="1"/>
@@ -14942,6 +15644,7 @@
       <c r="Z470" s="1"/>
       <c r="AA470" s="1"/>
       <c r="AB470" s="1"/>
+      <c r="AC470" s="1"/>
     </row>
     <row r="471">
       <c r="A471" s="1"/>
@@ -14972,6 +15675,7 @@
       <c r="Z471" s="1"/>
       <c r="AA471" s="1"/>
       <c r="AB471" s="1"/>
+      <c r="AC471" s="1"/>
     </row>
     <row r="472">
       <c r="A472" s="1"/>
@@ -15002,6 +15706,7 @@
       <c r="Z472" s="1"/>
       <c r="AA472" s="1"/>
       <c r="AB472" s="1"/>
+      <c r="AC472" s="1"/>
     </row>
     <row r="473">
       <c r="A473" s="1"/>
@@ -15032,6 +15737,7 @@
       <c r="Z473" s="1"/>
       <c r="AA473" s="1"/>
       <c r="AB473" s="1"/>
+      <c r="AC473" s="1"/>
     </row>
     <row r="474">
       <c r="A474" s="1"/>
@@ -15062,6 +15768,7 @@
       <c r="Z474" s="1"/>
       <c r="AA474" s="1"/>
       <c r="AB474" s="1"/>
+      <c r="AC474" s="1"/>
     </row>
     <row r="475">
       <c r="A475" s="1"/>
@@ -15092,6 +15799,7 @@
       <c r="Z475" s="1"/>
       <c r="AA475" s="1"/>
       <c r="AB475" s="1"/>
+      <c r="AC475" s="1"/>
     </row>
     <row r="476">
       <c r="A476" s="1"/>
@@ -15122,6 +15830,7 @@
       <c r="Z476" s="1"/>
       <c r="AA476" s="1"/>
       <c r="AB476" s="1"/>
+      <c r="AC476" s="1"/>
     </row>
     <row r="477">
       <c r="A477" s="1"/>
@@ -15152,6 +15861,7 @@
       <c r="Z477" s="1"/>
       <c r="AA477" s="1"/>
       <c r="AB477" s="1"/>
+      <c r="AC477" s="1"/>
     </row>
     <row r="478">
       <c r="A478" s="1"/>
@@ -15182,6 +15892,7 @@
       <c r="Z478" s="1"/>
       <c r="AA478" s="1"/>
       <c r="AB478" s="1"/>
+      <c r="AC478" s="1"/>
     </row>
     <row r="479">
       <c r="A479" s="1"/>
@@ -15212,6 +15923,7 @@
       <c r="Z479" s="1"/>
       <c r="AA479" s="1"/>
       <c r="AB479" s="1"/>
+      <c r="AC479" s="1"/>
     </row>
     <row r="480">
       <c r="A480" s="1"/>
@@ -15242,6 +15954,7 @@
       <c r="Z480" s="1"/>
       <c r="AA480" s="1"/>
       <c r="AB480" s="1"/>
+      <c r="AC480" s="1"/>
     </row>
     <row r="481">
       <c r="A481" s="1"/>
@@ -15272,6 +15985,7 @@
       <c r="Z481" s="1"/>
       <c r="AA481" s="1"/>
       <c r="AB481" s="1"/>
+      <c r="AC481" s="1"/>
     </row>
     <row r="482">
       <c r="A482" s="1"/>
@@ -15302,6 +16016,7 @@
       <c r="Z482" s="1"/>
       <c r="AA482" s="1"/>
       <c r="AB482" s="1"/>
+      <c r="AC482" s="1"/>
     </row>
     <row r="483">
       <c r="A483" s="1"/>
@@ -15332,6 +16047,7 @@
       <c r="Z483" s="1"/>
       <c r="AA483" s="1"/>
       <c r="AB483" s="1"/>
+      <c r="AC483" s="1"/>
     </row>
     <row r="484">
       <c r="A484" s="1"/>
@@ -15362,6 +16078,7 @@
       <c r="Z484" s="1"/>
       <c r="AA484" s="1"/>
       <c r="AB484" s="1"/>
+      <c r="AC484" s="1"/>
     </row>
     <row r="485">
       <c r="A485" s="1"/>
@@ -15392,6 +16109,7 @@
       <c r="Z485" s="1"/>
       <c r="AA485" s="1"/>
       <c r="AB485" s="1"/>
+      <c r="AC485" s="1"/>
     </row>
     <row r="486">
       <c r="A486" s="1"/>
@@ -15422,6 +16140,7 @@
       <c r="Z486" s="1"/>
       <c r="AA486" s="1"/>
       <c r="AB486" s="1"/>
+      <c r="AC486" s="1"/>
     </row>
     <row r="487">
       <c r="A487" s="1"/>
@@ -15452,6 +16171,7 @@
       <c r="Z487" s="1"/>
       <c r="AA487" s="1"/>
       <c r="AB487" s="1"/>
+      <c r="AC487" s="1"/>
     </row>
     <row r="488">
       <c r="A488" s="1"/>
@@ -15482,6 +16202,7 @@
       <c r="Z488" s="1"/>
       <c r="AA488" s="1"/>
       <c r="AB488" s="1"/>
+      <c r="AC488" s="1"/>
     </row>
     <row r="489">
       <c r="A489" s="1"/>
@@ -15512,6 +16233,7 @@
       <c r="Z489" s="1"/>
       <c r="AA489" s="1"/>
       <c r="AB489" s="1"/>
+      <c r="AC489" s="1"/>
     </row>
     <row r="490">
       <c r="A490" s="1"/>
@@ -15542,6 +16264,7 @@
       <c r="Z490" s="1"/>
       <c r="AA490" s="1"/>
       <c r="AB490" s="1"/>
+      <c r="AC490" s="1"/>
     </row>
     <row r="491">
       <c r="A491" s="1"/>
@@ -15572,6 +16295,7 @@
       <c r="Z491" s="1"/>
       <c r="AA491" s="1"/>
       <c r="AB491" s="1"/>
+      <c r="AC491" s="1"/>
     </row>
     <row r="492">
       <c r="A492" s="1"/>
@@ -15602,6 +16326,7 @@
       <c r="Z492" s="1"/>
       <c r="AA492" s="1"/>
       <c r="AB492" s="1"/>
+      <c r="AC492" s="1"/>
     </row>
     <row r="493">
       <c r="A493" s="1"/>
@@ -15632,6 +16357,7 @@
       <c r="Z493" s="1"/>
       <c r="AA493" s="1"/>
       <c r="AB493" s="1"/>
+      <c r="AC493" s="1"/>
     </row>
     <row r="494">
       <c r="A494" s="1"/>
@@ -15662,6 +16388,7 @@
       <c r="Z494" s="1"/>
       <c r="AA494" s="1"/>
       <c r="AB494" s="1"/>
+      <c r="AC494" s="1"/>
     </row>
     <row r="495">
       <c r="A495" s="1"/>
@@ -15692,6 +16419,7 @@
       <c r="Z495" s="1"/>
       <c r="AA495" s="1"/>
       <c r="AB495" s="1"/>
+      <c r="AC495" s="1"/>
     </row>
     <row r="496">
       <c r="A496" s="1"/>
@@ -15722,6 +16450,7 @@
       <c r="Z496" s="1"/>
       <c r="AA496" s="1"/>
       <c r="AB496" s="1"/>
+      <c r="AC496" s="1"/>
     </row>
     <row r="497">
       <c r="A497" s="1"/>
@@ -15752,6 +16481,7 @@
       <c r="Z497" s="1"/>
       <c r="AA497" s="1"/>
       <c r="AB497" s="1"/>
+      <c r="AC497" s="1"/>
     </row>
     <row r="498">
       <c r="A498" s="1"/>
@@ -15782,6 +16512,7 @@
       <c r="Z498" s="1"/>
       <c r="AA498" s="1"/>
       <c r="AB498" s="1"/>
+      <c r="AC498" s="1"/>
     </row>
     <row r="499">
       <c r="A499" s="1"/>
@@ -15812,6 +16543,7 @@
       <c r="Z499" s="1"/>
       <c r="AA499" s="1"/>
       <c r="AB499" s="1"/>
+      <c r="AC499" s="1"/>
     </row>
     <row r="500">
       <c r="A500" s="1"/>
@@ -15842,6 +16574,7 @@
       <c r="Z500" s="1"/>
       <c r="AA500" s="1"/>
       <c r="AB500" s="1"/>
+      <c r="AC500" s="1"/>
     </row>
     <row r="501">
       <c r="A501" s="1"/>
@@ -15872,6 +16605,7 @@
       <c r="Z501" s="1"/>
       <c r="AA501" s="1"/>
       <c r="AB501" s="1"/>
+      <c r="AC501" s="1"/>
     </row>
     <row r="502">
       <c r="A502" s="1"/>
@@ -15902,6 +16636,7 @@
       <c r="Z502" s="1"/>
       <c r="AA502" s="1"/>
       <c r="AB502" s="1"/>
+      <c r="AC502" s="1"/>
     </row>
     <row r="503">
       <c r="A503" s="1"/>
@@ -15932,6 +16667,7 @@
       <c r="Z503" s="1"/>
       <c r="AA503" s="1"/>
       <c r="AB503" s="1"/>
+      <c r="AC503" s="1"/>
     </row>
     <row r="504">
       <c r="A504" s="1"/>
@@ -15962,6 +16698,7 @@
       <c r="Z504" s="1"/>
       <c r="AA504" s="1"/>
       <c r="AB504" s="1"/>
+      <c r="AC504" s="1"/>
     </row>
     <row r="505">
       <c r="A505" s="1"/>
@@ -15992,6 +16729,7 @@
       <c r="Z505" s="1"/>
       <c r="AA505" s="1"/>
       <c r="AB505" s="1"/>
+      <c r="AC505" s="1"/>
     </row>
     <row r="506">
       <c r="A506" s="1"/>
@@ -16022,6 +16760,7 @@
       <c r="Z506" s="1"/>
       <c r="AA506" s="1"/>
       <c r="AB506" s="1"/>
+      <c r="AC506" s="1"/>
     </row>
     <row r="507">
       <c r="A507" s="1"/>
@@ -16052,6 +16791,7 @@
       <c r="Z507" s="1"/>
       <c r="AA507" s="1"/>
       <c r="AB507" s="1"/>
+      <c r="AC507" s="1"/>
     </row>
     <row r="508">
       <c r="A508" s="1"/>
@@ -16082,6 +16822,7 @@
       <c r="Z508" s="1"/>
       <c r="AA508" s="1"/>
       <c r="AB508" s="1"/>
+      <c r="AC508" s="1"/>
     </row>
     <row r="509">
       <c r="A509" s="1"/>
@@ -16112,6 +16853,7 @@
       <c r="Z509" s="1"/>
       <c r="AA509" s="1"/>
       <c r="AB509" s="1"/>
+      <c r="AC509" s="1"/>
     </row>
     <row r="510">
       <c r="A510" s="1"/>
@@ -16142,6 +16884,7 @@
       <c r="Z510" s="1"/>
       <c r="AA510" s="1"/>
       <c r="AB510" s="1"/>
+      <c r="AC510" s="1"/>
     </row>
     <row r="511">
       <c r="A511" s="1"/>
@@ -16172,6 +16915,7 @@
       <c r="Z511" s="1"/>
       <c r="AA511" s="1"/>
       <c r="AB511" s="1"/>
+      <c r="AC511" s="1"/>
     </row>
     <row r="512">
       <c r="A512" s="1"/>
@@ -16202,6 +16946,7 @@
       <c r="Z512" s="1"/>
       <c r="AA512" s="1"/>
       <c r="AB512" s="1"/>
+      <c r="AC512" s="1"/>
     </row>
     <row r="513">
       <c r="A513" s="1"/>
@@ -16232,6 +16977,7 @@
       <c r="Z513" s="1"/>
       <c r="AA513" s="1"/>
       <c r="AB513" s="1"/>
+      <c r="AC513" s="1"/>
     </row>
     <row r="514">
       <c r="A514" s="1"/>
@@ -16262,6 +17008,7 @@
       <c r="Z514" s="1"/>
       <c r="AA514" s="1"/>
       <c r="AB514" s="1"/>
+      <c r="AC514" s="1"/>
     </row>
     <row r="515">
       <c r="A515" s="1"/>
@@ -16292,6 +17039,7 @@
       <c r="Z515" s="1"/>
       <c r="AA515" s="1"/>
       <c r="AB515" s="1"/>
+      <c r="AC515" s="1"/>
     </row>
     <row r="516">
       <c r="A516" s="1"/>
@@ -16322,6 +17070,7 @@
       <c r="Z516" s="1"/>
       <c r="AA516" s="1"/>
       <c r="AB516" s="1"/>
+      <c r="AC516" s="1"/>
     </row>
     <row r="517">
       <c r="A517" s="1"/>
@@ -16352,6 +17101,7 @@
       <c r="Z517" s="1"/>
       <c r="AA517" s="1"/>
       <c r="AB517" s="1"/>
+      <c r="AC517" s="1"/>
     </row>
     <row r="518">
       <c r="A518" s="1"/>
@@ -16382,6 +17132,7 @@
       <c r="Z518" s="1"/>
       <c r="AA518" s="1"/>
       <c r="AB518" s="1"/>
+      <c r="AC518" s="1"/>
     </row>
     <row r="519">
       <c r="A519" s="1"/>
@@ -16412,6 +17163,7 @@
       <c r="Z519" s="1"/>
       <c r="AA519" s="1"/>
       <c r="AB519" s="1"/>
+      <c r="AC519" s="1"/>
     </row>
     <row r="520">
       <c r="A520" s="1"/>
@@ -16442,6 +17194,7 @@
       <c r="Z520" s="1"/>
       <c r="AA520" s="1"/>
       <c r="AB520" s="1"/>
+      <c r="AC520" s="1"/>
     </row>
     <row r="521">
       <c r="A521" s="1"/>
@@ -16472,6 +17225,7 @@
       <c r="Z521" s="1"/>
       <c r="AA521" s="1"/>
       <c r="AB521" s="1"/>
+      <c r="AC521" s="1"/>
     </row>
     <row r="522">
       <c r="A522" s="1"/>
@@ -16502,6 +17256,7 @@
       <c r="Z522" s="1"/>
       <c r="AA522" s="1"/>
       <c r="AB522" s="1"/>
+      <c r="AC522" s="1"/>
     </row>
     <row r="523">
       <c r="A523" s="1"/>
@@ -16532,6 +17287,7 @@
       <c r="Z523" s="1"/>
       <c r="AA523" s="1"/>
       <c r="AB523" s="1"/>
+      <c r="AC523" s="1"/>
     </row>
     <row r="524">
       <c r="A524" s="1"/>
@@ -16562,6 +17318,7 @@
       <c r="Z524" s="1"/>
       <c r="AA524" s="1"/>
       <c r="AB524" s="1"/>
+      <c r="AC524" s="1"/>
     </row>
     <row r="525">
       <c r="A525" s="1"/>
@@ -16592,6 +17349,7 @@
       <c r="Z525" s="1"/>
       <c r="AA525" s="1"/>
       <c r="AB525" s="1"/>
+      <c r="AC525" s="1"/>
     </row>
     <row r="526">
       <c r="A526" s="1"/>
@@ -16622,6 +17380,7 @@
       <c r="Z526" s="1"/>
       <c r="AA526" s="1"/>
       <c r="AB526" s="1"/>
+      <c r="AC526" s="1"/>
     </row>
     <row r="527">
       <c r="A527" s="1"/>
@@ -16652,6 +17411,7 @@
       <c r="Z527" s="1"/>
       <c r="AA527" s="1"/>
       <c r="AB527" s="1"/>
+      <c r="AC527" s="1"/>
     </row>
     <row r="528">
       <c r="A528" s="1"/>
@@ -16682,6 +17442,7 @@
       <c r="Z528" s="1"/>
       <c r="AA528" s="1"/>
       <c r="AB528" s="1"/>
+      <c r="AC528" s="1"/>
     </row>
     <row r="529">
       <c r="A529" s="1"/>
@@ -16712,6 +17473,7 @@
       <c r="Z529" s="1"/>
       <c r="AA529" s="1"/>
       <c r="AB529" s="1"/>
+      <c r="AC529" s="1"/>
     </row>
     <row r="530">
       <c r="A530" s="1"/>
@@ -16742,6 +17504,7 @@
       <c r="Z530" s="1"/>
       <c r="AA530" s="1"/>
       <c r="AB530" s="1"/>
+      <c r="AC530" s="1"/>
     </row>
     <row r="531">
       <c r="A531" s="1"/>
@@ -16772,6 +17535,7 @@
       <c r="Z531" s="1"/>
       <c r="AA531" s="1"/>
       <c r="AB531" s="1"/>
+      <c r="AC531" s="1"/>
     </row>
     <row r="532">
       <c r="A532" s="1"/>
@@ -16802,6 +17566,7 @@
       <c r="Z532" s="1"/>
       <c r="AA532" s="1"/>
       <c r="AB532" s="1"/>
+      <c r="AC532" s="1"/>
     </row>
     <row r="533">
       <c r="A533" s="1"/>
@@ -16832,6 +17597,7 @@
       <c r="Z533" s="1"/>
       <c r="AA533" s="1"/>
       <c r="AB533" s="1"/>
+      <c r="AC533" s="1"/>
     </row>
     <row r="534">
       <c r="A534" s="1"/>
@@ -16862,6 +17628,7 @@
       <c r="Z534" s="1"/>
       <c r="AA534" s="1"/>
       <c r="AB534" s="1"/>
+      <c r="AC534" s="1"/>
     </row>
     <row r="535">
       <c r="A535" s="1"/>
@@ -16892,6 +17659,7 @@
       <c r="Z535" s="1"/>
       <c r="AA535" s="1"/>
       <c r="AB535" s="1"/>
+      <c r="AC535" s="1"/>
     </row>
     <row r="536">
       <c r="A536" s="1"/>
@@ -16922,6 +17690,7 @@
       <c r="Z536" s="1"/>
       <c r="AA536" s="1"/>
       <c r="AB536" s="1"/>
+      <c r="AC536" s="1"/>
     </row>
     <row r="537">
       <c r="A537" s="1"/>
@@ -16952,6 +17721,7 @@
       <c r="Z537" s="1"/>
       <c r="AA537" s="1"/>
       <c r="AB537" s="1"/>
+      <c r="AC537" s="1"/>
     </row>
     <row r="538">
       <c r="A538" s="1"/>
@@ -16982,6 +17752,7 @@
       <c r="Z538" s="1"/>
       <c r="AA538" s="1"/>
       <c r="AB538" s="1"/>
+      <c r="AC538" s="1"/>
     </row>
     <row r="539">
       <c r="A539" s="1"/>
@@ -17012,6 +17783,7 @@
       <c r="Z539" s="1"/>
       <c r="AA539" s="1"/>
       <c r="AB539" s="1"/>
+      <c r="AC539" s="1"/>
     </row>
     <row r="540">
       <c r="A540" s="1"/>
@@ -17042,6 +17814,7 @@
       <c r="Z540" s="1"/>
       <c r="AA540" s="1"/>
       <c r="AB540" s="1"/>
+      <c r="AC540" s="1"/>
     </row>
     <row r="541">
       <c r="A541" s="1"/>
@@ -17072,6 +17845,7 @@
       <c r="Z541" s="1"/>
       <c r="AA541" s="1"/>
       <c r="AB541" s="1"/>
+      <c r="AC541" s="1"/>
     </row>
     <row r="542">
       <c r="A542" s="1"/>
@@ -17102,6 +17876,7 @@
       <c r="Z542" s="1"/>
       <c r="AA542" s="1"/>
       <c r="AB542" s="1"/>
+      <c r="AC542" s="1"/>
     </row>
     <row r="543">
       <c r="A543" s="1"/>
@@ -17132,6 +17907,7 @@
       <c r="Z543" s="1"/>
       <c r="AA543" s="1"/>
       <c r="AB543" s="1"/>
+      <c r="AC543" s="1"/>
     </row>
     <row r="544">
       <c r="A544" s="1"/>
@@ -17162,6 +17938,7 @@
       <c r="Z544" s="1"/>
       <c r="AA544" s="1"/>
       <c r="AB544" s="1"/>
+      <c r="AC544" s="1"/>
     </row>
     <row r="545">
       <c r="A545" s="1"/>
@@ -17192,6 +17969,7 @@
       <c r="Z545" s="1"/>
       <c r="AA545" s="1"/>
       <c r="AB545" s="1"/>
+      <c r="AC545" s="1"/>
     </row>
     <row r="546">
       <c r="A546" s="1"/>
@@ -17222,6 +18000,7 @@
       <c r="Z546" s="1"/>
       <c r="AA546" s="1"/>
       <c r="AB546" s="1"/>
+      <c r="AC546" s="1"/>
     </row>
     <row r="547">
       <c r="A547" s="1"/>
@@ -17252,6 +18031,7 @@
       <c r="Z547" s="1"/>
       <c r="AA547" s="1"/>
       <c r="AB547" s="1"/>
+      <c r="AC547" s="1"/>
     </row>
     <row r="548">
       <c r="A548" s="1"/>
@@ -17282,6 +18062,7 @@
       <c r="Z548" s="1"/>
       <c r="AA548" s="1"/>
       <c r="AB548" s="1"/>
+      <c r="AC548" s="1"/>
     </row>
     <row r="549">
       <c r="A549" s="1"/>
@@ -17312,6 +18093,7 @@
       <c r="Z549" s="1"/>
       <c r="AA549" s="1"/>
       <c r="AB549" s="1"/>
+      <c r="AC549" s="1"/>
     </row>
     <row r="550">
       <c r="A550" s="1"/>
@@ -17342,6 +18124,7 @@
       <c r="Z550" s="1"/>
       <c r="AA550" s="1"/>
       <c r="AB550" s="1"/>
+      <c r="AC550" s="1"/>
     </row>
     <row r="551">
       <c r="A551" s="1"/>
@@ -17372,6 +18155,7 @@
       <c r="Z551" s="1"/>
       <c r="AA551" s="1"/>
       <c r="AB551" s="1"/>
+      <c r="AC551" s="1"/>
     </row>
     <row r="552">
       <c r="A552" s="1"/>
@@ -17402,6 +18186,7 @@
       <c r="Z552" s="1"/>
       <c r="AA552" s="1"/>
       <c r="AB552" s="1"/>
+      <c r="AC552" s="1"/>
     </row>
     <row r="553">
       <c r="A553" s="1"/>
@@ -17432,6 +18217,7 @@
       <c r="Z553" s="1"/>
       <c r="AA553" s="1"/>
       <c r="AB553" s="1"/>
+      <c r="AC553" s="1"/>
     </row>
     <row r="554">
       <c r="A554" s="1"/>
@@ -17462,6 +18248,7 @@
       <c r="Z554" s="1"/>
       <c r="AA554" s="1"/>
       <c r="AB554" s="1"/>
+      <c r="AC554" s="1"/>
     </row>
     <row r="555">
       <c r="A555" s="1"/>
@@ -17492,6 +18279,7 @@
       <c r="Z555" s="1"/>
       <c r="AA555" s="1"/>
       <c r="AB555" s="1"/>
+      <c r="AC555" s="1"/>
     </row>
     <row r="556">
       <c r="A556" s="1"/>
@@ -17522,6 +18310,7 @@
       <c r="Z556" s="1"/>
       <c r="AA556" s="1"/>
       <c r="AB556" s="1"/>
+      <c r="AC556" s="1"/>
     </row>
     <row r="557">
       <c r="A557" s="1"/>
@@ -17552,6 +18341,7 @@
       <c r="Z557" s="1"/>
       <c r="AA557" s="1"/>
       <c r="AB557" s="1"/>
+      <c r="AC557" s="1"/>
     </row>
     <row r="558">
       <c r="A558" s="1"/>
@@ -17582,6 +18372,7 @@
       <c r="Z558" s="1"/>
       <c r="AA558" s="1"/>
       <c r="AB558" s="1"/>
+      <c r="AC558" s="1"/>
     </row>
     <row r="559">
       <c r="A559" s="1"/>
@@ -17612,6 +18403,7 @@
       <c r="Z559" s="1"/>
       <c r="AA559" s="1"/>
       <c r="AB559" s="1"/>
+      <c r="AC559" s="1"/>
     </row>
     <row r="560">
       <c r="A560" s="1"/>
@@ -17642,6 +18434,7 @@
       <c r="Z560" s="1"/>
       <c r="AA560" s="1"/>
       <c r="AB560" s="1"/>
+      <c r="AC560" s="1"/>
     </row>
     <row r="561">
       <c r="A561" s="1"/>
@@ -17672,6 +18465,7 @@
       <c r="Z561" s="1"/>
       <c r="AA561" s="1"/>
       <c r="AB561" s="1"/>
+      <c r="AC561" s="1"/>
     </row>
     <row r="562">
       <c r="A562" s="1"/>
@@ -17702,6 +18496,7 @@
       <c r="Z562" s="1"/>
       <c r="AA562" s="1"/>
       <c r="AB562" s="1"/>
+      <c r="AC562" s="1"/>
     </row>
     <row r="563">
       <c r="A563" s="1"/>
@@ -17732,6 +18527,7 @@
       <c r="Z563" s="1"/>
       <c r="AA563" s="1"/>
       <c r="AB563" s="1"/>
+      <c r="AC563" s="1"/>
     </row>
     <row r="564">
       <c r="A564" s="1"/>
@@ -17762,6 +18558,7 @@
       <c r="Z564" s="1"/>
       <c r="AA564" s="1"/>
       <c r="AB564" s="1"/>
+      <c r="AC564" s="1"/>
     </row>
     <row r="565">
       <c r="A565" s="1"/>
@@ -17792,6 +18589,7 @@
       <c r="Z565" s="1"/>
       <c r="AA565" s="1"/>
       <c r="AB565" s="1"/>
+      <c r="AC565" s="1"/>
     </row>
     <row r="566">
       <c r="A566" s="1"/>
@@ -17822,6 +18620,7 @@
       <c r="Z566" s="1"/>
       <c r="AA566" s="1"/>
       <c r="AB566" s="1"/>
+      <c r="AC566" s="1"/>
     </row>
     <row r="567">
       <c r="A567" s="1"/>
@@ -17852,6 +18651,7 @@
       <c r="Z567" s="1"/>
       <c r="AA567" s="1"/>
       <c r="AB567" s="1"/>
+      <c r="AC567" s="1"/>
     </row>
     <row r="568">
       <c r="A568" s="1"/>
@@ -17882,6 +18682,7 @@
       <c r="Z568" s="1"/>
       <c r="AA568" s="1"/>
       <c r="AB568" s="1"/>
+      <c r="AC568" s="1"/>
     </row>
     <row r="569">
       <c r="A569" s="1"/>
@@ -17912,6 +18713,7 @@
       <c r="Z569" s="1"/>
       <c r="AA569" s="1"/>
       <c r="AB569" s="1"/>
+      <c r="AC569" s="1"/>
     </row>
     <row r="570">
       <c r="A570" s="1"/>
@@ -17942,6 +18744,7 @@
       <c r="Z570" s="1"/>
       <c r="AA570" s="1"/>
       <c r="AB570" s="1"/>
+      <c r="AC570" s="1"/>
     </row>
     <row r="571">
       <c r="A571" s="1"/>
@@ -17972,6 +18775,7 @@
       <c r="Z571" s="1"/>
       <c r="AA571" s="1"/>
       <c r="AB571" s="1"/>
+      <c r="AC571" s="1"/>
     </row>
     <row r="572">
       <c r="A572" s="1"/>
@@ -18002,6 +18806,7 @@
       <c r="Z572" s="1"/>
       <c r="AA572" s="1"/>
       <c r="AB572" s="1"/>
+      <c r="AC572" s="1"/>
     </row>
     <row r="573">
       <c r="A573" s="1"/>
@@ -18032,6 +18837,7 @@
       <c r="Z573" s="1"/>
       <c r="AA573" s="1"/>
       <c r="AB573" s="1"/>
+      <c r="AC573" s="1"/>
     </row>
     <row r="574">
       <c r="A574" s="1"/>
@@ -18062,6 +18868,7 @@
       <c r="Z574" s="1"/>
       <c r="AA574" s="1"/>
       <c r="AB574" s="1"/>
+      <c r="AC574" s="1"/>
     </row>
     <row r="575">
       <c r="A575" s="1"/>
@@ -18092,6 +18899,7 @@
       <c r="Z575" s="1"/>
       <c r="AA575" s="1"/>
       <c r="AB575" s="1"/>
+      <c r="AC575" s="1"/>
     </row>
     <row r="576">
       <c r="A576" s="1"/>
@@ -18122,6 +18930,7 @@
       <c r="Z576" s="1"/>
       <c r="AA576" s="1"/>
       <c r="AB576" s="1"/>
+      <c r="AC576" s="1"/>
     </row>
     <row r="577">
       <c r="A577" s="1"/>
@@ -18152,6 +18961,7 @@
       <c r="Z577" s="1"/>
       <c r="AA577" s="1"/>
       <c r="AB577" s="1"/>
+      <c r="AC577" s="1"/>
     </row>
     <row r="578">
       <c r="A578" s="1"/>
@@ -18182,6 +18992,7 @@
       <c r="Z578" s="1"/>
       <c r="AA578" s="1"/>
       <c r="AB578" s="1"/>
+      <c r="AC578" s="1"/>
     </row>
     <row r="579">
       <c r="A579" s="1"/>
@@ -18212,6 +19023,7 @@
       <c r="Z579" s="1"/>
       <c r="AA579" s="1"/>
       <c r="AB579" s="1"/>
+      <c r="AC579" s="1"/>
     </row>
     <row r="580">
       <c r="A580" s="1"/>
@@ -18242,6 +19054,7 @@
       <c r="Z580" s="1"/>
       <c r="AA580" s="1"/>
       <c r="AB580" s="1"/>
+      <c r="AC580" s="1"/>
     </row>
     <row r="581">
       <c r="A581" s="1"/>
@@ -18272,6 +19085,7 @@
       <c r="Z581" s="1"/>
       <c r="AA581" s="1"/>
       <c r="AB581" s="1"/>
+      <c r="AC581" s="1"/>
     </row>
     <row r="582">
       <c r="A582" s="1"/>
@@ -18302,6 +19116,7 @@
       <c r="Z582" s="1"/>
       <c r="AA582" s="1"/>
       <c r="AB582" s="1"/>
+      <c r="AC582" s="1"/>
     </row>
     <row r="583">
       <c r="A583" s="1"/>
@@ -18332,6 +19147,7 @@
       <c r="Z583" s="1"/>
       <c r="AA583" s="1"/>
       <c r="AB583" s="1"/>
+      <c r="AC583" s="1"/>
     </row>
     <row r="584">
       <c r="A584" s="1"/>
@@ -18362,6 +19178,7 @@
       <c r="Z584" s="1"/>
       <c r="AA584" s="1"/>
       <c r="AB584" s="1"/>
+      <c r="AC584" s="1"/>
     </row>
     <row r="585">
       <c r="A585" s="1"/>
@@ -18392,6 +19209,7 @@
       <c r="Z585" s="1"/>
       <c r="AA585" s="1"/>
       <c r="AB585" s="1"/>
+      <c r="AC585" s="1"/>
     </row>
     <row r="586">
       <c r="A586" s="1"/>
@@ -18422,6 +19240,7 @@
       <c r="Z586" s="1"/>
       <c r="AA586" s="1"/>
       <c r="AB586" s="1"/>
+      <c r="AC586" s="1"/>
     </row>
     <row r="587">
       <c r="A587" s="1"/>
@@ -18452,6 +19271,7 @@
       <c r="Z587" s="1"/>
       <c r="AA587" s="1"/>
       <c r="AB587" s="1"/>
+      <c r="AC587" s="1"/>
     </row>
     <row r="588">
       <c r="A588" s="1"/>
@@ -18482,6 +19302,7 @@
       <c r="Z588" s="1"/>
       <c r="AA588" s="1"/>
       <c r="AB588" s="1"/>
+      <c r="AC588" s="1"/>
     </row>
     <row r="589">
       <c r="A589" s="1"/>
@@ -18512,6 +19333,7 @@
       <c r="Z589" s="1"/>
       <c r="AA589" s="1"/>
       <c r="AB589" s="1"/>
+      <c r="AC589" s="1"/>
     </row>
     <row r="590">
       <c r="A590" s="1"/>
@@ -18542,6 +19364,7 @@
       <c r="Z590" s="1"/>
       <c r="AA590" s="1"/>
       <c r="AB590" s="1"/>
+      <c r="AC590" s="1"/>
     </row>
     <row r="591">
       <c r="A591" s="1"/>
@@ -18572,6 +19395,7 @@
       <c r="Z591" s="1"/>
       <c r="AA591" s="1"/>
       <c r="AB591" s="1"/>
+      <c r="AC591" s="1"/>
     </row>
     <row r="592">
       <c r="A592" s="1"/>
@@ -18602,6 +19426,7 @@
       <c r="Z592" s="1"/>
       <c r="AA592" s="1"/>
       <c r="AB592" s="1"/>
+      <c r="AC592" s="1"/>
     </row>
     <row r="593">
       <c r="A593" s="1"/>
@@ -18632,6 +19457,7 @@
       <c r="Z593" s="1"/>
       <c r="AA593" s="1"/>
       <c r="AB593" s="1"/>
+      <c r="AC593" s="1"/>
     </row>
     <row r="594">
       <c r="A594" s="1"/>
@@ -18662,6 +19488,7 @@
       <c r="Z594" s="1"/>
       <c r="AA594" s="1"/>
       <c r="AB594" s="1"/>
+      <c r="AC594" s="1"/>
     </row>
     <row r="595">
       <c r="A595" s="1"/>
@@ -18692,6 +19519,7 @@
       <c r="Z595" s="1"/>
       <c r="AA595" s="1"/>
       <c r="AB595" s="1"/>
+      <c r="AC595" s="1"/>
     </row>
     <row r="596">
       <c r="A596" s="1"/>
@@ -18722,6 +19550,7 @@
       <c r="Z596" s="1"/>
       <c r="AA596" s="1"/>
       <c r="AB596" s="1"/>
+      <c r="AC596" s="1"/>
     </row>
     <row r="597">
       <c r="A597" s="1"/>
@@ -18752,6 +19581,7 @@
       <c r="Z597" s="1"/>
       <c r="AA597" s="1"/>
       <c r="AB597" s="1"/>
+      <c r="AC597" s="1"/>
     </row>
     <row r="598">
       <c r="A598" s="1"/>
@@ -18782,6 +19612,7 @@
       <c r="Z598" s="1"/>
       <c r="AA598" s="1"/>
       <c r="AB598" s="1"/>
+      <c r="AC598" s="1"/>
     </row>
     <row r="599">
       <c r="A599" s="1"/>
@@ -18812,6 +19643,7 @@
       <c r="Z599" s="1"/>
       <c r="AA599" s="1"/>
       <c r="AB599" s="1"/>
+      <c r="AC599" s="1"/>
     </row>
     <row r="600">
       <c r="A600" s="1"/>
@@ -18842,6 +19674,7 @@
       <c r="Z600" s="1"/>
       <c r="AA600" s="1"/>
       <c r="AB600" s="1"/>
+      <c r="AC600" s="1"/>
     </row>
     <row r="601">
       <c r="A601" s="1"/>
@@ -18872,6 +19705,7 @@
       <c r="Z601" s="1"/>
       <c r="AA601" s="1"/>
       <c r="AB601" s="1"/>
+      <c r="AC601" s="1"/>
     </row>
     <row r="602">
       <c r="A602" s="1"/>
@@ -18902,6 +19736,7 @@
       <c r="Z602" s="1"/>
       <c r="AA602" s="1"/>
       <c r="AB602" s="1"/>
+      <c r="AC602" s="1"/>
     </row>
     <row r="603">
       <c r="A603" s="1"/>
@@ -18932,6 +19767,7 @@
       <c r="Z603" s="1"/>
       <c r="AA603" s="1"/>
       <c r="AB603" s="1"/>
+      <c r="AC603" s="1"/>
     </row>
     <row r="604">
       <c r="A604" s="1"/>
@@ -18962,6 +19798,7 @@
       <c r="Z604" s="1"/>
       <c r="AA604" s="1"/>
       <c r="AB604" s="1"/>
+      <c r="AC604" s="1"/>
     </row>
     <row r="605">
       <c r="A605" s="1"/>
@@ -18992,6 +19829,7 @@
       <c r="Z605" s="1"/>
       <c r="AA605" s="1"/>
       <c r="AB605" s="1"/>
+      <c r="AC605" s="1"/>
     </row>
     <row r="606">
       <c r="A606" s="1"/>
@@ -19022,6 +19860,7 @@
       <c r="Z606" s="1"/>
       <c r="AA606" s="1"/>
       <c r="AB606" s="1"/>
+      <c r="AC606" s="1"/>
     </row>
     <row r="607">
       <c r="A607" s="1"/>
@@ -19052,6 +19891,7 @@
       <c r="Z607" s="1"/>
       <c r="AA607" s="1"/>
       <c r="AB607" s="1"/>
+      <c r="AC607" s="1"/>
     </row>
     <row r="608">
       <c r="A608" s="1"/>
@@ -19082,6 +19922,7 @@
       <c r="Z608" s="1"/>
       <c r="AA608" s="1"/>
       <c r="AB608" s="1"/>
+      <c r="AC608" s="1"/>
     </row>
     <row r="609">
       <c r="A609" s="1"/>
@@ -19112,6 +19953,7 @@
       <c r="Z609" s="1"/>
       <c r="AA609" s="1"/>
       <c r="AB609" s="1"/>
+      <c r="AC609" s="1"/>
     </row>
     <row r="610">
       <c r="A610" s="1"/>
@@ -19142,6 +19984,7 @@
       <c r="Z610" s="1"/>
       <c r="AA610" s="1"/>
       <c r="AB610" s="1"/>
+      <c r="AC610" s="1"/>
     </row>
     <row r="611">
       <c r="A611" s="1"/>
@@ -19172,6 +20015,7 @@
       <c r="Z611" s="1"/>
       <c r="AA611" s="1"/>
       <c r="AB611" s="1"/>
+      <c r="AC611" s="1"/>
     </row>
     <row r="612">
       <c r="A612" s="1"/>
@@ -19202,6 +20046,7 @@
       <c r="Z612" s="1"/>
       <c r="AA612" s="1"/>
       <c r="AB612" s="1"/>
+      <c r="AC612" s="1"/>
     </row>
     <row r="613">
       <c r="A613" s="1"/>
@@ -19232,6 +20077,7 @@
       <c r="Z613" s="1"/>
       <c r="AA613" s="1"/>
       <c r="AB613" s="1"/>
+      <c r="AC613" s="1"/>
     </row>
     <row r="614">
       <c r="A614" s="1"/>
@@ -19262,6 +20108,7 @@
       <c r="Z614" s="1"/>
       <c r="AA614" s="1"/>
       <c r="AB614" s="1"/>
+      <c r="AC614" s="1"/>
     </row>
     <row r="615">
       <c r="A615" s="1"/>
@@ -19292,6 +20139,7 @@
       <c r="Z615" s="1"/>
       <c r="AA615" s="1"/>
       <c r="AB615" s="1"/>
+      <c r="AC615" s="1"/>
     </row>
     <row r="616">
       <c r="A616" s="1"/>
@@ -19322,6 +20170,7 @@
       <c r="Z616" s="1"/>
       <c r="AA616" s="1"/>
       <c r="AB616" s="1"/>
+      <c r="AC616" s="1"/>
     </row>
     <row r="617">
       <c r="A617" s="1"/>
@@ -19352,6 +20201,7 @@
       <c r="Z617" s="1"/>
       <c r="AA617" s="1"/>
       <c r="AB617" s="1"/>
+      <c r="AC617" s="1"/>
     </row>
     <row r="618">
       <c r="A618" s="1"/>
@@ -19382,6 +20232,7 @@
       <c r="Z618" s="1"/>
       <c r="AA618" s="1"/>
       <c r="AB618" s="1"/>
+      <c r="AC618" s="1"/>
     </row>
     <row r="619">
       <c r="A619" s="1"/>
@@ -19412,6 +20263,7 @@
       <c r="Z619" s="1"/>
       <c r="AA619" s="1"/>
       <c r="AB619" s="1"/>
+      <c r="AC619" s="1"/>
     </row>
     <row r="620">
       <c r="A620" s="1"/>
@@ -19442,6 +20294,7 @@
       <c r="Z620" s="1"/>
       <c r="AA620" s="1"/>
       <c r="AB620" s="1"/>
+      <c r="AC620" s="1"/>
     </row>
     <row r="621">
       <c r="A621" s="1"/>
@@ -19472,6 +20325,7 @@
       <c r="Z621" s="1"/>
       <c r="AA621" s="1"/>
       <c r="AB621" s="1"/>
+      <c r="AC621" s="1"/>
     </row>
     <row r="622">
       <c r="A622" s="1"/>
@@ -19502,6 +20356,7 @@
       <c r="Z622" s="1"/>
       <c r="AA622" s="1"/>
       <c r="AB622" s="1"/>
+      <c r="AC622" s="1"/>
     </row>
     <row r="623">
       <c r="A623" s="1"/>
@@ -19532,6 +20387,7 @@
       <c r="Z623" s="1"/>
       <c r="AA623" s="1"/>
       <c r="AB623" s="1"/>
+      <c r="AC623" s="1"/>
     </row>
     <row r="624">
       <c r="A624" s="1"/>
@@ -19562,6 +20418,7 @@
       <c r="Z624" s="1"/>
       <c r="AA624" s="1"/>
       <c r="AB624" s="1"/>
+      <c r="AC624" s="1"/>
     </row>
     <row r="625">
       <c r="A625" s="1"/>
@@ -19592,6 +20449,7 @@
       <c r="Z625" s="1"/>
       <c r="AA625" s="1"/>
       <c r="AB625" s="1"/>
+      <c r="AC625" s="1"/>
     </row>
     <row r="626">
       <c r="A626" s="1"/>
@@ -19622,6 +20480,7 @@
       <c r="Z626" s="1"/>
       <c r="AA626" s="1"/>
       <c r="AB626" s="1"/>
+      <c r="AC626" s="1"/>
     </row>
     <row r="627">
       <c r="A627" s="1"/>
@@ -19652,6 +20511,7 @@
       <c r="Z627" s="1"/>
       <c r="AA627" s="1"/>
       <c r="AB627" s="1"/>
+      <c r="AC627" s="1"/>
     </row>
     <row r="628">
       <c r="A628" s="1"/>
@@ -19682,6 +20542,7 @@
       <c r="Z628" s="1"/>
       <c r="AA628" s="1"/>
       <c r="AB628" s="1"/>
+      <c r="AC628" s="1"/>
     </row>
     <row r="629">
       <c r="A629" s="1"/>
@@ -19712,6 +20573,7 @@
       <c r="Z629" s="1"/>
       <c r="AA629" s="1"/>
       <c r="AB629" s="1"/>
+      <c r="AC629" s="1"/>
     </row>
     <row r="630">
       <c r="A630" s="1"/>
@@ -19742,6 +20604,7 @@
       <c r="Z630" s="1"/>
       <c r="AA630" s="1"/>
       <c r="AB630" s="1"/>
+      <c r="AC630" s="1"/>
     </row>
     <row r="631">
       <c r="A631" s="1"/>
@@ -19772,6 +20635,7 @@
       <c r="Z631" s="1"/>
       <c r="AA631" s="1"/>
       <c r="AB631" s="1"/>
+      <c r="AC631" s="1"/>
     </row>
     <row r="632">
       <c r="A632" s="1"/>
@@ -19802,6 +20666,7 @@
       <c r="Z632" s="1"/>
       <c r="AA632" s="1"/>
       <c r="AB632" s="1"/>
+      <c r="AC632" s="1"/>
     </row>
     <row r="633">
       <c r="A633" s="1"/>
@@ -19832,6 +20697,7 @@
       <c r="Z633" s="1"/>
       <c r="AA633" s="1"/>
       <c r="AB633" s="1"/>
+      <c r="AC633" s="1"/>
     </row>
     <row r="634">
       <c r="A634" s="1"/>
@@ -19862,6 +20728,7 @@
       <c r="Z634" s="1"/>
       <c r="AA634" s="1"/>
       <c r="AB634" s="1"/>
+      <c r="AC634" s="1"/>
     </row>
     <row r="635">
       <c r="A635" s="1"/>
@@ -19892,6 +20759,7 @@
       <c r="Z635" s="1"/>
       <c r="AA635" s="1"/>
       <c r="AB635" s="1"/>
+      <c r="AC635" s="1"/>
     </row>
     <row r="636">
       <c r="A636" s="1"/>
@@ -19922,6 +20790,7 @@
       <c r="Z636" s="1"/>
       <c r="AA636" s="1"/>
       <c r="AB636" s="1"/>
+      <c r="AC636" s="1"/>
     </row>
     <row r="637">
       <c r="A637" s="1"/>
@@ -19952,6 +20821,7 @@
       <c r="Z637" s="1"/>
       <c r="AA637" s="1"/>
       <c r="AB637" s="1"/>
+      <c r="AC637" s="1"/>
     </row>
     <row r="638">
       <c r="A638" s="1"/>
@@ -19982,6 +20852,7 @@
       <c r="Z638" s="1"/>
       <c r="AA638" s="1"/>
       <c r="AB638" s="1"/>
+      <c r="AC638" s="1"/>
     </row>
     <row r="639">
       <c r="A639" s="1"/>
@@ -20012,6 +20883,7 @@
       <c r="Z639" s="1"/>
       <c r="AA639" s="1"/>
       <c r="AB639" s="1"/>
+      <c r="AC639" s="1"/>
     </row>
     <row r="640">
       <c r="A640" s="1"/>
@@ -20042,6 +20914,7 @@
       <c r="Z640" s="1"/>
       <c r="AA640" s="1"/>
       <c r="AB640" s="1"/>
+      <c r="AC640" s="1"/>
     </row>
     <row r="641">
       <c r="A641" s="1"/>
@@ -20072,6 +20945,7 @@
       <c r="Z641" s="1"/>
       <c r="AA641" s="1"/>
       <c r="AB641" s="1"/>
+      <c r="AC641" s="1"/>
     </row>
     <row r="642">
       <c r="A642" s="1"/>
@@ -20102,6 +20976,7 @@
       <c r="Z642" s="1"/>
       <c r="AA642" s="1"/>
       <c r="AB642" s="1"/>
+      <c r="AC642" s="1"/>
     </row>
     <row r="643">
       <c r="A643" s="1"/>
@@ -20132,6 +21007,7 @@
       <c r="Z643" s="1"/>
       <c r="AA643" s="1"/>
       <c r="AB643" s="1"/>
+      <c r="AC643" s="1"/>
     </row>
     <row r="644">
       <c r="A644" s="1"/>
@@ -20162,6 +21038,7 @@
       <c r="Z644" s="1"/>
       <c r="AA644" s="1"/>
       <c r="AB644" s="1"/>
+      <c r="AC644" s="1"/>
     </row>
     <row r="645">
       <c r="A645" s="1"/>
@@ -20192,6 +21069,7 @@
       <c r="Z645" s="1"/>
       <c r="AA645" s="1"/>
       <c r="AB645" s="1"/>
+      <c r="AC645" s="1"/>
     </row>
     <row r="646">
       <c r="A646" s="1"/>
@@ -20222,6 +21100,7 @@
       <c r="Z646" s="1"/>
       <c r="AA646" s="1"/>
       <c r="AB646" s="1"/>
+      <c r="AC646" s="1"/>
     </row>
     <row r="647">
       <c r="A647" s="1"/>
@@ -20252,6 +21131,7 @@
       <c r="Z647" s="1"/>
       <c r="AA647" s="1"/>
       <c r="AB647" s="1"/>
+      <c r="AC647" s="1"/>
     </row>
     <row r="648">
       <c r="A648" s="1"/>
@@ -20282,6 +21162,7 @@
       <c r="Z648" s="1"/>
       <c r="AA648" s="1"/>
       <c r="AB648" s="1"/>
+      <c r="AC648" s="1"/>
     </row>
     <row r="649">
       <c r="A649" s="1"/>
@@ -20312,6 +21193,7 @@
       <c r="Z649" s="1"/>
       <c r="AA649" s="1"/>
       <c r="AB649" s="1"/>
+      <c r="AC649" s="1"/>
     </row>
     <row r="650">
       <c r="A650" s="1"/>
@@ -20342,6 +21224,7 @@
       <c r="Z650" s="1"/>
       <c r="AA650" s="1"/>
       <c r="AB650" s="1"/>
+      <c r="AC650" s="1"/>
     </row>
     <row r="651">
       <c r="A651" s="1"/>
@@ -20372,6 +21255,7 @@
       <c r="Z651" s="1"/>
       <c r="AA651" s="1"/>
       <c r="AB651" s="1"/>
+      <c r="AC651" s="1"/>
     </row>
     <row r="652">
       <c r="A652" s="1"/>
@@ -20402,6 +21286,7 @@
       <c r="Z652" s="1"/>
       <c r="AA652" s="1"/>
       <c r="AB652" s="1"/>
+      <c r="AC652" s="1"/>
     </row>
     <row r="653">
       <c r="A653" s="1"/>
@@ -20432,6 +21317,7 @@
       <c r="Z653" s="1"/>
       <c r="AA653" s="1"/>
       <c r="AB653" s="1"/>
+      <c r="AC653" s="1"/>
     </row>
     <row r="654">
       <c r="A654" s="1"/>
@@ -20462,6 +21348,7 @@
       <c r="Z654" s="1"/>
       <c r="AA654" s="1"/>
       <c r="AB654" s="1"/>
+      <c r="AC654" s="1"/>
     </row>
     <row r="655">
       <c r="A655" s="1"/>
@@ -20492,6 +21379,7 @@
       <c r="Z655" s="1"/>
       <c r="AA655" s="1"/>
       <c r="AB655" s="1"/>
+      <c r="AC655" s="1"/>
     </row>
     <row r="656">
       <c r="A656" s="1"/>
@@ -20522,6 +21410,7 @@
       <c r="Z656" s="1"/>
       <c r="AA656" s="1"/>
       <c r="AB656" s="1"/>
+      <c r="AC656" s="1"/>
     </row>
     <row r="657">
       <c r="A657" s="1"/>
@@ -20552,6 +21441,7 @@
       <c r="Z657" s="1"/>
       <c r="AA657" s="1"/>
       <c r="AB657" s="1"/>
+      <c r="AC657" s="1"/>
     </row>
     <row r="658">
       <c r="A658" s="1"/>
@@ -20582,6 +21472,7 @@
       <c r="Z658" s="1"/>
       <c r="AA658" s="1"/>
       <c r="AB658" s="1"/>
+      <c r="AC658" s="1"/>
     </row>
     <row r="659">
       <c r="A659" s="1"/>
@@ -20612,6 +21503,7 @@
       <c r="Z659" s="1"/>
       <c r="AA659" s="1"/>
       <c r="AB659" s="1"/>
+      <c r="AC659" s="1"/>
     </row>
     <row r="660">
       <c r="A660" s="1"/>
@@ -20642,6 +21534,7 @@
       <c r="Z660" s="1"/>
       <c r="AA660" s="1"/>
       <c r="AB660" s="1"/>
+      <c r="AC660" s="1"/>
     </row>
     <row r="661">
       <c r="A661" s="1"/>
@@ -20672,6 +21565,7 @@
       <c r="Z661" s="1"/>
       <c r="AA661" s="1"/>
       <c r="AB661" s="1"/>
+      <c r="AC661" s="1"/>
     </row>
     <row r="662">
       <c r="A662" s="1"/>
@@ -20702,6 +21596,7 @@
       <c r="Z662" s="1"/>
       <c r="AA662" s="1"/>
       <c r="AB662" s="1"/>
+      <c r="AC662" s="1"/>
     </row>
     <row r="663">
       <c r="A663" s="1"/>
@@ -20732,6 +21627,7 @@
       <c r="Z663" s="1"/>
       <c r="AA663" s="1"/>
       <c r="AB663" s="1"/>
+      <c r="AC663" s="1"/>
     </row>
     <row r="664">
       <c r="A664" s="1"/>
@@ -20762,6 +21658,7 @@
       <c r="Z664" s="1"/>
       <c r="AA664" s="1"/>
       <c r="AB664" s="1"/>
+      <c r="AC664" s="1"/>
     </row>
     <row r="665">
       <c r="A665" s="1"/>
@@ -20792,6 +21689,7 @@
       <c r="Z665" s="1"/>
       <c r="AA665" s="1"/>
       <c r="AB665" s="1"/>
+      <c r="AC665" s="1"/>
     </row>
     <row r="666">
       <c r="A666" s="1"/>
@@ -20822,6 +21720,7 @@
       <c r="Z666" s="1"/>
       <c r="AA666" s="1"/>
       <c r="AB666" s="1"/>
+      <c r="AC666" s="1"/>
     </row>
     <row r="667">
       <c r="A667" s="1"/>
@@ -20852,6 +21751,7 @@
       <c r="Z667" s="1"/>
       <c r="AA667" s="1"/>
       <c r="AB667" s="1"/>
+      <c r="AC667" s="1"/>
     </row>
     <row r="668">
       <c r="A668" s="1"/>
@@ -20882,6 +21782,7 @@
       <c r="Z668" s="1"/>
       <c r="AA668" s="1"/>
       <c r="AB668" s="1"/>
+      <c r="AC668" s="1"/>
     </row>
     <row r="669">
       <c r="A669" s="1"/>
@@ -20912,6 +21813,7 @@
       <c r="Z669" s="1"/>
       <c r="AA669" s="1"/>
       <c r="AB669" s="1"/>
+      <c r="AC669" s="1"/>
     </row>
     <row r="670">
       <c r="A670" s="1"/>
@@ -20942,6 +21844,7 @@
       <c r="Z670" s="1"/>
       <c r="AA670" s="1"/>
       <c r="AB670" s="1"/>
+      <c r="AC670" s="1"/>
     </row>
     <row r="671">
       <c r="A671" s="1"/>
@@ -20972,6 +21875,7 @@
       <c r="Z671" s="1"/>
       <c r="AA671" s="1"/>
       <c r="AB671" s="1"/>
+      <c r="AC671" s="1"/>
     </row>
     <row r="672">
       <c r="A672" s="1"/>
@@ -21002,6 +21906,7 @@
       <c r="Z672" s="1"/>
       <c r="AA672" s="1"/>
       <c r="AB672" s="1"/>
+      <c r="AC672" s="1"/>
     </row>
     <row r="673">
       <c r="A673" s="1"/>
@@ -21032,6 +21937,7 @@
       <c r="Z673" s="1"/>
       <c r="AA673" s="1"/>
       <c r="AB673" s="1"/>
+      <c r="AC673" s="1"/>
     </row>
     <row r="674">
       <c r="A674" s="1"/>
@@ -21062,6 +21968,7 @@
       <c r="Z674" s="1"/>
       <c r="AA674" s="1"/>
       <c r="AB674" s="1"/>
+      <c r="AC674" s="1"/>
     </row>
     <row r="675">
       <c r="A675" s="1"/>
@@ -21092,6 +21999,7 @@
       <c r="Z675" s="1"/>
       <c r="AA675" s="1"/>
       <c r="AB675" s="1"/>
+      <c r="AC675" s="1"/>
     </row>
     <row r="676">
       <c r="A676" s="1"/>
@@ -21122,6 +22030,7 @@
       <c r="Z676" s="1"/>
       <c r="AA676" s="1"/>
       <c r="AB676" s="1"/>
+      <c r="AC676" s="1"/>
     </row>
     <row r="677">
       <c r="A677" s="1"/>
@@ -21152,6 +22061,7 @@
       <c r="Z677" s="1"/>
       <c r="AA677" s="1"/>
       <c r="AB677" s="1"/>
+      <c r="AC677" s="1"/>
     </row>
     <row r="678">
       <c r="A678" s="1"/>
@@ -21182,6 +22092,7 @@
       <c r="Z678" s="1"/>
       <c r="AA678" s="1"/>
       <c r="AB678" s="1"/>
+      <c r="AC678" s="1"/>
     </row>
     <row r="679">
       <c r="A679" s="1"/>
@@ -21212,6 +22123,7 @@
       <c r="Z679" s="1"/>
       <c r="AA679" s="1"/>
       <c r="AB679" s="1"/>
+      <c r="AC679" s="1"/>
     </row>
     <row r="680">
       <c r="A680" s="1"/>
@@ -21242,6 +22154,7 @@
       <c r="Z680" s="1"/>
       <c r="AA680" s="1"/>
       <c r="AB680" s="1"/>
+      <c r="AC680" s="1"/>
     </row>
     <row r="681">
       <c r="A681" s="1"/>
@@ -21272,6 +22185,7 @@
       <c r="Z681" s="1"/>
       <c r="AA681" s="1"/>
       <c r="AB681" s="1"/>
+      <c r="AC681" s="1"/>
     </row>
     <row r="682">
       <c r="A682" s="1"/>
@@ -21302,6 +22216,7 @@
       <c r="Z682" s="1"/>
       <c r="AA682" s="1"/>
       <c r="AB682" s="1"/>
+      <c r="AC682" s="1"/>
     </row>
     <row r="683">
       <c r="A683" s="1"/>
@@ -21332,6 +22247,7 @@
       <c r="Z683" s="1"/>
       <c r="AA683" s="1"/>
       <c r="AB683" s="1"/>
+      <c r="AC683" s="1"/>
     </row>
     <row r="684">
       <c r="A684" s="1"/>
@@ -21362,6 +22278,7 @@
       <c r="Z684" s="1"/>
       <c r="AA684" s="1"/>
       <c r="AB684" s="1"/>
+      <c r="AC684" s="1"/>
     </row>
     <row r="685">
       <c r="A685" s="1"/>
@@ -21392,6 +22309,7 @@
       <c r="Z685" s="1"/>
       <c r="AA685" s="1"/>
       <c r="AB685" s="1"/>
+      <c r="AC685" s="1"/>
     </row>
     <row r="686">
       <c r="A686" s="1"/>
@@ -21422,6 +22340,7 @@
       <c r="Z686" s="1"/>
       <c r="AA686" s="1"/>
       <c r="AB686" s="1"/>
+      <c r="AC686" s="1"/>
     </row>
     <row r="687">
       <c r="A687" s="1"/>
@@ -21452,6 +22371,7 @@
       <c r="Z687" s="1"/>
       <c r="AA687" s="1"/>
       <c r="AB687" s="1"/>
+      <c r="AC687" s="1"/>
     </row>
     <row r="688">
       <c r="A688" s="1"/>
@@ -21482,6 +22402,7 @@
       <c r="Z688" s="1"/>
       <c r="AA688" s="1"/>
       <c r="AB688" s="1"/>
+      <c r="AC688" s="1"/>
     </row>
     <row r="689">
       <c r="A689" s="1"/>
@@ -21512,6 +22433,7 @@
       <c r="Z689" s="1"/>
       <c r="AA689" s="1"/>
       <c r="AB689" s="1"/>
+      <c r="AC689" s="1"/>
     </row>
     <row r="690">
       <c r="A690" s="1"/>
@@ -21542,6 +22464,7 @@
       <c r="Z690" s="1"/>
       <c r="AA690" s="1"/>
       <c r="AB690" s="1"/>
+      <c r="AC690" s="1"/>
     </row>
     <row r="691">
       <c r="A691" s="1"/>
@@ -21572,6 +22495,7 @@
       <c r="Z691" s="1"/>
       <c r="AA691" s="1"/>
       <c r="AB691" s="1"/>
+      <c r="AC691" s="1"/>
     </row>
     <row r="692">
       <c r="A692" s="1"/>
@@ -21602,6 +22526,7 @@
       <c r="Z692" s="1"/>
       <c r="AA692" s="1"/>
       <c r="AB692" s="1"/>
+      <c r="AC692" s="1"/>
     </row>
     <row r="693">
       <c r="A693" s="1"/>
@@ -21632,6 +22557,7 @@
       <c r="Z693" s="1"/>
       <c r="AA693" s="1"/>
       <c r="AB693" s="1"/>
+      <c r="AC693" s="1"/>
     </row>
     <row r="694">
       <c r="A694" s="1"/>
@@ -21662,6 +22588,7 @@
       <c r="Z694" s="1"/>
       <c r="AA694" s="1"/>
       <c r="AB694" s="1"/>
+      <c r="AC694" s="1"/>
     </row>
     <row r="695">
       <c r="A695" s="1"/>
@@ -21692,6 +22619,7 @@
       <c r="Z695" s="1"/>
       <c r="AA695" s="1"/>
       <c r="AB695" s="1"/>
+      <c r="AC695" s="1"/>
     </row>
     <row r="696">
       <c r="A696" s="1"/>
@@ -21722,6 +22650,7 @@
       <c r="Z696" s="1"/>
       <c r="AA696" s="1"/>
       <c r="AB696" s="1"/>
+      <c r="AC696" s="1"/>
     </row>
     <row r="697">
       <c r="A697" s="1"/>
@@ -21752,6 +22681,7 @@
       <c r="Z697" s="1"/>
       <c r="AA697" s="1"/>
       <c r="AB697" s="1"/>
+      <c r="AC697" s="1"/>
     </row>
     <row r="698">
       <c r="A698" s="1"/>
@@ -21782,6 +22712,7 @@
       <c r="Z698" s="1"/>
       <c r="AA698" s="1"/>
       <c r="AB698" s="1"/>
+      <c r="AC698" s="1"/>
     </row>
     <row r="699">
       <c r="A699" s="1"/>
@@ -21812,6 +22743,7 @@
       <c r="Z699" s="1"/>
       <c r="AA699" s="1"/>
       <c r="AB699" s="1"/>
+      <c r="AC699" s="1"/>
     </row>
     <row r="700">
       <c r="A700" s="1"/>
@@ -21842,6 +22774,7 @@
       <c r="Z700" s="1"/>
       <c r="AA700" s="1"/>
       <c r="AB700" s="1"/>
+      <c r="AC700" s="1"/>
     </row>
     <row r="701">
       <c r="A701" s="1"/>
@@ -21872,6 +22805,7 @@
       <c r="Z701" s="1"/>
       <c r="AA701" s="1"/>
       <c r="AB701" s="1"/>
+      <c r="AC701" s="1"/>
     </row>
     <row r="702">
       <c r="A702" s="1"/>
@@ -21902,6 +22836,7 @@
       <c r="Z702" s="1"/>
       <c r="AA702" s="1"/>
       <c r="AB702" s="1"/>
+      <c r="AC702" s="1"/>
     </row>
     <row r="703">
       <c r="A703" s="1"/>
@@ -21932,6 +22867,7 @@
       <c r="Z703" s="1"/>
       <c r="AA703" s="1"/>
       <c r="AB703" s="1"/>
+      <c r="AC703" s="1"/>
     </row>
     <row r="704">
       <c r="A704" s="1"/>
@@ -21962,6 +22898,7 @@
       <c r="Z704" s="1"/>
       <c r="AA704" s="1"/>
       <c r="AB704" s="1"/>
+      <c r="AC704" s="1"/>
     </row>
     <row r="705">
       <c r="A705" s="1"/>
@@ -21992,6 +22929,7 @@
       <c r="Z705" s="1"/>
       <c r="AA705" s="1"/>
       <c r="AB705" s="1"/>
+      <c r="AC705" s="1"/>
     </row>
     <row r="706">
       <c r="A706" s="1"/>
@@ -22022,6 +22960,7 @@
       <c r="Z706" s="1"/>
       <c r="AA706" s="1"/>
       <c r="AB706" s="1"/>
+      <c r="AC706" s="1"/>
     </row>
     <row r="707">
       <c r="A707" s="1"/>
@@ -22052,6 +22991,7 @@
       <c r="Z707" s="1"/>
       <c r="AA707" s="1"/>
       <c r="AB707" s="1"/>
+      <c r="AC707" s="1"/>
     </row>
     <row r="708">
       <c r="A708" s="1"/>
@@ -22082,6 +23022,7 @@
       <c r="Z708" s="1"/>
       <c r="AA708" s="1"/>
       <c r="AB708" s="1"/>
+      <c r="AC708" s="1"/>
     </row>
     <row r="709">
       <c r="A709" s="1"/>
@@ -22112,6 +23053,7 @@
       <c r="Z709" s="1"/>
       <c r="AA709" s="1"/>
       <c r="AB709" s="1"/>
+      <c r="AC709" s="1"/>
     </row>
     <row r="710">
       <c r="A710" s="1"/>
@@ -22142,6 +23084,7 @@
       <c r="Z710" s="1"/>
       <c r="AA710" s="1"/>
       <c r="AB710" s="1"/>
+      <c r="AC710" s="1"/>
     </row>
     <row r="711">
       <c r="A711" s="1"/>
@@ -22172,6 +23115,7 @@
       <c r="Z711" s="1"/>
       <c r="AA711" s="1"/>
       <c r="AB711" s="1"/>
+      <c r="AC711" s="1"/>
     </row>
     <row r="712">
       <c r="A712" s="1"/>
@@ -22202,6 +23146,7 @@
       <c r="Z712" s="1"/>
       <c r="AA712" s="1"/>
       <c r="AB712" s="1"/>
+      <c r="AC712" s="1"/>
     </row>
     <row r="713">
       <c r="A713" s="1"/>
@@ -22232,6 +23177,7 @@
       <c r="Z713" s="1"/>
       <c r="AA713" s="1"/>
       <c r="AB713" s="1"/>
+      <c r="AC713" s="1"/>
     </row>
     <row r="714">
       <c r="A714" s="1"/>
@@ -22262,6 +23208,7 @@
       <c r="Z714" s="1"/>
       <c r="AA714" s="1"/>
       <c r="AB714" s="1"/>
+      <c r="AC714" s="1"/>
     </row>
     <row r="715">
       <c r="A715" s="1"/>
@@ -22292,6 +23239,7 @@
       <c r="Z715" s="1"/>
       <c r="AA715" s="1"/>
       <c r="AB715" s="1"/>
+      <c r="AC715" s="1"/>
     </row>
     <row r="716">
       <c r="A716" s="1"/>
@@ -22322,6 +23270,7 @@
       <c r="Z716" s="1"/>
       <c r="AA716" s="1"/>
       <c r="AB716" s="1"/>
+      <c r="AC716" s="1"/>
     </row>
     <row r="717">
       <c r="A717" s="1"/>
@@ -22352,6 +23301,7 @@
       <c r="Z717" s="1"/>
       <c r="AA717" s="1"/>
       <c r="AB717" s="1"/>
+      <c r="AC717" s="1"/>
     </row>
     <row r="718">
       <c r="A718" s="1"/>
@@ -22382,6 +23332,7 @@
       <c r="Z718" s="1"/>
       <c r="AA718" s="1"/>
       <c r="AB718" s="1"/>
+      <c r="AC718" s="1"/>
     </row>
     <row r="719">
       <c r="A719" s="1"/>
@@ -22412,6 +23363,7 @@
       <c r="Z719" s="1"/>
       <c r="AA719" s="1"/>
       <c r="AB719" s="1"/>
+      <c r="AC719" s="1"/>
     </row>
     <row r="720">
       <c r="A720" s="1"/>
@@ -22442,6 +23394,7 @@
       <c r="Z720" s="1"/>
       <c r="AA720" s="1"/>
       <c r="AB720" s="1"/>
+      <c r="AC720" s="1"/>
     </row>
     <row r="721">
       <c r="A721" s="1"/>
@@ -22472,6 +23425,7 @@
       <c r="Z721" s="1"/>
       <c r="AA721" s="1"/>
       <c r="AB721" s="1"/>
+      <c r="AC721" s="1"/>
     </row>
     <row r="722">
       <c r="A722" s="1"/>
@@ -22502,6 +23456,7 @@
       <c r="Z722" s="1"/>
       <c r="AA722" s="1"/>
       <c r="AB722" s="1"/>
+      <c r="AC722" s="1"/>
     </row>
     <row r="723">
       <c r="A723" s="1"/>
@@ -22532,6 +23487,7 @@
       <c r="Z723" s="1"/>
       <c r="AA723" s="1"/>
       <c r="AB723" s="1"/>
+      <c r="AC723" s="1"/>
     </row>
     <row r="724">
       <c r="A724" s="1"/>
@@ -22562,6 +23518,7 @@
       <c r="Z724" s="1"/>
       <c r="AA724" s="1"/>
       <c r="AB724" s="1"/>
+      <c r="AC724" s="1"/>
     </row>
     <row r="725">
       <c r="A725" s="1"/>
@@ -22592,6 +23549,7 @@
       <c r="Z725" s="1"/>
       <c r="AA725" s="1"/>
       <c r="AB725" s="1"/>
+      <c r="AC725" s="1"/>
     </row>
     <row r="726">
       <c r="A726" s="1"/>
@@ -22622,6 +23580,7 @@
       <c r="Z726" s="1"/>
       <c r="AA726" s="1"/>
       <c r="AB726" s="1"/>
+      <c r="AC726" s="1"/>
     </row>
     <row r="727">
       <c r="A727" s="1"/>
@@ -22652,6 +23611,7 @@
       <c r="Z727" s="1"/>
       <c r="AA727" s="1"/>
       <c r="AB727" s="1"/>
+      <c r="AC727" s="1"/>
     </row>
     <row r="728">
       <c r="A728" s="1"/>
@@ -22682,6 +23642,7 @@
       <c r="Z728" s="1"/>
       <c r="AA728" s="1"/>
       <c r="AB728" s="1"/>
+      <c r="AC728" s="1"/>
     </row>
     <row r="729">
       <c r="A729" s="1"/>
@@ -22712,6 +23673,7 @@
       <c r="Z729" s="1"/>
       <c r="AA729" s="1"/>
       <c r="AB729" s="1"/>
+      <c r="AC729" s="1"/>
     </row>
     <row r="730">
       <c r="A730" s="1"/>
@@ -22742,6 +23704,7 @@
       <c r="Z730" s="1"/>
       <c r="AA730" s="1"/>
       <c r="AB730" s="1"/>
+      <c r="AC730" s="1"/>
     </row>
     <row r="731">
       <c r="A731" s="1"/>
@@ -22772,6 +23735,7 @@
       <c r="Z731" s="1"/>
       <c r="AA731" s="1"/>
       <c r="AB731" s="1"/>
+      <c r="AC731" s="1"/>
     </row>
     <row r="732">
       <c r="A732" s="1"/>
@@ -22802,6 +23766,7 @@
       <c r="Z732" s="1"/>
       <c r="AA732" s="1"/>
       <c r="AB732" s="1"/>
+      <c r="AC732" s="1"/>
     </row>
     <row r="733">
       <c r="A733" s="1"/>
@@ -22832,6 +23797,7 @@
       <c r="Z733" s="1"/>
       <c r="AA733" s="1"/>
       <c r="AB733" s="1"/>
+      <c r="AC733" s="1"/>
     </row>
     <row r="734">
       <c r="A734" s="1"/>
@@ -22862,6 +23828,7 @@
       <c r="Z734" s="1"/>
       <c r="AA734" s="1"/>
       <c r="AB734" s="1"/>
+      <c r="AC734" s="1"/>
     </row>
     <row r="735">
       <c r="A735" s="1"/>
@@ -22892,6 +23859,7 @@
       <c r="Z735" s="1"/>
       <c r="AA735" s="1"/>
       <c r="AB735" s="1"/>
+      <c r="AC735" s="1"/>
     </row>
     <row r="736">
       <c r="A736" s="1"/>
@@ -22922,6 +23890,7 @@
       <c r="Z736" s="1"/>
       <c r="AA736" s="1"/>
       <c r="AB736" s="1"/>
+      <c r="AC736" s="1"/>
     </row>
     <row r="737">
       <c r="A737" s="1"/>
@@ -22952,6 +23921,7 @@
       <c r="Z737" s="1"/>
       <c r="AA737" s="1"/>
       <c r="AB737" s="1"/>
+      <c r="AC737" s="1"/>
     </row>
     <row r="738">
       <c r="A738" s="1"/>
@@ -22982,6 +23952,7 @@
       <c r="Z738" s="1"/>
       <c r="AA738" s="1"/>
       <c r="AB738" s="1"/>
+      <c r="AC738" s="1"/>
     </row>
     <row r="739">
       <c r="A739" s="1"/>
@@ -23012,6 +23983,7 @@
       <c r="Z739" s="1"/>
       <c r="AA739" s="1"/>
       <c r="AB739" s="1"/>
+      <c r="AC739" s="1"/>
     </row>
     <row r="740">
       <c r="A740" s="1"/>
@@ -23042,6 +24014,7 @@
       <c r="Z740" s="1"/>
       <c r="AA740" s="1"/>
       <c r="AB740" s="1"/>
+      <c r="AC740" s="1"/>
     </row>
     <row r="741">
       <c r="A741" s="1"/>
@@ -23072,6 +24045,7 @@
       <c r="Z741" s="1"/>
       <c r="AA741" s="1"/>
       <c r="AB741" s="1"/>
+      <c r="AC741" s="1"/>
     </row>
     <row r="742">
       <c r="A742" s="1"/>
@@ -23102,6 +24076,7 @@
       <c r="Z742" s="1"/>
       <c r="AA742" s="1"/>
       <c r="AB742" s="1"/>
+      <c r="AC742" s="1"/>
     </row>
     <row r="743">
       <c r="A743" s="1"/>
@@ -23132,6 +24107,7 @@
       <c r="Z743" s="1"/>
       <c r="AA743" s="1"/>
       <c r="AB743" s="1"/>
+      <c r="AC743" s="1"/>
     </row>
     <row r="744">
       <c r="A744" s="1"/>
@@ -23162,6 +24138,7 @@
       <c r="Z744" s="1"/>
       <c r="AA744" s="1"/>
       <c r="AB744" s="1"/>
+      <c r="AC744" s="1"/>
     </row>
     <row r="745">
       <c r="A745" s="1"/>
@@ -23192,6 +24169,7 @@
       <c r="Z745" s="1"/>
       <c r="AA745" s="1"/>
       <c r="AB745" s="1"/>
+      <c r="AC745" s="1"/>
     </row>
     <row r="746">
       <c r="A746" s="1"/>
@@ -23222,6 +24200,7 @@
       <c r="Z746" s="1"/>
       <c r="AA746" s="1"/>
       <c r="AB746" s="1"/>
+      <c r="AC746" s="1"/>
     </row>
     <row r="747">
       <c r="A747" s="1"/>
@@ -23252,6 +24231,7 @@
       <c r="Z747" s="1"/>
       <c r="AA747" s="1"/>
       <c r="AB747" s="1"/>
+      <c r="AC747" s="1"/>
     </row>
     <row r="748">
       <c r="A748" s="1"/>
@@ -23282,6 +24262,7 @@
       <c r="Z748" s="1"/>
       <c r="AA748" s="1"/>
       <c r="AB748" s="1"/>
+      <c r="AC748" s="1"/>
     </row>
     <row r="749">
       <c r="A749" s="1"/>
@@ -23312,6 +24293,7 @@
       <c r="Z749" s="1"/>
       <c r="AA749" s="1"/>
       <c r="AB749" s="1"/>
+      <c r="AC749" s="1"/>
     </row>
     <row r="750">
       <c r="A750" s="1"/>
@@ -23342,6 +24324,7 @@
       <c r="Z750" s="1"/>
       <c r="AA750" s="1"/>
       <c r="AB750" s="1"/>
+      <c r="AC750" s="1"/>
     </row>
     <row r="751">
       <c r="A751" s="1"/>
@@ -23372,6 +24355,7 @@
       <c r="Z751" s="1"/>
       <c r="AA751" s="1"/>
       <c r="AB751" s="1"/>
+      <c r="AC751" s="1"/>
     </row>
     <row r="752">
       <c r="A752" s="1"/>
@@ -23402,6 +24386,7 @@
       <c r="Z752" s="1"/>
       <c r="AA752" s="1"/>
       <c r="AB752" s="1"/>
+      <c r="AC752" s="1"/>
     </row>
     <row r="753">
       <c r="A753" s="1"/>
@@ -23432,6 +24417,7 @@
       <c r="Z753" s="1"/>
       <c r="AA753" s="1"/>
       <c r="AB753" s="1"/>
+      <c r="AC753" s="1"/>
     </row>
     <row r="754">
       <c r="A754" s="1"/>
@@ -23462,6 +24448,7 @@
       <c r="Z754" s="1"/>
       <c r="AA754" s="1"/>
       <c r="AB754" s="1"/>
+      <c r="AC754" s="1"/>
     </row>
     <row r="755">
       <c r="A755" s="1"/>
@@ -23492,6 +24479,7 @@
       <c r="Z755" s="1"/>
       <c r="AA755" s="1"/>
       <c r="AB755" s="1"/>
+      <c r="AC755" s="1"/>
     </row>
     <row r="756">
       <c r="A756" s="1"/>
@@ -23522,6 +24510,7 @@
       <c r="Z756" s="1"/>
       <c r="AA756" s="1"/>
       <c r="AB756" s="1"/>
+      <c r="AC756" s="1"/>
     </row>
     <row r="757">
       <c r="A757" s="1"/>
@@ -23552,6 +24541,7 @@
       <c r="Z757" s="1"/>
       <c r="AA757" s="1"/>
       <c r="AB757" s="1"/>
+      <c r="AC757" s="1"/>
     </row>
     <row r="758">
       <c r="A758" s="1"/>
@@ -23582,6 +24572,7 @@
       <c r="Z758" s="1"/>
       <c r="AA758" s="1"/>
       <c r="AB758" s="1"/>
+      <c r="AC758" s="1"/>
     </row>
     <row r="759">
       <c r="A759" s="1"/>
@@ -23612,6 +24603,7 @@
       <c r="Z759" s="1"/>
       <c r="AA759" s="1"/>
       <c r="AB759" s="1"/>
+      <c r="AC759" s="1"/>
     </row>
     <row r="760">
       <c r="A760" s="1"/>
@@ -23642,6 +24634,7 @@
       <c r="Z760" s="1"/>
       <c r="AA760" s="1"/>
       <c r="AB760" s="1"/>
+      <c r="AC760" s="1"/>
     </row>
     <row r="761">
       <c r="A761" s="1"/>
@@ -23672,6 +24665,7 @@
       <c r="Z761" s="1"/>
       <c r="AA761" s="1"/>
       <c r="AB761" s="1"/>
+      <c r="AC761" s="1"/>
     </row>
     <row r="762">
       <c r="A762" s="1"/>
@@ -23702,6 +24696,7 @@
       <c r="Z762" s="1"/>
       <c r="AA762" s="1"/>
       <c r="AB762" s="1"/>
+      <c r="AC762" s="1"/>
     </row>
     <row r="763">
       <c r="A763" s="1"/>
@@ -23732,6 +24727,7 @@
       <c r="Z763" s="1"/>
       <c r="AA763" s="1"/>
       <c r="AB763" s="1"/>
+      <c r="AC763" s="1"/>
     </row>
     <row r="764">
       <c r="A764" s="1"/>
@@ -23762,6 +24758,7 @@
       <c r="Z764" s="1"/>
       <c r="AA764" s="1"/>
       <c r="AB764" s="1"/>
+      <c r="AC764" s="1"/>
     </row>
     <row r="765">
       <c r="A765" s="1"/>
@@ -23792,6 +24789,7 @@
       <c r="Z765" s="1"/>
       <c r="AA765" s="1"/>
       <c r="AB765" s="1"/>
+      <c r="AC765" s="1"/>
     </row>
     <row r="766">
       <c r="A766" s="1"/>
@@ -23822,6 +24820,7 @@
       <c r="Z766" s="1"/>
       <c r="AA766" s="1"/>
       <c r="AB766" s="1"/>
+      <c r="AC766" s="1"/>
     </row>
     <row r="767">
       <c r="A767" s="1"/>
@@ -23852,6 +24851,7 @@
       <c r="Z767" s="1"/>
       <c r="AA767" s="1"/>
       <c r="AB767" s="1"/>
+      <c r="AC767" s="1"/>
     </row>
     <row r="768">
       <c r="A768" s="1"/>
@@ -23882,6 +24882,7 @@
       <c r="Z768" s="1"/>
       <c r="AA768" s="1"/>
       <c r="AB768" s="1"/>
+      <c r="AC768" s="1"/>
     </row>
     <row r="769">
       <c r="A769" s="1"/>
@@ -23912,6 +24913,7 @@
       <c r="Z769" s="1"/>
       <c r="AA769" s="1"/>
       <c r="AB769" s="1"/>
+      <c r="AC769" s="1"/>
     </row>
     <row r="770">
       <c r="A770" s="1"/>
@@ -23942,6 +24944,7 @@
       <c r="Z770" s="1"/>
       <c r="AA770" s="1"/>
       <c r="AB770" s="1"/>
+      <c r="AC770" s="1"/>
     </row>
     <row r="771">
       <c r="A771" s="1"/>
@@ -23972,6 +24975,7 @@
       <c r="Z771" s="1"/>
       <c r="AA771" s="1"/>
       <c r="AB771" s="1"/>
+      <c r="AC771" s="1"/>
     </row>
     <row r="772">
       <c r="A772" s="1"/>
@@ -24002,6 +25006,7 @@
       <c r="Z772" s="1"/>
       <c r="AA772" s="1"/>
       <c r="AB772" s="1"/>
+      <c r="AC772" s="1"/>
     </row>
     <row r="773">
       <c r="A773" s="1"/>
@@ -24032,6 +25037,7 @@
       <c r="Z773" s="1"/>
       <c r="AA773" s="1"/>
       <c r="AB773" s="1"/>
+      <c r="AC773" s="1"/>
     </row>
     <row r="774">
       <c r="A774" s="1"/>
@@ -24062,6 +25068,7 @@
       <c r="Z774" s="1"/>
       <c r="AA774" s="1"/>
       <c r="AB774" s="1"/>
+      <c r="AC774" s="1"/>
     </row>
     <row r="775">
       <c r="A775" s="1"/>
@@ -24092,6 +25099,7 @@
       <c r="Z775" s="1"/>
       <c r="AA775" s="1"/>
       <c r="AB775" s="1"/>
+      <c r="AC775" s="1"/>
     </row>
     <row r="776">
       <c r="A776" s="1"/>
@@ -24122,6 +25130,7 @@
       <c r="Z776" s="1"/>
       <c r="AA776" s="1"/>
       <c r="AB776" s="1"/>
+      <c r="AC776" s="1"/>
     </row>
     <row r="777">
       <c r="A777" s="1"/>
@@ -24152,6 +25161,7 @@
       <c r="Z777" s="1"/>
       <c r="AA777" s="1"/>
       <c r="AB777" s="1"/>
+      <c r="AC777" s="1"/>
     </row>
     <row r="778">
       <c r="A778" s="1"/>
@@ -24182,6 +25192,7 @@
       <c r="Z778" s="1"/>
       <c r="AA778" s="1"/>
       <c r="AB778" s="1"/>
+      <c r="AC778" s="1"/>
     </row>
     <row r="779">
       <c r="A779" s="1"/>
@@ -24212,6 +25223,7 @@
       <c r="Z779" s="1"/>
       <c r="AA779" s="1"/>
       <c r="AB779" s="1"/>
+      <c r="AC779" s="1"/>
     </row>
     <row r="780">
       <c r="A780" s="1"/>
@@ -24242,6 +25254,7 @@
       <c r="Z780" s="1"/>
       <c r="AA780" s="1"/>
       <c r="AB780" s="1"/>
+      <c r="AC780" s="1"/>
     </row>
     <row r="781">
       <c r="A781" s="1"/>
@@ -24272,6 +25285,7 @@
       <c r="Z781" s="1"/>
       <c r="AA781" s="1"/>
       <c r="AB781" s="1"/>
+      <c r="AC781" s="1"/>
     </row>
     <row r="782">
       <c r="A782" s="1"/>
@@ -24302,6 +25316,7 @@
       <c r="Z782" s="1"/>
       <c r="AA782" s="1"/>
       <c r="AB782" s="1"/>
+      <c r="AC782" s="1"/>
     </row>
     <row r="783">
       <c r="A783" s="1"/>
@@ -24332,6 +25347,7 @@
       <c r="Z783" s="1"/>
       <c r="AA783" s="1"/>
       <c r="AB783" s="1"/>
+      <c r="AC783" s="1"/>
     </row>
     <row r="784">
       <c r="A784" s="1"/>
@@ -24362,6 +25378,7 @@
       <c r="Z784" s="1"/>
       <c r="AA784" s="1"/>
       <c r="AB784" s="1"/>
+      <c r="AC784" s="1"/>
     </row>
     <row r="785">
       <c r="A785" s="1"/>
@@ -24392,6 +25409,7 @@
       <c r="Z785" s="1"/>
       <c r="AA785" s="1"/>
       <c r="AB785" s="1"/>
+      <c r="AC785" s="1"/>
     </row>
     <row r="786">
       <c r="A786" s="1"/>
@@ -24422,6 +25440,7 @@
       <c r="Z786" s="1"/>
       <c r="AA786" s="1"/>
       <c r="AB786" s="1"/>
+      <c r="AC786" s="1"/>
     </row>
     <row r="787">
       <c r="A787" s="1"/>
@@ -24452,6 +25471,7 @@
       <c r="Z787" s="1"/>
       <c r="AA787" s="1"/>
       <c r="AB787" s="1"/>
+      <c r="AC787" s="1"/>
     </row>
     <row r="788">
       <c r="A788" s="1"/>
@@ -24482,6 +25502,7 @@
       <c r="Z788" s="1"/>
       <c r="AA788" s="1"/>
       <c r="AB788" s="1"/>
+      <c r="AC788" s="1"/>
     </row>
     <row r="789">
       <c r="A789" s="1"/>
@@ -24512,6 +25533,7 @@
       <c r="Z789" s="1"/>
       <c r="AA789" s="1"/>
       <c r="AB789" s="1"/>
+      <c r="AC789" s="1"/>
     </row>
     <row r="790">
       <c r="A790" s="1"/>
@@ -24542,6 +25564,7 @@
       <c r="Z790" s="1"/>
       <c r="AA790" s="1"/>
       <c r="AB790" s="1"/>
+      <c r="AC790" s="1"/>
     </row>
     <row r="791">
       <c r="A791" s="1"/>
@@ -24572,6 +25595,7 @@
       <c r="Z791" s="1"/>
       <c r="AA791" s="1"/>
       <c r="AB791" s="1"/>
+      <c r="AC791" s="1"/>
     </row>
     <row r="792">
       <c r="A792" s="1"/>
@@ -24602,6 +25626,7 @@
       <c r="Z792" s="1"/>
       <c r="AA792" s="1"/>
       <c r="AB792" s="1"/>
+      <c r="AC792" s="1"/>
     </row>
     <row r="793">
       <c r="A793" s="1"/>
@@ -24632,6 +25657,7 @@
       <c r="Z793" s="1"/>
       <c r="AA793" s="1"/>
       <c r="AB793" s="1"/>
+      <c r="AC793" s="1"/>
     </row>
     <row r="794">
       <c r="A794" s="1"/>
@@ -24662,6 +25688,7 @@
       <c r="Z794" s="1"/>
       <c r="AA794" s="1"/>
       <c r="AB794" s="1"/>
+      <c r="AC794" s="1"/>
     </row>
     <row r="795">
       <c r="A795" s="1"/>
@@ -24692,6 +25719,7 @@
       <c r="Z795" s="1"/>
       <c r="AA795" s="1"/>
       <c r="AB795" s="1"/>
+      <c r="AC795" s="1"/>
     </row>
     <row r="796">
       <c r="A796" s="1"/>
@@ -24722,6 +25750,7 @@
       <c r="Z796" s="1"/>
       <c r="AA796" s="1"/>
       <c r="AB796" s="1"/>
+      <c r="AC796" s="1"/>
     </row>
     <row r="797">
       <c r="A797" s="1"/>
@@ -24752,6 +25781,7 @@
       <c r="Z797" s="1"/>
       <c r="AA797" s="1"/>
       <c r="AB797" s="1"/>
+      <c r="AC797" s="1"/>
     </row>
     <row r="798">
       <c r="A798" s="1"/>
@@ -24782,6 +25812,7 @@
       <c r="Z798" s="1"/>
       <c r="AA798" s="1"/>
       <c r="AB798" s="1"/>
+      <c r="AC798" s="1"/>
     </row>
     <row r="799">
       <c r="A799" s="1"/>
@@ -24812,6 +25843,7 @@
       <c r="Z799" s="1"/>
       <c r="AA799" s="1"/>
       <c r="AB799" s="1"/>
+      <c r="AC799" s="1"/>
     </row>
     <row r="800">
       <c r="A800" s="1"/>
@@ -24842,6 +25874,7 @@
       <c r="Z800" s="1"/>
       <c r="AA800" s="1"/>
       <c r="AB800" s="1"/>
+      <c r="AC800" s="1"/>
     </row>
     <row r="801">
       <c r="A801" s="1"/>
@@ -24872,6 +25905,7 @@
       <c r="Z801" s="1"/>
       <c r="AA801" s="1"/>
       <c r="AB801" s="1"/>
+      <c r="AC801" s="1"/>
     </row>
     <row r="802">
       <c r="A802" s="1"/>
@@ -24902,6 +25936,7 @@
       <c r="Z802" s="1"/>
       <c r="AA802" s="1"/>
       <c r="AB802" s="1"/>
+      <c r="AC802" s="1"/>
     </row>
     <row r="803">
       <c r="A803" s="1"/>
@@ -24932,6 +25967,7 @@
       <c r="Z803" s="1"/>
       <c r="AA803" s="1"/>
       <c r="AB803" s="1"/>
+      <c r="AC803" s="1"/>
     </row>
     <row r="804">
       <c r="A804" s="1"/>
@@ -24962,6 +25998,7 @@
       <c r="Z804" s="1"/>
       <c r="AA804" s="1"/>
       <c r="AB804" s="1"/>
+      <c r="AC804" s="1"/>
     </row>
     <row r="805">
       <c r="A805" s="1"/>
@@ -24992,6 +26029,7 @@
       <c r="Z805" s="1"/>
       <c r="AA805" s="1"/>
       <c r="AB805" s="1"/>
+      <c r="AC805" s="1"/>
     </row>
     <row r="806">
       <c r="A806" s="1"/>
@@ -25022,6 +26060,7 @@
       <c r="Z806" s="1"/>
       <c r="AA806" s="1"/>
       <c r="AB806" s="1"/>
+      <c r="AC806" s="1"/>
     </row>
     <row r="807">
       <c r="A807" s="1"/>
@@ -25052,6 +26091,7 @@
       <c r="Z807" s="1"/>
       <c r="AA807" s="1"/>
       <c r="AB807" s="1"/>
+      <c r="AC807" s="1"/>
     </row>
     <row r="808">
       <c r="A808" s="1"/>
@@ -25082,6 +26122,7 @@
       <c r="Z808" s="1"/>
       <c r="AA808" s="1"/>
       <c r="AB808" s="1"/>
+      <c r="AC808" s="1"/>
     </row>
     <row r="809">
       <c r="A809" s="1"/>
@@ -25112,6 +26153,7 @@
       <c r="Z809" s="1"/>
       <c r="AA809" s="1"/>
       <c r="AB809" s="1"/>
+      <c r="AC809" s="1"/>
     </row>
     <row r="810">
       <c r="A810" s="1"/>
@@ -25142,6 +26184,7 @@
       <c r="Z810" s="1"/>
       <c r="AA810" s="1"/>
       <c r="AB810" s="1"/>
+      <c r="AC810" s="1"/>
     </row>
     <row r="811">
       <c r="A811" s="1"/>
@@ -25172,6 +26215,7 @@
       <c r="Z811" s="1"/>
       <c r="AA811" s="1"/>
       <c r="AB811" s="1"/>
+      <c r="AC811" s="1"/>
     </row>
     <row r="812">
       <c r="A812" s="1"/>
@@ -25202,6 +26246,7 @@
       <c r="Z812" s="1"/>
       <c r="AA812" s="1"/>
       <c r="AB812" s="1"/>
+      <c r="AC812" s="1"/>
     </row>
     <row r="813">
       <c r="A813" s="1"/>
@@ -25232,6 +26277,7 @@
       <c r="Z813" s="1"/>
       <c r="AA813" s="1"/>
       <c r="AB813" s="1"/>
+      <c r="AC813" s="1"/>
     </row>
     <row r="814">
       <c r="A814" s="1"/>
@@ -25262,6 +26308,7 @@
       <c r="Z814" s="1"/>
       <c r="AA814" s="1"/>
       <c r="AB814" s="1"/>
+      <c r="AC814" s="1"/>
     </row>
     <row r="815">
       <c r="A815" s="1"/>
@@ -25292,6 +26339,7 @@
       <c r="Z815" s="1"/>
       <c r="AA815" s="1"/>
       <c r="AB815" s="1"/>
+      <c r="AC815" s="1"/>
     </row>
     <row r="816">
       <c r="A816" s="1"/>
@@ -25322,6 +26370,7 @@
       <c r="Z816" s="1"/>
       <c r="AA816" s="1"/>
       <c r="AB816" s="1"/>
+      <c r="AC816" s="1"/>
     </row>
     <row r="817">
       <c r="A817" s="1"/>
@@ -25352,6 +26401,7 @@
       <c r="Z817" s="1"/>
       <c r="AA817" s="1"/>
       <c r="AB817" s="1"/>
+      <c r="AC817" s="1"/>
     </row>
     <row r="818">
       <c r="A818" s="1"/>
@@ -25382,6 +26432,7 @@
       <c r="Z818" s="1"/>
       <c r="AA818" s="1"/>
       <c r="AB818" s="1"/>
+      <c r="AC818" s="1"/>
     </row>
     <row r="819">
       <c r="A819" s="1"/>
@@ -25412,6 +26463,7 @@
       <c r="Z819" s="1"/>
       <c r="AA819" s="1"/>
       <c r="AB819" s="1"/>
+      <c r="AC819" s="1"/>
     </row>
     <row r="820">
       <c r="A820" s="1"/>
@@ -25442,6 +26494,7 @@
       <c r="Z820" s="1"/>
       <c r="AA820" s="1"/>
       <c r="AB820" s="1"/>
+      <c r="AC820" s="1"/>
     </row>
     <row r="821">
       <c r="A821" s="1"/>
@@ -25472,6 +26525,7 @@
       <c r="Z821" s="1"/>
       <c r="AA821" s="1"/>
       <c r="AB821" s="1"/>
+      <c r="AC821" s="1"/>
     </row>
     <row r="822">
       <c r="A822" s="1"/>
@@ -25502,6 +26556,7 @@
       <c r="Z822" s="1"/>
       <c r="AA822" s="1"/>
       <c r="AB822" s="1"/>
+      <c r="AC822" s="1"/>
     </row>
     <row r="823">
       <c r="A823" s="1"/>
@@ -25532,6 +26587,7 @@
       <c r="Z823" s="1"/>
       <c r="AA823" s="1"/>
       <c r="AB823" s="1"/>
+      <c r="AC823" s="1"/>
     </row>
     <row r="824">
       <c r="A824" s="1"/>
@@ -25562,6 +26618,7 @@
       <c r="Z824" s="1"/>
       <c r="AA824" s="1"/>
       <c r="AB824" s="1"/>
+      <c r="AC824" s="1"/>
     </row>
     <row r="825">
       <c r="A825" s="1"/>
@@ -25592,6 +26649,7 @@
       <c r="Z825" s="1"/>
       <c r="AA825" s="1"/>
       <c r="AB825" s="1"/>
+      <c r="AC825" s="1"/>
     </row>
     <row r="826">
       <c r="A826" s="1"/>
@@ -25622,6 +26680,7 @@
       <c r="Z826" s="1"/>
       <c r="AA826" s="1"/>
       <c r="AB826" s="1"/>
+      <c r="AC826" s="1"/>
     </row>
     <row r="827">
       <c r="A827" s="1"/>
@@ -25652,6 +26711,7 @@
       <c r="Z827" s="1"/>
       <c r="AA827" s="1"/>
       <c r="AB827" s="1"/>
+      <c r="AC827" s="1"/>
     </row>
     <row r="828">
       <c r="A828" s="1"/>
@@ -25682,6 +26742,7 @@
       <c r="Z828" s="1"/>
       <c r="AA828" s="1"/>
       <c r="AB828" s="1"/>
+      <c r="AC828" s="1"/>
     </row>
     <row r="829">
       <c r="A829" s="1"/>
@@ -25712,6 +26773,7 @@
       <c r="Z829" s="1"/>
       <c r="AA829" s="1"/>
       <c r="AB829" s="1"/>
+      <c r="AC829" s="1"/>
     </row>
     <row r="830">
       <c r="A830" s="1"/>
@@ -25742,6 +26804,7 @@
       <c r="Z830" s="1"/>
       <c r="AA830" s="1"/>
       <c r="AB830" s="1"/>
+      <c r="AC830" s="1"/>
     </row>
     <row r="831">
       <c r="A831" s="1"/>
@@ -25772,6 +26835,7 @@
       <c r="Z831" s="1"/>
       <c r="AA831" s="1"/>
       <c r="AB831" s="1"/>
+      <c r="AC831" s="1"/>
     </row>
     <row r="832">
       <c r="A832" s="1"/>
@@ -25802,6 +26866,7 @@
       <c r="Z832" s="1"/>
       <c r="AA832" s="1"/>
       <c r="AB832" s="1"/>
+      <c r="AC832" s="1"/>
     </row>
     <row r="833">
       <c r="A833" s="1"/>
@@ -25832,6 +26897,7 @@
       <c r="Z833" s="1"/>
       <c r="AA833" s="1"/>
       <c r="AB833" s="1"/>
+      <c r="AC833" s="1"/>
     </row>
     <row r="834">
       <c r="A834" s="1"/>
@@ -25862,6 +26928,7 @@
       <c r="Z834" s="1"/>
       <c r="AA834" s="1"/>
       <c r="AB834" s="1"/>
+      <c r="AC834" s="1"/>
     </row>
     <row r="835">
       <c r="A835" s="1"/>
@@ -25892,6 +26959,7 @@
       <c r="Z835" s="1"/>
       <c r="AA835" s="1"/>
       <c r="AB835" s="1"/>
+      <c r="AC835" s="1"/>
     </row>
     <row r="836">
       <c r="A836" s="1"/>
@@ -25922,6 +26990,7 @@
       <c r="Z836" s="1"/>
       <c r="AA836" s="1"/>
       <c r="AB836" s="1"/>
+      <c r="AC836" s="1"/>
     </row>
     <row r="837">
       <c r="A837" s="1"/>
@@ -25952,6 +27021,7 @@
       <c r="Z837" s="1"/>
       <c r="AA837" s="1"/>
       <c r="AB837" s="1"/>
+      <c r="AC837" s="1"/>
     </row>
     <row r="838">
       <c r="A838" s="1"/>
@@ -25982,6 +27052,7 @@
       <c r="Z838" s="1"/>
       <c r="AA838" s="1"/>
       <c r="AB838" s="1"/>
+      <c r="AC838" s="1"/>
     </row>
     <row r="839">
       <c r="A839" s="1"/>
@@ -26012,6 +27083,7 @@
       <c r="Z839" s="1"/>
       <c r="AA839" s="1"/>
       <c r="AB839" s="1"/>
+      <c r="AC839" s="1"/>
     </row>
     <row r="840">
       <c r="A840" s="1"/>
@@ -26042,6 +27114,7 @@
       <c r="Z840" s="1"/>
       <c r="AA840" s="1"/>
       <c r="AB840" s="1"/>
+      <c r="AC840" s="1"/>
     </row>
     <row r="841">
       <c r="A841" s="1"/>
@@ -26072,6 +27145,7 @@
       <c r="Z841" s="1"/>
       <c r="AA841" s="1"/>
       <c r="AB841" s="1"/>
+      <c r="AC841" s="1"/>
     </row>
     <row r="842">
       <c r="A842" s="1"/>
@@ -26102,6 +27176,7 @@
       <c r="Z842" s="1"/>
       <c r="AA842" s="1"/>
       <c r="AB842" s="1"/>
+      <c r="AC842" s="1"/>
     </row>
     <row r="843">
       <c r="A843" s="1"/>
@@ -26132,6 +27207,7 @@
       <c r="Z843" s="1"/>
       <c r="AA843" s="1"/>
       <c r="AB843" s="1"/>
+      <c r="AC843" s="1"/>
     </row>
     <row r="844">
       <c r="A844" s="1"/>
@@ -26162,6 +27238,7 @@
       <c r="Z844" s="1"/>
       <c r="AA844" s="1"/>
       <c r="AB844" s="1"/>
+      <c r="AC844" s="1"/>
     </row>
     <row r="845">
       <c r="A845" s="1"/>
@@ -26192,6 +27269,7 @@
       <c r="Z845" s="1"/>
       <c r="AA845" s="1"/>
       <c r="AB845" s="1"/>
+      <c r="AC845" s="1"/>
     </row>
     <row r="846">
       <c r="A846" s="1"/>
@@ -26222,6 +27300,7 @@
       <c r="Z846" s="1"/>
       <c r="AA846" s="1"/>
       <c r="AB846" s="1"/>
+      <c r="AC846" s="1"/>
     </row>
     <row r="847">
       <c r="A847" s="1"/>
@@ -26252,6 +27331,7 @@
       <c r="Z847" s="1"/>
       <c r="AA847" s="1"/>
       <c r="AB847" s="1"/>
+      <c r="AC847" s="1"/>
     </row>
     <row r="848">
       <c r="A848" s="1"/>
@@ -26282,6 +27362,7 @@
       <c r="Z848" s="1"/>
       <c r="AA848" s="1"/>
       <c r="AB848" s="1"/>
+      <c r="AC848" s="1"/>
     </row>
     <row r="849">
       <c r="A849" s="1"/>
@@ -26312,6 +27393,7 @@
       <c r="Z849" s="1"/>
       <c r="AA849" s="1"/>
       <c r="AB849" s="1"/>
+      <c r="AC849" s="1"/>
     </row>
     <row r="850">
       <c r="A850" s="1"/>
@@ -26342,6 +27424,7 @@
       <c r="Z850" s="1"/>
       <c r="AA850" s="1"/>
       <c r="AB850" s="1"/>
+      <c r="AC850" s="1"/>
     </row>
     <row r="851">
       <c r="A851" s="1"/>
@@ -26372,6 +27455,7 @@
       <c r="Z851" s="1"/>
       <c r="AA851" s="1"/>
       <c r="AB851" s="1"/>
+      <c r="AC851" s="1"/>
     </row>
     <row r="852">
       <c r="A852" s="1"/>
@@ -26402,6 +27486,7 @@
       <c r="Z852" s="1"/>
       <c r="AA852" s="1"/>
       <c r="AB852" s="1"/>
+      <c r="AC852" s="1"/>
     </row>
     <row r="853">
       <c r="A853" s="1"/>
@@ -26432,6 +27517,7 @@
       <c r="Z853" s="1"/>
       <c r="AA853" s="1"/>
       <c r="AB853" s="1"/>
+      <c r="AC853" s="1"/>
     </row>
     <row r="854">
       <c r="A854" s="1"/>
@@ -26462,6 +27548,7 @@
       <c r="Z854" s="1"/>
       <c r="AA854" s="1"/>
       <c r="AB854" s="1"/>
+      <c r="AC854" s="1"/>
     </row>
     <row r="855">
       <c r="A855" s="1"/>
@@ -26492,6 +27579,7 @@
       <c r="Z855" s="1"/>
       <c r="AA855" s="1"/>
       <c r="AB855" s="1"/>
+      <c r="AC855" s="1"/>
     </row>
     <row r="856">
       <c r="A856" s="1"/>
@@ -26522,6 +27610,7 @@
       <c r="Z856" s="1"/>
       <c r="AA856" s="1"/>
       <c r="AB856" s="1"/>
+      <c r="AC856" s="1"/>
     </row>
     <row r="857">
       <c r="A857" s="1"/>
@@ -26552,6 +27641,7 @@
       <c r="Z857" s="1"/>
       <c r="AA857" s="1"/>
       <c r="AB857" s="1"/>
+      <c r="AC857" s="1"/>
     </row>
     <row r="858">
       <c r="A858" s="1"/>
@@ -26582,6 +27672,7 @@
       <c r="Z858" s="1"/>
       <c r="AA858" s="1"/>
       <c r="AB858" s="1"/>
+      <c r="AC858" s="1"/>
     </row>
     <row r="859">
       <c r="A859" s="1"/>
@@ -26612,6 +27703,7 @@
       <c r="Z859" s="1"/>
       <c r="AA859" s="1"/>
       <c r="AB859" s="1"/>
+      <c r="AC859" s="1"/>
     </row>
     <row r="860">
       <c r="A860" s="1"/>
@@ -26642,6 +27734,7 @@
       <c r="Z860" s="1"/>
       <c r="AA860" s="1"/>
       <c r="AB860" s="1"/>
+      <c r="AC860" s="1"/>
     </row>
     <row r="861">
       <c r="A861" s="1"/>
@@ -26672,6 +27765,7 @@
       <c r="Z861" s="1"/>
       <c r="AA861" s="1"/>
       <c r="AB861" s="1"/>
+      <c r="AC861" s="1"/>
     </row>
     <row r="862">
       <c r="A862" s="1"/>
@@ -26702,6 +27796,7 @@
       <c r="Z862" s="1"/>
       <c r="AA862" s="1"/>
       <c r="AB862" s="1"/>
+      <c r="AC862" s="1"/>
     </row>
     <row r="863">
       <c r="A863" s="1"/>
@@ -26732,6 +27827,7 @@
       <c r="Z863" s="1"/>
       <c r="AA863" s="1"/>
       <c r="AB863" s="1"/>
+      <c r="AC863" s="1"/>
     </row>
     <row r="864">
       <c r="A864" s="1"/>
@@ -26762,6 +27858,7 @@
       <c r="Z864" s="1"/>
       <c r="AA864" s="1"/>
       <c r="AB864" s="1"/>
+      <c r="AC864" s="1"/>
     </row>
     <row r="865">
       <c r="A865" s="1"/>
@@ -26792,6 +27889,7 @@
       <c r="Z865" s="1"/>
       <c r="AA865" s="1"/>
       <c r="AB865" s="1"/>
+      <c r="AC865" s="1"/>
     </row>
     <row r="866">
       <c r="A866" s="1"/>
@@ -26822,6 +27920,7 @@
       <c r="Z866" s="1"/>
       <c r="AA866" s="1"/>
       <c r="AB866" s="1"/>
+      <c r="AC866" s="1"/>
     </row>
     <row r="867">
       <c r="A867" s="1"/>
@@ -26852,6 +27951,7 @@
       <c r="Z867" s="1"/>
       <c r="AA867" s="1"/>
       <c r="AB867" s="1"/>
+      <c r="AC867" s="1"/>
     </row>
     <row r="868">
       <c r="A868" s="1"/>
@@ -26882,6 +27982,7 @@
       <c r="Z868" s="1"/>
       <c r="AA868" s="1"/>
       <c r="AB868" s="1"/>
+      <c r="AC868" s="1"/>
     </row>
     <row r="869">
       <c r="A869" s="1"/>
@@ -26912,6 +28013,7 @@
       <c r="Z869" s="1"/>
       <c r="AA869" s="1"/>
       <c r="AB869" s="1"/>
+      <c r="AC869" s="1"/>
     </row>
     <row r="870">
       <c r="A870" s="1"/>
@@ -26942,6 +28044,7 @@
       <c r="Z870" s="1"/>
       <c r="AA870" s="1"/>
       <c r="AB870" s="1"/>
+      <c r="AC870" s="1"/>
     </row>
     <row r="871">
       <c r="A871" s="1"/>
@@ -26972,6 +28075,7 @@
       <c r="Z871" s="1"/>
       <c r="AA871" s="1"/>
       <c r="AB871" s="1"/>
+      <c r="AC871" s="1"/>
     </row>
     <row r="872">
       <c r="A872" s="1"/>
@@ -27002,6 +28106,7 @@
       <c r="Z872" s="1"/>
       <c r="AA872" s="1"/>
       <c r="AB872" s="1"/>
+      <c r="AC872" s="1"/>
     </row>
     <row r="873">
       <c r="A873" s="1"/>
@@ -27032,6 +28137,7 @@
       <c r="Z873" s="1"/>
       <c r="AA873" s="1"/>
       <c r="AB873" s="1"/>
+      <c r="AC873" s="1"/>
     </row>
     <row r="874">
       <c r="A874" s="1"/>
@@ -27062,6 +28168,7 @@
       <c r="Z874" s="1"/>
       <c r="AA874" s="1"/>
       <c r="AB874" s="1"/>
+      <c r="AC874" s="1"/>
     </row>
     <row r="875">
       <c r="A875" s="1"/>
@@ -27092,6 +28199,7 @@
       <c r="Z875" s="1"/>
       <c r="AA875" s="1"/>
       <c r="AB875" s="1"/>
+      <c r="AC875" s="1"/>
     </row>
     <row r="876">
       <c r="A876" s="1"/>
@@ -27122,6 +28230,7 @@
       <c r="Z876" s="1"/>
       <c r="AA876" s="1"/>
       <c r="AB876" s="1"/>
+      <c r="AC876" s="1"/>
     </row>
     <row r="877">
       <c r="A877" s="1"/>
@@ -27152,6 +28261,7 @@
       <c r="Z877" s="1"/>
       <c r="AA877" s="1"/>
       <c r="AB877" s="1"/>
+      <c r="AC877" s="1"/>
     </row>
     <row r="878">
       <c r="A878" s="1"/>
@@ -27182,6 +28292,7 @@
       <c r="Z878" s="1"/>
       <c r="AA878" s="1"/>
       <c r="AB878" s="1"/>
+      <c r="AC878" s="1"/>
     </row>
     <row r="879">
       <c r="A879" s="1"/>
@@ -27212,6 +28323,7 @@
       <c r="Z879" s="1"/>
       <c r="AA879" s="1"/>
       <c r="AB879" s="1"/>
+      <c r="AC879" s="1"/>
     </row>
     <row r="880">
       <c r="A880" s="1"/>
@@ -27242,6 +28354,7 @@
       <c r="Z880" s="1"/>
       <c r="AA880" s="1"/>
       <c r="AB880" s="1"/>
+      <c r="AC880" s="1"/>
     </row>
     <row r="881">
       <c r="A881" s="1"/>
@@ -27272,6 +28385,7 @@
       <c r="Z881" s="1"/>
       <c r="AA881" s="1"/>
       <c r="AB881" s="1"/>
+      <c r="AC881" s="1"/>
     </row>
     <row r="882">
       <c r="A882" s="1"/>
@@ -27302,6 +28416,7 @@
       <c r="Z882" s="1"/>
       <c r="AA882" s="1"/>
       <c r="AB882" s="1"/>
+      <c r="AC882" s="1"/>
     </row>
     <row r="883">
       <c r="A883" s="1"/>
@@ -27332,6 +28447,7 @@
       <c r="Z883" s="1"/>
       <c r="AA883" s="1"/>
       <c r="AB883" s="1"/>
+      <c r="AC883" s="1"/>
     </row>
     <row r="884">
       <c r="A884" s="1"/>
@@ -27362,6 +28478,7 @@
       <c r="Z884" s="1"/>
       <c r="AA884" s="1"/>
       <c r="AB884" s="1"/>
+      <c r="AC884" s="1"/>
     </row>
     <row r="885">
       <c r="A885" s="1"/>
@@ -27392,6 +28509,7 @@
       <c r="Z885" s="1"/>
       <c r="AA885" s="1"/>
       <c r="AB885" s="1"/>
+      <c r="AC885" s="1"/>
     </row>
     <row r="886">
       <c r="A886" s="1"/>
@@ -27422,6 +28540,7 @@
       <c r="Z886" s="1"/>
       <c r="AA886" s="1"/>
       <c r="AB886" s="1"/>
+      <c r="AC886" s="1"/>
     </row>
     <row r="887">
       <c r="A887" s="1"/>
@@ -27452,6 +28571,7 @@
       <c r="Z887" s="1"/>
       <c r="AA887" s="1"/>
       <c r="AB887" s="1"/>
+      <c r="AC887" s="1"/>
     </row>
     <row r="888">
       <c r="A888" s="1"/>
@@ -27482,6 +28602,7 @@
       <c r="Z888" s="1"/>
       <c r="AA888" s="1"/>
       <c r="AB888" s="1"/>
+      <c r="AC888" s="1"/>
     </row>
     <row r="889">
       <c r="A889" s="1"/>
@@ -27512,6 +28633,7 @@
       <c r="Z889" s="1"/>
       <c r="AA889" s="1"/>
       <c r="AB889" s="1"/>
+      <c r="AC889" s="1"/>
     </row>
     <row r="890">
       <c r="A890" s="1"/>
@@ -27542,6 +28664,7 @@
       <c r="Z890" s="1"/>
       <c r="AA890" s="1"/>
       <c r="AB890" s="1"/>
+      <c r="AC890" s="1"/>
     </row>
     <row r="891">
       <c r="A891" s="1"/>
@@ -27572,6 +28695,7 @@
       <c r="Z891" s="1"/>
       <c r="AA891" s="1"/>
       <c r="AB891" s="1"/>
+      <c r="AC891" s="1"/>
     </row>
     <row r="892">
       <c r="A892" s="1"/>
@@ -27602,6 +28726,7 @@
       <c r="Z892" s="1"/>
       <c r="AA892" s="1"/>
       <c r="AB892" s="1"/>
+      <c r="AC892" s="1"/>
     </row>
     <row r="893">
       <c r="A893" s="1"/>
@@ -27632,6 +28757,7 @@
       <c r="Z893" s="1"/>
       <c r="AA893" s="1"/>
       <c r="AB893" s="1"/>
+      <c r="AC893" s="1"/>
     </row>
     <row r="894">
       <c r="A894" s="1"/>
@@ -27662,6 +28788,7 @@
       <c r="Z894" s="1"/>
       <c r="AA894" s="1"/>
       <c r="AB894" s="1"/>
+      <c r="AC894" s="1"/>
     </row>
     <row r="895">
       <c r="A895" s="1"/>
@@ -27692,6 +28819,7 @@
       <c r="Z895" s="1"/>
       <c r="AA895" s="1"/>
       <c r="AB895" s="1"/>
+      <c r="AC895" s="1"/>
     </row>
     <row r="896">
       <c r="A896" s="1"/>
@@ -27722,6 +28850,7 @@
       <c r="Z896" s="1"/>
       <c r="AA896" s="1"/>
       <c r="AB896" s="1"/>
+      <c r="AC896" s="1"/>
     </row>
     <row r="897">
       <c r="A897" s="1"/>
@@ -27752,6 +28881,7 @@
       <c r="Z897" s="1"/>
       <c r="AA897" s="1"/>
       <c r="AB897" s="1"/>
+      <c r="AC897" s="1"/>
     </row>
     <row r="898">
       <c r="A898" s="1"/>
@@ -27782,6 +28912,7 @@
       <c r="Z898" s="1"/>
       <c r="AA898" s="1"/>
       <c r="AB898" s="1"/>
+      <c r="AC898" s="1"/>
     </row>
     <row r="899">
       <c r="A899" s="1"/>
@@ -27812,6 +28943,7 @@
       <c r="Z899" s="1"/>
       <c r="AA899" s="1"/>
       <c r="AB899" s="1"/>
+      <c r="AC899" s="1"/>
     </row>
     <row r="900">
       <c r="A900" s="1"/>
@@ -27842,6 +28974,7 @@
       <c r="Z900" s="1"/>
       <c r="AA900" s="1"/>
       <c r="AB900" s="1"/>
+      <c r="AC900" s="1"/>
     </row>
     <row r="901">
       <c r="A901" s="1"/>
@@ -27872,6 +29005,7 @@
       <c r="Z901" s="1"/>
       <c r="AA901" s="1"/>
       <c r="AB901" s="1"/>
+      <c r="AC901" s="1"/>
     </row>
     <row r="902">
       <c r="A902" s="1"/>
@@ -27902,6 +29036,7 @@
       <c r="Z902" s="1"/>
       <c r="AA902" s="1"/>
       <c r="AB902" s="1"/>
+      <c r="AC902" s="1"/>
     </row>
     <row r="903">
       <c r="A903" s="1"/>
@@ -27932,6 +29067,7 @@
       <c r="Z903" s="1"/>
       <c r="AA903" s="1"/>
       <c r="AB903" s="1"/>
+      <c r="AC903" s="1"/>
     </row>
     <row r="904">
       <c r="A904" s="1"/>
@@ -27962,6 +29098,7 @@
       <c r="Z904" s="1"/>
       <c r="AA904" s="1"/>
       <c r="AB904" s="1"/>
+      <c r="AC904" s="1"/>
     </row>
     <row r="905">
       <c r="A905" s="1"/>
@@ -27992,6 +29129,7 @@
       <c r="Z905" s="1"/>
       <c r="AA905" s="1"/>
       <c r="AB905" s="1"/>
+      <c r="AC905" s="1"/>
     </row>
     <row r="906">
       <c r="A906" s="1"/>
@@ -28022,6 +29160,7 @@
       <c r="Z906" s="1"/>
       <c r="AA906" s="1"/>
       <c r="AB906" s="1"/>
+      <c r="AC906" s="1"/>
     </row>
     <row r="907">
       <c r="A907" s="1"/>
@@ -28052,6 +29191,7 @@
       <c r="Z907" s="1"/>
       <c r="AA907" s="1"/>
       <c r="AB907" s="1"/>
+      <c r="AC907" s="1"/>
     </row>
     <row r="908">
       <c r="A908" s="1"/>
@@ -28082,6 +29222,7 @@
       <c r="Z908" s="1"/>
       <c r="AA908" s="1"/>
       <c r="AB908" s="1"/>
+      <c r="AC908" s="1"/>
     </row>
     <row r="909">
       <c r="A909" s="1"/>
@@ -28112,6 +29253,7 @@
       <c r="Z909" s="1"/>
       <c r="AA909" s="1"/>
       <c r="AB909" s="1"/>
+      <c r="AC909" s="1"/>
     </row>
     <row r="910">
       <c r="A910" s="1"/>
@@ -28142,6 +29284,7 @@
       <c r="Z910" s="1"/>
       <c r="AA910" s="1"/>
       <c r="AB910" s="1"/>
+      <c r="AC910" s="1"/>
     </row>
     <row r="911">
       <c r="A911" s="1"/>
@@ -28172,6 +29315,7 @@
       <c r="Z911" s="1"/>
       <c r="AA911" s="1"/>
       <c r="AB911" s="1"/>
+      <c r="AC911" s="1"/>
     </row>
     <row r="912">
       <c r="A912" s="1"/>
@@ -28202,6 +29346,7 @@
       <c r="Z912" s="1"/>
       <c r="AA912" s="1"/>
       <c r="AB912" s="1"/>
+      <c r="AC912" s="1"/>
     </row>
     <row r="913">
       <c r="A913" s="1"/>
@@ -28232,6 +29377,7 @@
       <c r="Z913" s="1"/>
       <c r="AA913" s="1"/>
       <c r="AB913" s="1"/>
+      <c r="AC913" s="1"/>
     </row>
     <row r="914">
       <c r="A914" s="1"/>
@@ -28262,6 +29408,7 @@
       <c r="Z914" s="1"/>
       <c r="AA914" s="1"/>
       <c r="AB914" s="1"/>
+      <c r="AC914" s="1"/>
     </row>
     <row r="915">
       <c r="A915" s="1"/>
@@ -28292,6 +29439,7 @@
       <c r="Z915" s="1"/>
       <c r="AA915" s="1"/>
       <c r="AB915" s="1"/>
+      <c r="AC915" s="1"/>
     </row>
     <row r="916">
       <c r="A916" s="1"/>
@@ -28322,6 +29470,7 @@
       <c r="Z916" s="1"/>
       <c r="AA916" s="1"/>
       <c r="AB916" s="1"/>
+      <c r="AC916" s="1"/>
     </row>
     <row r="917">
       <c r="A917" s="1"/>
@@ -28352,6 +29501,7 @@
       <c r="Z917" s="1"/>
       <c r="AA917" s="1"/>
       <c r="AB917" s="1"/>
+      <c r="AC917" s="1"/>
     </row>
     <row r="918">
       <c r="A918" s="1"/>
@@ -28382,6 +29532,7 @@
       <c r="Z918" s="1"/>
       <c r="AA918" s="1"/>
       <c r="AB918" s="1"/>
+      <c r="AC918" s="1"/>
     </row>
     <row r="919">
       <c r="A919" s="1"/>
@@ -28412,6 +29563,7 @@
       <c r="Z919" s="1"/>
       <c r="AA919" s="1"/>
       <c r="AB919" s="1"/>
+      <c r="AC919" s="1"/>
     </row>
     <row r="920">
       <c r="A920" s="1"/>
@@ -28442,6 +29594,7 @@
       <c r="Z920" s="1"/>
       <c r="AA920" s="1"/>
       <c r="AB920" s="1"/>
+      <c r="AC920" s="1"/>
     </row>
     <row r="921">
       <c r="A921" s="1"/>
@@ -28472,6 +29625,7 @@
       <c r="Z921" s="1"/>
       <c r="AA921" s="1"/>
       <c r="AB921" s="1"/>
+      <c r="AC921" s="1"/>
     </row>
     <row r="922">
       <c r="A922" s="1"/>
@@ -28502,6 +29656,7 @@
       <c r="Z922" s="1"/>
       <c r="AA922" s="1"/>
       <c r="AB922" s="1"/>
+      <c r="AC922" s="1"/>
     </row>
     <row r="923">
       <c r="A923" s="1"/>
@@ -28532,6 +29687,7 @@
       <c r="Z923" s="1"/>
       <c r="AA923" s="1"/>
       <c r="AB923" s="1"/>
+      <c r="AC923" s="1"/>
     </row>
     <row r="924">
       <c r="A924" s="1"/>
@@ -28562,6 +29718,7 @@
       <c r="Z924" s="1"/>
       <c r="AA924" s="1"/>
       <c r="AB924" s="1"/>
+      <c r="AC924" s="1"/>
     </row>
     <row r="925">
       <c r="A925" s="1"/>
@@ -28592,6 +29749,7 @@
       <c r="Z925" s="1"/>
       <c r="AA925" s="1"/>
       <c r="AB925" s="1"/>
+      <c r="AC925" s="1"/>
     </row>
     <row r="926">
       <c r="A926" s="1"/>
@@ -28622,6 +29780,7 @@
       <c r="Z926" s="1"/>
       <c r="AA926" s="1"/>
       <c r="AB926" s="1"/>
+      <c r="AC926" s="1"/>
     </row>
     <row r="927">
       <c r="A927" s="1"/>
@@ -28652,6 +29811,7 @@
       <c r="Z927" s="1"/>
       <c r="AA927" s="1"/>
       <c r="AB927" s="1"/>
+      <c r="AC927" s="1"/>
     </row>
     <row r="928">
       <c r="A928" s="1"/>
@@ -28682,6 +29842,7 @@
       <c r="Z928" s="1"/>
       <c r="AA928" s="1"/>
       <c r="AB928" s="1"/>
+      <c r="AC928" s="1"/>
     </row>
     <row r="929">
       <c r="A929" s="1"/>
@@ -28712,6 +29873,7 @@
       <c r="Z929" s="1"/>
       <c r="AA929" s="1"/>
       <c r="AB929" s="1"/>
+      <c r="AC929" s="1"/>
     </row>
     <row r="930">
       <c r="A930" s="1"/>
@@ -28742,6 +29904,7 @@
       <c r="Z930" s="1"/>
       <c r="AA930" s="1"/>
       <c r="AB930" s="1"/>
+      <c r="AC930" s="1"/>
     </row>
     <row r="931">
       <c r="A931" s="1"/>
@@ -28772,6 +29935,7 @@
       <c r="Z931" s="1"/>
       <c r="AA931" s="1"/>
       <c r="AB931" s="1"/>
+      <c r="AC931" s="1"/>
     </row>
     <row r="932">
       <c r="A932" s="1"/>
@@ -28802,6 +29966,7 @@
       <c r="Z932" s="1"/>
       <c r="AA932" s="1"/>
       <c r="AB932" s="1"/>
+      <c r="AC932" s="1"/>
     </row>
     <row r="933">
       <c r="A933" s="1"/>
@@ -28832,6 +29997,7 @@
       <c r="Z933" s="1"/>
       <c r="AA933" s="1"/>
       <c r="AB933" s="1"/>
+      <c r="AC933" s="1"/>
     </row>
     <row r="934">
       <c r="A934" s="1"/>
@@ -28862,6 +30028,7 @@
       <c r="Z934" s="1"/>
       <c r="AA934" s="1"/>
       <c r="AB934" s="1"/>
+      <c r="AC934" s="1"/>
     </row>
     <row r="935">
       <c r="A935" s="1"/>
@@ -28892,6 +30059,7 @@
       <c r="Z935" s="1"/>
       <c r="AA935" s="1"/>
       <c r="AB935" s="1"/>
+      <c r="AC935" s="1"/>
     </row>
     <row r="936">
       <c r="A936" s="1"/>
@@ -28922,6 +30090,7 @@
       <c r="Z936" s="1"/>
       <c r="AA936" s="1"/>
       <c r="AB936" s="1"/>
+      <c r="AC936" s="1"/>
     </row>
     <row r="937">
       <c r="A937" s="1"/>
@@ -28952,6 +30121,7 @@
       <c r="Z937" s="1"/>
       <c r="AA937" s="1"/>
       <c r="AB937" s="1"/>
+      <c r="AC937" s="1"/>
     </row>
     <row r="938">
       <c r="A938" s="1"/>
@@ -28982,6 +30152,7 @@
       <c r="Z938" s="1"/>
       <c r="AA938" s="1"/>
       <c r="AB938" s="1"/>
+      <c r="AC938" s="1"/>
     </row>
     <row r="939">
       <c r="A939" s="1"/>
@@ -29012,6 +30183,7 @@
       <c r="Z939" s="1"/>
       <c r="AA939" s="1"/>
       <c r="AB939" s="1"/>
+      <c r="AC939" s="1"/>
     </row>
     <row r="940">
       <c r="A940" s="1"/>
@@ -29042,6 +30214,7 @@
       <c r="Z940" s="1"/>
       <c r="AA940" s="1"/>
       <c r="AB940" s="1"/>
+      <c r="AC940" s="1"/>
     </row>
     <row r="941">
       <c r="A941" s="1"/>
@@ -29072,6 +30245,7 @@
       <c r="Z941" s="1"/>
       <c r="AA941" s="1"/>
       <c r="AB941" s="1"/>
+      <c r="AC941" s="1"/>
     </row>
     <row r="942">
       <c r="A942" s="1"/>
@@ -29102,6 +30276,7 @@
       <c r="Z942" s="1"/>
       <c r="AA942" s="1"/>
       <c r="AB942" s="1"/>
+      <c r="AC942" s="1"/>
     </row>
     <row r="943">
       <c r="A943" s="1"/>
@@ -29132,6 +30307,7 @@
       <c r="Z943" s="1"/>
       <c r="AA943" s="1"/>
       <c r="AB943" s="1"/>
+      <c r="AC943" s="1"/>
     </row>
     <row r="944">
       <c r="A944" s="1"/>
@@ -29162,6 +30338,7 @@
       <c r="Z944" s="1"/>
       <c r="AA944" s="1"/>
       <c r="AB944" s="1"/>
+      <c r="AC944" s="1"/>
     </row>
     <row r="945">
       <c r="A945" s="1"/>
@@ -29192,6 +30369,7 @@
       <c r="Z945" s="1"/>
       <c r="AA945" s="1"/>
       <c r="AB945" s="1"/>
+      <c r="AC945" s="1"/>
     </row>
     <row r="946">
       <c r="A946" s="1"/>
@@ -29222,6 +30400,7 @@
       <c r="Z946" s="1"/>
       <c r="AA946" s="1"/>
       <c r="AB946" s="1"/>
+      <c r="AC946" s="1"/>
     </row>
     <row r="947">
       <c r="A947" s="1"/>
@@ -29252,6 +30431,7 @@
       <c r="Z947" s="1"/>
       <c r="AA947" s="1"/>
       <c r="AB947" s="1"/>
+      <c r="AC947" s="1"/>
     </row>
     <row r="948">
       <c r="A948" s="1"/>
@@ -29282,6 +30462,7 @@
       <c r="Z948" s="1"/>
       <c r="AA948" s="1"/>
       <c r="AB948" s="1"/>
+      <c r="AC948" s="1"/>
     </row>
     <row r="949">
       <c r="A949" s="1"/>
@@ -29312,6 +30493,7 @@
       <c r="Z949" s="1"/>
       <c r="AA949" s="1"/>
       <c r="AB949" s="1"/>
+      <c r="AC949" s="1"/>
     </row>
     <row r="950">
       <c r="A950" s="1"/>
@@ -29342,6 +30524,7 @@
       <c r="Z950" s="1"/>
       <c r="AA950" s="1"/>
       <c r="AB950" s="1"/>
+      <c r="AC950" s="1"/>
     </row>
     <row r="951">
       <c r="A951" s="1"/>
@@ -29372,6 +30555,7 @@
       <c r="Z951" s="1"/>
       <c r="AA951" s="1"/>
       <c r="AB951" s="1"/>
+      <c r="AC951" s="1"/>
     </row>
     <row r="952">
       <c r="A952" s="1"/>
@@ -29402,6 +30586,7 @@
       <c r="Z952" s="1"/>
       <c r="AA952" s="1"/>
       <c r="AB952" s="1"/>
+      <c r="AC952" s="1"/>
     </row>
     <row r="953">
       <c r="A953" s="1"/>
@@ -29432,6 +30617,7 @@
       <c r="Z953" s="1"/>
       <c r="AA953" s="1"/>
       <c r="AB953" s="1"/>
+      <c r="AC953" s="1"/>
     </row>
     <row r="954">
       <c r="A954" s="1"/>
@@ -29462,6 +30648,7 @@
       <c r="Z954" s="1"/>
       <c r="AA954" s="1"/>
       <c r="AB954" s="1"/>
+      <c r="AC954" s="1"/>
     </row>
     <row r="955">
       <c r="A955" s="1"/>
@@ -29492,6 +30679,7 @@
       <c r="Z955" s="1"/>
       <c r="AA955" s="1"/>
       <c r="AB955" s="1"/>
+      <c r="AC955" s="1"/>
     </row>
     <row r="956">
       <c r="A956" s="1"/>
@@ -29522,6 +30710,7 @@
       <c r="Z956" s="1"/>
       <c r="AA956" s="1"/>
       <c r="AB956" s="1"/>
+      <c r="AC956" s="1"/>
     </row>
     <row r="957">
       <c r="A957" s="1"/>
@@ -29552,6 +30741,7 @@
       <c r="Z957" s="1"/>
       <c r="AA957" s="1"/>
       <c r="AB957" s="1"/>
+      <c r="AC957" s="1"/>
     </row>
     <row r="958">
       <c r="A958" s="1"/>
@@ -29582,6 +30772,7 @@
       <c r="Z958" s="1"/>
       <c r="AA958" s="1"/>
       <c r="AB958" s="1"/>
+      <c r="AC958" s="1"/>
     </row>
     <row r="959">
       <c r="A959" s="1"/>
@@ -29612,6 +30803,7 @@
       <c r="Z959" s="1"/>
       <c r="AA959" s="1"/>
       <c r="AB959" s="1"/>
+      <c r="AC959" s="1"/>
     </row>
     <row r="960">
       <c r="A960" s="1"/>
@@ -29642,6 +30834,7 @@
       <c r="Z960" s="1"/>
       <c r="AA960" s="1"/>
       <c r="AB960" s="1"/>
+      <c r="AC960" s="1"/>
     </row>
     <row r="961">
       <c r="A961" s="1"/>
@@ -29672,6 +30865,7 @@
       <c r="Z961" s="1"/>
       <c r="AA961" s="1"/>
       <c r="AB961" s="1"/>
+      <c r="AC961" s="1"/>
     </row>
     <row r="962">
       <c r="A962" s="1"/>
@@ -29702,6 +30896,7 @@
       <c r="Z962" s="1"/>
       <c r="AA962" s="1"/>
       <c r="AB962" s="1"/>
+      <c r="AC962" s="1"/>
     </row>
     <row r="963">
       <c r="A963" s="1"/>
@@ -29732,6 +30927,7 @@
       <c r="Z963" s="1"/>
       <c r="AA963" s="1"/>
       <c r="AB963" s="1"/>
+      <c r="AC963" s="1"/>
     </row>
     <row r="964">
       <c r="A964" s="1"/>
@@ -29762,6 +30958,7 @@
       <c r="Z964" s="1"/>
       <c r="AA964" s="1"/>
       <c r="AB964" s="1"/>
+      <c r="AC964" s="1"/>
     </row>
     <row r="965">
       <c r="A965" s="1"/>
@@ -29792,6 +30989,7 @@
       <c r="Z965" s="1"/>
       <c r="AA965" s="1"/>
       <c r="AB965" s="1"/>
+      <c r="AC965" s="1"/>
     </row>
     <row r="966">
       <c r="A966" s="1"/>
@@ -29822,6 +31020,7 @@
       <c r="Z966" s="1"/>
       <c r="AA966" s="1"/>
       <c r="AB966" s="1"/>
+      <c r="AC966" s="1"/>
     </row>
     <row r="967">
       <c r="A967" s="1"/>
@@ -29852,6 +31051,7 @@
       <c r="Z967" s="1"/>
       <c r="AA967" s="1"/>
       <c r="AB967" s="1"/>
+      <c r="AC967" s="1"/>
     </row>
     <row r="968">
       <c r="A968" s="1"/>
@@ -29882,6 +31082,7 @@
       <c r="Z968" s="1"/>
       <c r="AA968" s="1"/>
       <c r="AB968" s="1"/>
+      <c r="AC968" s="1"/>
     </row>
     <row r="969">
       <c r="A969" s="1"/>
@@ -29912,6 +31113,7 @@
       <c r="Z969" s="1"/>
       <c r="AA969" s="1"/>
       <c r="AB969" s="1"/>
+      <c r="AC969" s="1"/>
     </row>
     <row r="970">
       <c r="A970" s="1"/>
@@ -29942,6 +31144,7 @@
       <c r="Z970" s="1"/>
       <c r="AA970" s="1"/>
       <c r="AB970" s="1"/>
+      <c r="AC970" s="1"/>
     </row>
     <row r="971">
       <c r="A971" s="1"/>
@@ -29972,6 +31175,7 @@
       <c r="Z971" s="1"/>
       <c r="AA971" s="1"/>
       <c r="AB971" s="1"/>
+      <c r="AC971" s="1"/>
     </row>
     <row r="972">
       <c r="A972" s="1"/>
@@ -30002,6 +31206,7 @@
       <c r="Z972" s="1"/>
       <c r="AA972" s="1"/>
       <c r="AB972" s="1"/>
+      <c r="AC972" s="1"/>
     </row>
     <row r="973">
       <c r="A973" s="1"/>
@@ -30032,6 +31237,7 @@
       <c r="Z973" s="1"/>
       <c r="AA973" s="1"/>
       <c r="AB973" s="1"/>
+      <c r="AC973" s="1"/>
     </row>
     <row r="974">
       <c r="A974" s="1"/>
@@ -30062,6 +31268,7 @@
       <c r="Z974" s="1"/>
       <c r="AA974" s="1"/>
       <c r="AB974" s="1"/>
+      <c r="AC974" s="1"/>
     </row>
     <row r="975">
       <c r="A975" s="1"/>
@@ -30092,6 +31299,7 @@
       <c r="Z975" s="1"/>
       <c r="AA975" s="1"/>
       <c r="AB975" s="1"/>
+      <c r="AC975" s="1"/>
     </row>
     <row r="976">
       <c r="A976" s="1"/>
@@ -30122,6 +31330,7 @@
       <c r="Z976" s="1"/>
       <c r="AA976" s="1"/>
       <c r="AB976" s="1"/>
+      <c r="AC976" s="1"/>
     </row>
     <row r="977">
       <c r="A977" s="1"/>
@@ -30152,6 +31361,7 @@
       <c r="Z977" s="1"/>
       <c r="AA977" s="1"/>
       <c r="AB977" s="1"/>
+      <c r="AC977" s="1"/>
     </row>
     <row r="978">
       <c r="A978" s="1"/>
@@ -30182,6 +31392,7 @@
       <c r="Z978" s="1"/>
       <c r="AA978" s="1"/>
       <c r="AB978" s="1"/>
+      <c r="AC978" s="1"/>
     </row>
     <row r="979">
       <c r="A979" s="1"/>
@@ -30212,6 +31423,7 @@
       <c r="Z979" s="1"/>
       <c r="AA979" s="1"/>
       <c r="AB979" s="1"/>
+      <c r="AC979" s="1"/>
     </row>
     <row r="980">
       <c r="A980" s="1"/>
@@ -30242,6 +31454,7 @@
       <c r="Z980" s="1"/>
       <c r="AA980" s="1"/>
       <c r="AB980" s="1"/>
+      <c r="AC980" s="1"/>
     </row>
     <row r="981">
       <c r="A981" s="1"/>
@@ -30272,6 +31485,7 @@
       <c r="Z981" s="1"/>
       <c r="AA981" s="1"/>
       <c r="AB981" s="1"/>
+      <c r="AC981" s="1"/>
     </row>
     <row r="982">
       <c r="A982" s="1"/>
@@ -30302,6 +31516,7 @@
       <c r="Z982" s="1"/>
       <c r="AA982" s="1"/>
       <c r="AB982" s="1"/>
+      <c r="AC982" s="1"/>
     </row>
     <row r="983">
       <c r="A983" s="1"/>
@@ -30332,6 +31547,7 @@
       <c r="Z983" s="1"/>
       <c r="AA983" s="1"/>
       <c r="AB983" s="1"/>
+      <c r="AC983" s="1"/>
     </row>
     <row r="984">
       <c r="A984" s="1"/>
@@ -30362,6 +31578,7 @@
       <c r="Z984" s="1"/>
       <c r="AA984" s="1"/>
       <c r="AB984" s="1"/>
+      <c r="AC984" s="1"/>
     </row>
     <row r="985">
       <c r="A985" s="1"/>
@@ -30392,6 +31609,7 @@
       <c r="Z985" s="1"/>
       <c r="AA985" s="1"/>
       <c r="AB985" s="1"/>
+      <c r="AC985" s="1"/>
     </row>
     <row r="986">
       <c r="A986" s="1"/>
@@ -30422,6 +31640,7 @@
       <c r="Z986" s="1"/>
       <c r="AA986" s="1"/>
       <c r="AB986" s="1"/>
+      <c r="AC986" s="1"/>
     </row>
     <row r="987">
       <c r="A987" s="1"/>
@@ -30452,6 +31671,7 @@
       <c r="Z987" s="1"/>
       <c r="AA987" s="1"/>
       <c r="AB987" s="1"/>
+      <c r="AC987" s="1"/>
     </row>
     <row r="988">
       <c r="A988" s="1"/>
@@ -30482,6 +31702,7 @@
       <c r="Z988" s="1"/>
       <c r="AA988" s="1"/>
       <c r="AB988" s="1"/>
+      <c r="AC988" s="1"/>
     </row>
     <row r="989">
       <c r="A989" s="1"/>
@@ -30512,6 +31733,7 @@
       <c r="Z989" s="1"/>
       <c r="AA989" s="1"/>
       <c r="AB989" s="1"/>
+      <c r="AC989" s="1"/>
     </row>
     <row r="990">
       <c r="A990" s="1"/>
@@ -30542,6 +31764,7 @@
       <c r="Z990" s="1"/>
       <c r="AA990" s="1"/>
       <c r="AB990" s="1"/>
+      <c r="AC990" s="1"/>
     </row>
     <row r="991">
       <c r="A991" s="1"/>
@@ -30572,6 +31795,7 @@
       <c r="Z991" s="1"/>
       <c r="AA991" s="1"/>
       <c r="AB991" s="1"/>
+      <c r="AC991" s="1"/>
     </row>
     <row r="992">
       <c r="A992" s="1"/>
@@ -30602,6 +31826,7 @@
       <c r="Z992" s="1"/>
       <c r="AA992" s="1"/>
       <c r="AB992" s="1"/>
+      <c r="AC992" s="1"/>
     </row>
     <row r="993">
       <c r="A993" s="1"/>
@@ -30632,6 +31857,7 @@
       <c r="Z993" s="1"/>
       <c r="AA993" s="1"/>
       <c r="AB993" s="1"/>
+      <c r="AC993" s="1"/>
     </row>
     <row r="994">
       <c r="A994" s="1"/>
@@ -30662,6 +31888,7 @@
       <c r="Z994" s="1"/>
       <c r="AA994" s="1"/>
       <c r="AB994" s="1"/>
+      <c r="AC994" s="1"/>
     </row>
     <row r="995">
       <c r="A995" s="1"/>
@@ -30692,6 +31919,7 @@
       <c r="Z995" s="1"/>
       <c r="AA995" s="1"/>
       <c r="AB995" s="1"/>
+      <c r="AC995" s="1"/>
     </row>
     <row r="996">
       <c r="A996" s="1"/>
@@ -30722,6 +31950,7 @@
       <c r="Z996" s="1"/>
       <c r="AA996" s="1"/>
       <c r="AB996" s="1"/>
+      <c r="AC996" s="1"/>
     </row>
     <row r="997">
       <c r="A997" s="1"/>
@@ -30752,6 +31981,7 @@
       <c r="Z997" s="1"/>
       <c r="AA997" s="1"/>
       <c r="AB997" s="1"/>
+      <c r="AC997" s="1"/>
     </row>
     <row r="998">
       <c r="A998" s="1"/>
@@ -30782,6 +32012,7 @@
       <c r="Z998" s="1"/>
       <c r="AA998" s="1"/>
       <c r="AB998" s="1"/>
+      <c r="AC998" s="1"/>
     </row>
     <row r="999">
       <c r="A999" s="1"/>
@@ -30812,6 +32043,7 @@
       <c r="Z999" s="1"/>
       <c r="AA999" s="1"/>
       <c r="AB999" s="1"/>
+      <c r="AC999" s="1"/>
     </row>
     <row r="1000">
       <c r="A1000" s="1"/>
@@ -30842,6 +32074,7 @@
       <c r="Z1000" s="1"/>
       <c r="AA1000" s="1"/>
       <c r="AB1000" s="1"/>
+      <c r="AC1000" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -30849,8 +32082,9 @@
     <hyperlink r:id="rId3" ref="F3"/>
     <hyperlink r:id="rId4" ref="F4"/>
     <hyperlink r:id="rId5" ref="F6"/>
+    <hyperlink r:id="rId6" ref="F11"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <drawing r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>